--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -42,10 +42,43 @@
     <t>chapter</t>
   </si>
   <si>
-    <t>start area</t>
-  </si>
-  <si>
-    <t>end area</t>
+    <t>pixelSize</t>
+  </si>
+  <si>
+    <t>startArea</t>
+  </si>
+  <si>
+    <t>endArea</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U2-2</t>
+  </si>
+  <si>
+    <t>blade1</t>
+  </si>
+  <si>
+    <t>blade2</t>
+  </si>
+  <si>
+    <t>blade3</t>
+  </si>
+  <si>
+    <t>blade4</t>
+  </si>
+  <si>
+    <t>blade5</t>
+  </si>
+  <si>
+    <t>U2-1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U1-2</t>
   </si>
 </sst>
 </file>
@@ -81,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,15 +460,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +487,139 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11.18</v>
+      </c>
+      <c r="G2" s="1">
+        <v>13.14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15.27</v>
+      </c>
+      <c r="J2">
+        <f>SUM(E2:I2)</f>
+        <v>55.09</v>
+      </c>
+      <c r="P2">
+        <f>SUM(K2:O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.151</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.79</v>
+      </c>
+      <c r="F3" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>15.15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12.91</v>
+      </c>
+      <c r="J3" s="1">
+        <f>SUM(E3:I3)</f>
+        <v>63.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.81</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.93</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13.27</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12.49</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -30,55 +30,61 @@
     <t>time</t>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>blade</t>
-  </si>
-  <si>
     <t>chapter</t>
   </si>
   <si>
-    <t>pixelSize</t>
-  </si>
-  <si>
-    <t>startArea</t>
-  </si>
-  <si>
-    <t>endArea</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U2-2</t>
-  </si>
-  <si>
-    <t>blade1</t>
-  </si>
-  <si>
-    <t>blade2</t>
-  </si>
-  <si>
-    <t>blade3</t>
-  </si>
-  <si>
-    <t>blade4</t>
-  </si>
-  <si>
-    <t>blade5</t>
-  </si>
-  <si>
-    <t>U2-1</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U1-2</t>
+    <t>reviewer2SpeciesGn</t>
+  </si>
+  <si>
+    <t>reviewer2SpeciesSc</t>
+  </si>
+  <si>
+    <t>reviewer2SpeciesCm</t>
+  </si>
+  <si>
+    <t>reviewer1SpeciesSc</t>
+  </si>
+  <si>
+    <t>reviewer1SpeciesGn</t>
+  </si>
+  <si>
+    <t>reviewer1SpeciesCm</t>
+  </si>
+  <si>
+    <t>recCount</t>
+  </si>
+  <si>
+    <t>recSpeciesCm</t>
+  </si>
+  <si>
+    <t>recspeciesGn</t>
+  </si>
+  <si>
+    <t>recSpeciesSc</t>
+  </si>
+  <si>
+    <t>reviewer1Size</t>
+  </si>
+  <si>
+    <t>reviewer1Blade</t>
+  </si>
+  <si>
+    <t>recSize</t>
+  </si>
+  <si>
+    <t>recBlade</t>
+  </si>
+  <si>
+    <t>reviewer2Count</t>
+  </si>
+  <si>
+    <t>reveiwer1Count</t>
+  </si>
+  <si>
+    <t>reviewer2Size</t>
+  </si>
+  <si>
+    <t>reviewer2Blade</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,14 +116,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,38 +470,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="18.85546875" style="8" customWidth="1"/>
+    <col min="18" max="21" width="15" style="5" customWidth="1"/>
+    <col min="23" max="25" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -460,10 +571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,154 +584,25 @@
     <col min="11" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7.31</v>
-      </c>
-      <c r="F2" s="1">
-        <v>11.18</v>
-      </c>
-      <c r="G2" s="1">
-        <v>13.14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8.19</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15.27</v>
-      </c>
-      <c r="J2">
-        <f>SUM(E2:I2)</f>
-        <v>55.09</v>
-      </c>
-      <c r="P2">
-        <f>SUM(K2:O2)</f>
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.151</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.79</v>
-      </c>
-      <c r="F3" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>15.15</v>
-      </c>
-      <c r="H3" s="1">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12.91</v>
-      </c>
-      <c r="J3" s="1">
-        <f>SUM(E3:I3)</f>
-        <v>63.53</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.81</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.93</v>
-      </c>
-      <c r="G4" s="1">
-        <v>13.27</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7.03</v>
-      </c>
-      <c r="I4" s="1">
-        <v>12.49</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F66F7B5-AA2F-47D8-9E79-F2F64526698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -85,12 +91,87 @@
   </si>
   <si>
     <t>reviewer2Blade</t>
+  </si>
+  <si>
+    <t>IC-C1</t>
+  </si>
+  <si>
+    <t>GH010010.MP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redband Parrotfish </t>
+  </si>
+  <si>
+    <t>Sparisoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. aurofrenatum </t>
+  </si>
+  <si>
+    <t>Mature Adult</t>
+  </si>
+  <si>
+    <t>reviewer1Notes</t>
+  </si>
+  <si>
+    <t>Not sure is the three above are the same individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoplight Parrotfish </t>
+  </si>
+  <si>
+    <t>S. viride</t>
+  </si>
+  <si>
+    <t>Initial Phase</t>
+  </si>
+  <si>
+    <t>GH020010.MP4</t>
+  </si>
+  <si>
+    <t>Juvinile/Initial Phase</t>
+  </si>
+  <si>
+    <t>GH030010.MP4</t>
+  </si>
+  <si>
+    <t>GH070010.MP4</t>
+  </si>
+  <si>
+    <t>Juvinile is difficlule to classify 100%, however there are 3 dark spots on the ventral fin that makes me confident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not 100%, caudal fin and white splotch dorsal side before caudal fin makes me believe it’s an intermediate/initial redband parrotfish </t>
+  </si>
+  <si>
+    <t>GH040010.MP4</t>
+  </si>
+  <si>
+    <t>Redtail Parrotfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. chrysopertum </t>
+  </si>
+  <si>
+    <t>GH050010.MP4</t>
+  </si>
+  <si>
+    <t>4&amp;5</t>
+  </si>
+  <si>
+    <t>2&amp;4</t>
+  </si>
+  <si>
+    <t>3&amp;4</t>
+  </si>
+  <si>
+    <t>2&amp;3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -169,6 +250,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,6 +261,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -226,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +345,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +397,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,31 +589,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="18.85546875" style="8" customWidth="1"/>
-    <col min="18" max="21" width="15" style="5" customWidth="1"/>
-    <col min="23" max="25" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="43.453125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="18.81640625" style="8" customWidth="1"/>
+    <col min="19" max="22" width="15" style="5" customWidth="1"/>
+    <col min="24" max="26" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -527,41 +649,893 @@
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.20208333333333331</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -570,21 +1544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -594,14 +1568,14 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
@@ -610,12 +1584,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F66F7B5-AA2F-47D8-9E79-F2F64526698C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B09DE1C-021A-4D8A-A382-1D28E080B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="82">
   <si>
     <t>date</t>
   </si>
@@ -166,6 +166,108 @@
   </si>
   <si>
     <t>2&amp;3</t>
+  </si>
+  <si>
+    <t>IC-C2</t>
+  </si>
+  <si>
+    <t>GH027335</t>
+  </si>
+  <si>
+    <t>This trial has some issues… blade 2 appears to be picked on already, and 3, 4, and 5 appear almost completely gone already:/</t>
+  </si>
+  <si>
+    <t>Intermediate Juvinile</t>
+  </si>
+  <si>
+    <t>1&amp;2</t>
+  </si>
+  <si>
+    <t>GX010297</t>
+  </si>
+  <si>
+    <t>5&amp;4</t>
+  </si>
+  <si>
+    <t>** 1:48, banded butterfly comes to say hi to the camera:)</t>
+  </si>
+  <si>
+    <t>Juvinile</t>
+  </si>
+  <si>
+    <t>Intermediate juvinile</t>
+  </si>
+  <si>
+    <t>Terminal Phase</t>
+  </si>
+  <si>
+    <t>GX020297</t>
+  </si>
+  <si>
+    <t>IC-U1</t>
+  </si>
+  <si>
+    <t>GOPR9932</t>
+  </si>
+  <si>
+    <t>Bicolor Damselfish</t>
+  </si>
+  <si>
+    <t>Stegastes</t>
+  </si>
+  <si>
+    <t>S. partitus</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>*picks at algae on seagrass</t>
+  </si>
+  <si>
+    <t>^^</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>Beauregory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. leucostictus </t>
+  </si>
+  <si>
+    <t>^^ also characterized from color caudal/anal fin shape &amp; lack of spots(close to threespot damselfish</t>
+  </si>
+  <si>
+    <t>1&amp;3</t>
+  </si>
+  <si>
+    <t>Yellowtail Parrotfish</t>
+  </si>
+  <si>
+    <t>S. rubripinne</t>
+  </si>
+  <si>
+    <t>Initial-Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* somewhere inbetween initial and terminal phase, fairly certain in species identification </t>
+  </si>
+  <si>
+    <t>GO019932</t>
+  </si>
+  <si>
+    <t>3&amp;1&amp;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princess Parrotfish </t>
+  </si>
+  <si>
+    <t>Scarus</t>
+  </si>
+  <si>
+    <t>S. taeniopterus</t>
   </si>
 </sst>
 </file>
@@ -590,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="G50" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1223,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44119</v>
       </c>
@@ -1258,7 +1360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44119</v>
       </c>
@@ -1293,7 +1395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44119</v>
       </c>
@@ -1328,7 +1430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44119</v>
       </c>
@@ -1363,7 +1465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44119</v>
       </c>
@@ -1398,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44119</v>
       </c>
@@ -1433,7 +1535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44119</v>
       </c>
@@ -1468,7 +1570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44119</v>
       </c>
@@ -1503,7 +1605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44119</v>
       </c>
@@ -1536,6 +1638,1436 @@
       </c>
       <c r="K25" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="8">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="10">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="10">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="8">
+        <v>5</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" s="8">
+        <v>2</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="8">
+        <v>5</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="8">
+        <v>2</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="8">
+        <v>1</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="8">
+        <v>3</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="8">
+        <v>1</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="8">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.45208333333333334</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="8">
+        <v>1</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" s="8">
+        <v>2</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="10">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="8">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="8">
+        <v>1</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I56" s="8">
+        <v>1</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57" s="8">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58" s="8">
+        <v>1</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="8">
+        <v>1</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="8">
+        <v>1</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="8">
+        <v>1</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="8">
+        <v>1</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="8">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="8">
+        <v>1</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64" s="8">
+        <v>1</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="10">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +3119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B09DE1C-021A-4D8A-A382-1D28E080B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A68ABD1-D272-4462-8CF9-3F3E2D222D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="86">
   <si>
     <t>date</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>S. taeniopterus</t>
+  </si>
+  <si>
+    <t>GO029932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial phase </t>
+  </si>
+  <si>
+    <t>GO039932</t>
+  </si>
+  <si>
+    <t>** cant clearly see where it bites</t>
   </si>
 </sst>
 </file>
@@ -692,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G50" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3011,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E64" s="10">
         <v>1.3194444444444444E-2</v>
@@ -3035,7 +3047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44118</v>
       </c>
@@ -3046,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E65" s="10">
         <v>2.5694444444444447E-2</v>
@@ -3068,6 +3080,356 @@
       </c>
       <c r="K65" s="8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="10">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66" s="8">
+        <v>1</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="8">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" s="8">
+        <v>1</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="8">
+        <v>1</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K68" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="10">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="8">
+        <v>1</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="8">
+        <v>1</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I71" s="8">
+        <v>1</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="8">
+        <v>1</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K72" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="8">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73" s="8">
+        <v>1</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="8">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="8">
+        <v>1</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75" s="8">
+        <v>1</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A68ABD1-D272-4462-8CF9-3F3E2D222D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CAF7F-E3D3-48B5-AE93-BEDD95D68B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="94">
   <si>
     <t>date</t>
   </si>
@@ -255,9 +255,6 @@
     <t xml:space="preserve">* somewhere inbetween initial and terminal phase, fairly certain in species identification </t>
   </si>
   <si>
-    <t>GO019932</t>
-  </si>
-  <si>
     <t>3&amp;1&amp;2</t>
   </si>
   <si>
@@ -270,16 +267,43 @@
     <t>S. taeniopterus</t>
   </si>
   <si>
-    <t>GO029932</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial phase </t>
   </si>
   <si>
-    <t>GO039932</t>
-  </si>
-  <si>
     <t>** cant clearly see where it bites</t>
+  </si>
+  <si>
+    <t>3&amp;5</t>
+  </si>
+  <si>
+    <t>GP019932</t>
+  </si>
+  <si>
+    <t>GP029932</t>
+  </si>
+  <si>
+    <t>GP039932</t>
+  </si>
+  <si>
+    <t>GP049932</t>
+  </si>
+  <si>
+    <t>GP059932</t>
+  </si>
+  <si>
+    <t>Ocean Surgeonfish</t>
+  </si>
+  <si>
+    <t>Acanthurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. bahianus </t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* no stripes like doctorfish, has to be surgeon </t>
   </si>
 </sst>
 </file>
@@ -704,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2673,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E54" s="10">
         <v>4.9999999999999996E-2</v>
@@ -2708,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E55" s="10">
         <v>0.14444444444444446</v>
@@ -2729,7 +2753,7 @@
         <v>65</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -2743,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E56" s="10">
         <v>0.17916666666666667</v>
@@ -2778,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E57" s="10">
         <v>0.18611111111111112</v>
@@ -2813,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E58" s="10">
         <v>0.19930555555555554</v>
@@ -2848,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E59" s="10">
         <v>0.27291666666666664</v>
@@ -2883,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E60" s="10">
         <v>0.32569444444444445</v>
@@ -2918,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E61" s="10">
         <v>0.34791666666666665</v>
@@ -2953,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E62" s="10">
         <v>0.41944444444444445</v>
@@ -2988,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E63" s="10">
         <v>0.42499999999999999</v>
@@ -3023,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E64" s="10">
         <v>1.3194444444444444E-2</v>
@@ -3058,19 +3082,19 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E65" s="10">
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="H65" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="I65" s="4">
         <v>1</v>
@@ -3093,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E66" s="10">
         <v>5.9027777777777783E-2</v>
@@ -3128,19 +3152,19 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E67" s="10">
         <v>0.11944444444444445</v>
       </c>
       <c r="F67" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="I67" s="8">
         <v>1</v>
@@ -3160,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E68" s="10">
         <v>0.15</v>
@@ -3195,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E69" s="10">
         <v>0.24236111111111111</v>
@@ -3213,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K69" s="8">
         <v>1</v>
@@ -3230,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E70" s="10">
         <v>0.25694444444444448</v>
@@ -3265,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E71" s="10">
         <v>0.3527777777777778</v>
@@ -3300,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E72" s="10">
         <v>0.32916666666666666</v>
@@ -3318,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K72" s="8">
         <v>2</v>
@@ -3335,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E73" s="10">
         <v>0.38055555555555554</v>
@@ -3353,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K73" s="8">
         <v>1</v>
@@ -3370,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E74" s="10">
         <v>0.42083333333333334</v>
@@ -3394,7 +3418,7 @@
         <v>46</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -3408,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E75" s="10">
         <v>0.42152777777777778</v>
@@ -3426,10 +3450,223 @@
         <v>1</v>
       </c>
       <c r="J75" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="8">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K76" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77" s="8">
+        <v>1</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K77" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" s="8">
+        <v>1</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K78" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" s="8">
+        <v>1</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K79" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K75" s="8">
-        <v>1</v>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K80" s="8">
+        <v>2</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="8">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81" s="8">
+        <v>1</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322CAF7F-E3D3-48B5-AE93-BEDD95D68B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9DAE9-7479-41A1-A108-865622D2723D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="97">
   <si>
     <t>date</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t xml:space="preserve">* no stripes like doctorfish, has to be surgeon </t>
+  </si>
+  <si>
+    <t>GP069932</t>
+  </si>
+  <si>
+    <t>** hard to see, however at certain angle, red band below eye can be seen</t>
+  </si>
+  <si>
+    <t>GP079932</t>
   </si>
 </sst>
 </file>
@@ -728,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X81"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3634,7 +3643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>44118</v>
       </c>
@@ -3667,6 +3676,184 @@
       </c>
       <c r="K81" s="8" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="8">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="10">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="8">
+        <v>1</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K82" s="8">
+        <v>5</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="8">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="8">
+        <v>1</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K83" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K84" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="10">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I85" s="8">
+        <v>1</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K85" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9DAE9-7479-41A1-A108-865622D2723D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF4F4B-2FCF-4451-AB7A-6F3FACDD95BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="106">
   <si>
     <t>date</t>
   </si>
@@ -313,6 +313,33 @@
   </si>
   <si>
     <t>GP079932</t>
+  </si>
+  <si>
+    <t>GP089932</t>
+  </si>
+  <si>
+    <t>Foureye Butterflyfish</t>
+  </si>
+  <si>
+    <t>Chaetodon</t>
+  </si>
+  <si>
+    <t>C. capistratus</t>
+  </si>
+  <si>
+    <t>GP099932</t>
+  </si>
+  <si>
+    <t>2&amp;3&amp;4</t>
+  </si>
+  <si>
+    <t>GOPR2102</t>
+  </si>
+  <si>
+    <t>*This trial was missing blade one right off the bat</t>
+  </si>
+  <si>
+    <t>GP012102</t>
   </si>
 </sst>
 </file>
@@ -737,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3854,6 +3881,224 @@
       </c>
       <c r="K86" s="8" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="8">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K87" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="8">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="10">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="8">
+        <v>1</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="8">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I89" s="8">
+        <v>1</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K89" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="8">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="10">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I90" s="8">
+        <v>1</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="10">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="8">
+        <v>1</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="8">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="10">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="8">
+        <v>1</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K92" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D93" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AF4F4B-2FCF-4451-AB7A-6F3FACDD95BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F5133-A6C1-445A-A861-AF2304991E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="107">
   <si>
     <t>date</t>
   </si>
@@ -339,7 +339,10 @@
     <t>*This trial was missing blade one right off the bat</t>
   </si>
   <si>
-    <t>GP012102</t>
+    <t>GP022102</t>
+  </si>
+  <si>
+    <t>GP042102</t>
   </si>
 </sst>
 </file>
@@ -764,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4097,8 +4100,113 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="8">
+        <v>2</v>
+      </c>
       <c r="D93" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="8">
+        <v>1</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="8">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94" s="8">
+        <v>1</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="8">
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="10">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="8">
+        <v>1</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K95" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D96" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880F5133-A6C1-445A-A861-AF2304991E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38429D83-E3BB-48EA-9896-99D38A670761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="40" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="110">
   <si>
     <t>date</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>GP042102</t>
+  </si>
+  <si>
+    <t>2&amp;3&amp;4&amp;5</t>
+  </si>
+  <si>
+    <t>GP052102</t>
+  </si>
+  <si>
+    <t>GP072102</t>
   </si>
 </sst>
 </file>
@@ -767,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4205,8 +4214,213 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="8">
+        <v>2</v>
+      </c>
       <c r="D96" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="E96" s="10">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="8">
+        <v>1</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="8">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" s="10">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I97" s="8">
+        <v>1</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="8">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="10">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" s="8">
+        <v>1</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K98" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="8">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E99" s="10">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99" s="8">
+        <v>1</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K99" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="10">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="8">
+        <v>1</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="8">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="10">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I101" s="8">
+        <v>1</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" s="8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38429D83-E3BB-48EA-9896-99D38A670761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E78F37-CAB6-4D5B-AB4D-2C95706286DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="125">
   <si>
     <t>date</t>
   </si>
@@ -352,6 +352,51 @@
   </si>
   <si>
     <t>GP072102</t>
+  </si>
+  <si>
+    <t>GP092102</t>
+  </si>
+  <si>
+    <t>GP082102</t>
+  </si>
+  <si>
+    <t>IC-U2</t>
+  </si>
+  <si>
+    <t>GH010009</t>
+  </si>
+  <si>
+    <t>1:41** Porkfish checks out camera</t>
+  </si>
+  <si>
+    <t>Initial/juvinile Phase</t>
+  </si>
+  <si>
+    <t>2&amp;4&amp;5</t>
+  </si>
+  <si>
+    <t>***possible hybrid??</t>
+  </si>
+  <si>
+    <t>GH020009</t>
+  </si>
+  <si>
+    <t>1&amp;4&amp;5</t>
+  </si>
+  <si>
+    <t>GH030009</t>
+  </si>
+  <si>
+    <t>1&amp;2&amp;3</t>
+  </si>
+  <si>
+    <t>Juvinile Phase</t>
+  </si>
+  <si>
+    <t>GH040009</t>
+  </si>
+  <si>
+    <t>GH060009</t>
   </si>
 </sst>
 </file>
@@ -776,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4248,7 +4293,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44118</v>
       </c>
@@ -4283,7 +4328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44118</v>
       </c>
@@ -4318,7 +4363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44118</v>
       </c>
@@ -4353,7 +4398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44118</v>
       </c>
@@ -4388,7 +4433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44118</v>
       </c>
@@ -4421,6 +4466,1080 @@
       </c>
       <c r="K101" s="8">
         <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="8">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I102" s="8">
+        <v>1</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K102" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="10">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I103" s="8">
+        <v>1</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K103" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="10">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="8">
+        <v>1</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="8">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E105" s="10">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="8">
+        <v>1</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K105" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C106" s="8">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="10">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="8">
+        <v>1</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K106" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="8">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" s="10">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="8">
+        <v>1</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="8">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="10">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="8">
+        <v>1</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="8">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="10">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="8">
+        <v>1</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K109" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="8">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" s="10">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" s="8">
+        <v>1</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="8">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="10">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" s="8">
+        <v>1</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K111" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="8">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E112" s="10">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I112" s="8">
+        <v>1</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="8">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E113" s="10">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I113" s="8">
+        <v>1</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K113" s="8">
+        <v>4</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" s="8">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" s="10">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="8">
+        <v>1</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K114" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="8">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" s="10">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="8">
+        <v>1</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K115" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C116" s="8">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" s="10">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I116" s="8">
+        <v>1</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K116" s="8">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="8">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E117" s="10">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I117" s="8">
+        <v>1</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K117" s="8">
+        <v>5</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="8">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="10">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" s="8">
+        <v>1</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K118" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" s="8">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" s="10">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119" s="8">
+        <v>1</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K119" s="8">
+        <v>5</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" s="8">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" s="10">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I120" s="8">
+        <v>1</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K120" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" s="8">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E121" s="10">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" s="8">
+        <v>1</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K121" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="8">
+        <v>1</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E122" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="8">
+        <v>1</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K122" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C123" s="8">
+        <v>1</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" s="10">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I123" s="8">
+        <v>1</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K123" s="8">
+        <v>1</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="8">
+        <v>1</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E124" s="10">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="8">
+        <v>1</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="8">
+        <v>1</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E125" s="10">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="8">
+        <v>1</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="8">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="10">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="8">
+        <v>1</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K126" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C127" s="8">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E127" s="10">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" s="8">
+        <v>1</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K127" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" s="8">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E128" s="10">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I128" s="8">
+        <v>1</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K128" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C129" s="8">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E129" s="10">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" s="8">
+        <v>1</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K129" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="8">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E130" s="10">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="8">
+        <v>1</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K130" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" s="8">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E131" s="10">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="8">
+        <v>1</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E78F37-CAB6-4D5B-AB4D-2C95706286DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D527D0-7245-4353-98BE-702D1B8522FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="130">
   <si>
     <t>date</t>
   </si>
@@ -397,6 +397,21 @@
   </si>
   <si>
     <t>GH060009</t>
+  </si>
+  <si>
+    <t>Immediately lost 4th blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not very distict in color(light grey-brown with some red accents), however unlike typical yellowtail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not very distict in color(light grey), however unlike typical yellowtail in caudal and pectoral fin </t>
+  </si>
+  <si>
+    <t>^different individual, very similar physical traits</t>
+  </si>
+  <si>
+    <t>1&amp;3&amp;5</t>
   </si>
 </sst>
 </file>
@@ -821,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X131"/>
+  <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:C131"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5437,7 +5452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44118</v>
       </c>
@@ -5472,7 +5487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44118</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44118</v>
       </c>
@@ -5540,6 +5555,342 @@
       </c>
       <c r="K131" s="8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="8">
+        <v>1</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K132" s="8">
+        <v>2</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C133" s="8">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E133" s="10">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="8">
+        <v>1</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K133" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="8">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E134" s="10">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I134" s="8">
+        <v>1</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K134" s="8">
+        <v>3</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C135" s="8">
+        <v>2</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E135" s="10">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135" s="8">
+        <v>1</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K135" s="8">
+        <v>3</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C136" s="8">
+        <v>2</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E136" s="10">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I136" s="8">
+        <v>1</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K136" s="8">
+        <v>3</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C137" s="8">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E137" s="10">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I137" s="8">
+        <v>1</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K137" s="8">
+        <v>3</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C138" s="8">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" s="10">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I138" s="8">
+        <v>1</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K138" s="8">
+        <v>3</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" s="8">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E139" s="10">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I139" s="8">
+        <v>1</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K139" s="8">
+        <v>3</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="8">
+        <v>2</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E140" s="10">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I140" s="8">
+        <v>1</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D527D0-7245-4353-98BE-702D1B8522FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B38CFE-5B45-4DB0-BDFA-9C8F340DD3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="139">
   <si>
     <t>date</t>
   </si>
@@ -412,6 +412,33 @@
   </si>
   <si>
     <t>1&amp;3&amp;5</t>
+  </si>
+  <si>
+    <t>GH070009</t>
+  </si>
+  <si>
+    <t>IC-Z1</t>
+  </si>
+  <si>
+    <t>GOPR0217</t>
+  </si>
+  <si>
+    <t>GP010217</t>
+  </si>
+  <si>
+    <t>1&amp;5</t>
+  </si>
+  <si>
+    <t>terminial Phase</t>
+  </si>
+  <si>
+    <t>**funny fish fight</t>
+  </si>
+  <si>
+    <t>GP020217</t>
+  </si>
+  <si>
+    <t>done^^</t>
   </si>
 </sst>
 </file>
@@ -836,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="K144" sqref="K144"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5872,7 +5899,7 @@
         <v>120</v>
       </c>
       <c r="E140" s="10">
-        <v>0.14861111111111111</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>73</v>
@@ -5891,6 +5918,612 @@
       </c>
       <c r="K140" s="8" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" s="8">
+        <v>2</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" s="10">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141" s="8">
+        <v>1</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141" s="8">
+        <v>3</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="8">
+        <v>2</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E142" s="10">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I142" s="8">
+        <v>1</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K142" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" s="8">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E143" s="10">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143" s="8">
+        <v>1</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K143" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C144" s="8">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E144" s="10">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I144" s="8">
+        <v>1</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K144" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" s="8">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E145" s="10">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I145" s="8">
+        <v>1</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K145" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B146" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="10">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I146" s="8">
+        <v>1</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K146" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="8">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>133</v>
+      </c>
+      <c r="E147" s="10">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I147" s="8">
+        <v>1</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K147" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" s="8">
+        <v>1</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E148" s="10">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I148" s="8">
+        <v>1</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K148" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C149" s="8">
+        <v>1</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="10">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I149" s="8">
+        <v>1</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K149" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C150" s="8">
+        <v>1</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E150" s="10">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I150" s="8">
+        <v>1</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A151" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C151" s="8">
+        <v>1</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E151" s="10">
+        <v>0.1875</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I151" s="8">
+        <v>1</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="8">
+        <v>1</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E152" s="10">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I152" s="8">
+        <v>1</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K152" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="8">
+        <v>1</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E153" s="10">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I153" s="8">
+        <v>1</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K153" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C154" s="8">
+        <v>1</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E154" s="10">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I154" s="8">
+        <v>1</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K154" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C155" s="8">
+        <v>1</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E155" s="10">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I155" s="8">
+        <v>1</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K155" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="8">
+        <v>1</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E156" s="10">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I156" s="8">
+        <v>1</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K156" s="8">
+        <v>3</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="8">
+        <v>1</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E157" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I157" s="8">
+        <v>1</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K157" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B38CFE-5B45-4DB0-BDFA-9C8F340DD3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D41EC9-AD51-4B8C-9B79-1A429813EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="142">
   <si>
     <t>date</t>
   </si>
@@ -438,7 +438,16 @@
     <t>GP020217</t>
   </si>
   <si>
-    <t>done^^</t>
+    <t>3:48 **** nurse shark in GP030217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GP080217</t>
+  </si>
+  <si>
+    <t>GP012103</t>
   </si>
 </sst>
 </file>
@@ -863,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X158"/>
+  <dimension ref="A1:X161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6522,8 +6531,60 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D158" t="s">
+      <c r="A158" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="8">
+        <v>1</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E158" s="10">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I158" s="8">
+        <v>1</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K158" s="8">
+        <v>1</v>
+      </c>
+      <c r="L158" s="8" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E161" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D41EC9-AD51-4B8C-9B79-1A429813EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF18958A-84EC-4BAF-8043-801BEC776E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="146">
   <si>
     <t>date</t>
   </si>
@@ -448,6 +448,18 @@
   </si>
   <si>
     <t>GP012103</t>
+  </si>
+  <si>
+    <t>GP022103</t>
+  </si>
+  <si>
+    <t>GP052103</t>
+  </si>
+  <si>
+    <t>1&amp;4</t>
+  </si>
+  <si>
+    <t>GP062103</t>
   </si>
 </sst>
 </file>
@@ -872,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X161"/>
+  <dimension ref="A1:X178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6581,9 +6593,595 @@
       <c r="D159" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E161" t="s">
+      <c r="E159" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I159" s="8">
+        <v>1</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K159" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C160" s="8">
+        <v>2</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E160" s="10">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I160" s="8">
+        <v>1</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K160" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A161" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="8">
+        <v>2</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E161" s="10">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I161" s="8">
+        <v>1</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K161" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C162" s="8">
+        <v>2</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E162" s="10">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I162" s="8">
+        <v>1</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K162" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="8">
+        <v>2</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E163" s="10">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I163" s="8">
+        <v>1</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C164" s="8">
+        <v>2</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E164" s="10">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" s="8">
+        <v>1</v>
+      </c>
+      <c r="J164" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K164" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C165" s="8">
+        <v>2</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E165" s="10">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I165" s="8">
+        <v>1</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K165" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="8">
+        <v>2</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E166" s="10">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I166" s="8">
+        <v>1</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K166" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C167" s="8">
+        <v>2</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E167" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I167" s="8">
+        <v>1</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C168" s="8">
+        <v>2</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E168" s="10">
+        <v>0.23402777777777781</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I168" s="8">
+        <v>1</v>
+      </c>
+      <c r="J168" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K168" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169" s="8">
+        <v>2</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E169" s="10">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" s="8">
+        <v>1</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K169" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C170" s="8">
+        <v>2</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E170" s="10">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I170" s="8">
+        <v>1</v>
+      </c>
+      <c r="J170" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K170" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" s="8">
+        <v>2</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E171" s="10">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I171" s="8">
+        <v>1</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K171" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C172" s="8">
+        <v>2</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E172" s="10">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I172" s="8">
+        <v>1</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K172" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C173" s="8">
+        <v>2</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E173" s="10">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I173" s="8">
+        <v>1</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K173" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174" s="8">
+        <v>2</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E174" s="10">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174" s="8">
+        <v>1</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K174" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A175" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C175" s="8">
+        <v>2</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E175" s="10">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I175" s="8">
+        <v>1</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K175" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D176" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K178" s="8" t="s">
         <v>139</v>
       </c>
     </row>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF18958A-84EC-4BAF-8043-801BEC776E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD169EC-7FA2-4BC1-BEDC-3F54B1561A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="156">
   <si>
     <t>date</t>
   </si>
@@ -441,9 +441,6 @@
     <t>3:48 **** nurse shark in GP030217</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>GP080217</t>
   </si>
   <si>
@@ -459,7 +456,40 @@
     <t>1&amp;4</t>
   </si>
   <si>
-    <t>GP062103</t>
+    <t>IC-Z2</t>
+  </si>
+  <si>
+    <t>*missing 4th blade</t>
+  </si>
+  <si>
+    <t>GOPR9933</t>
+  </si>
+  <si>
+    <t>GP019933</t>
+  </si>
+  <si>
+    <t>Fairly hard to distinguish, except for light scale on dorsal portion of caudal region</t>
+  </si>
+  <si>
+    <t>GP029933</t>
+  </si>
+  <si>
+    <t>*visibility makes it difficult to determine, fins resemble threespot best</t>
+  </si>
+  <si>
+    <t>GP039933</t>
+  </si>
+  <si>
+    <t>GP059933</t>
+  </si>
+  <si>
+    <t>Blue Parrotfish</t>
+  </si>
+  <si>
+    <t>S. coeruleus</t>
+  </si>
+  <si>
+    <t>^done</t>
   </si>
 </sst>
 </file>
@@ -884,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X178"/>
+  <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6553,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E158" s="10">
         <v>0.30972222222222223</v>
@@ -6591,7 +6621,7 @@
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E159" s="10">
         <v>1.0416666666666666E-2</v>
@@ -6626,7 +6656,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E160" s="10">
         <v>9.2361111111111116E-2</v>
@@ -6650,7 +6680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44119</v>
       </c>
@@ -6661,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E161" s="10">
         <v>0.15972222222222224</v>
@@ -6685,7 +6715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44119</v>
       </c>
@@ -6696,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E162" s="10">
         <v>0.16388888888888889</v>
@@ -6720,7 +6750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44119</v>
       </c>
@@ -6731,7 +6761,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E163" s="10">
         <v>0.17083333333333331</v>
@@ -6755,7 +6785,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44119</v>
       </c>
@@ -6766,7 +6796,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E164" s="10">
         <v>0.18541666666666667</v>
@@ -6790,7 +6820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44119</v>
       </c>
@@ -6801,7 +6831,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E165" s="10">
         <v>0.21249999999999999</v>
@@ -6825,7 +6855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44119</v>
       </c>
@@ -6836,7 +6866,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E166" s="10">
         <v>0.22430555555555556</v>
@@ -6860,7 +6890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44119</v>
       </c>
@@ -6871,7 +6901,7 @@
         <v>2</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E167" s="10">
         <v>0.22500000000000001</v>
@@ -6895,7 +6925,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44119</v>
       </c>
@@ -6906,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E168" s="10">
         <v>0.23402777777777781</v>
@@ -6930,7 +6960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44119</v>
       </c>
@@ -6941,7 +6971,7 @@
         <v>2</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E169" s="10">
         <v>0.24097222222222223</v>
@@ -6965,7 +6995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44119</v>
       </c>
@@ -6976,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E170" s="10">
         <v>0.29652777777777778</v>
@@ -7000,7 +7030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>44119</v>
       </c>
@@ -7011,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E171" s="10">
         <v>0.30138888888888887</v>
@@ -7035,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>44119</v>
       </c>
@@ -7046,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E172" s="10">
         <v>0.3215277777777778</v>
@@ -7070,7 +7100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44119</v>
       </c>
@@ -7081,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E173" s="10">
         <v>0.3263888888888889</v>
@@ -7105,7 +7135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>44119</v>
       </c>
@@ -7116,7 +7146,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E174" s="10">
         <v>0.39374999999999999</v>
@@ -7140,7 +7170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>44119</v>
       </c>
@@ -7151,7 +7181,7 @@
         <v>2</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E175" s="10">
         <v>0.21597222222222223</v>
@@ -7172,17 +7202,896 @@
         <v>58</v>
       </c>
       <c r="K175" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B176" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C176">
+        <v>1</v>
+      </c>
       <c r="D176" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E176" s="10">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I176" s="8">
+        <v>1</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K176" s="8">
+        <v>3</v>
+      </c>
+      <c r="L176" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C177" s="8">
+        <v>1</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E177" s="10">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I177" s="8">
+        <v>1</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K177" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C178" s="8">
+        <v>1</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E178" s="10">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I178" s="8">
+        <v>1</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="K178" s="8" t="s">
-        <v>139</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179" s="8">
+        <v>1</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E179" s="10">
+        <v>0.1125</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I179" s="8">
+        <v>1</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K179" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C180" s="8">
+        <v>1</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E180" s="10">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I180" s="8">
+        <v>1</v>
+      </c>
+      <c r="J180" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K180" s="8">
+        <v>1</v>
+      </c>
+      <c r="L180" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C181" s="8">
+        <v>1</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E181" s="10">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I181" s="8">
+        <v>1</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K181" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A182" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C182" s="8">
+        <v>1</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E182" s="10">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I182" s="8">
+        <v>1</v>
+      </c>
+      <c r="J182" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K182" s="8">
+        <v>3</v>
+      </c>
+      <c r="L182" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A183" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="8">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E183" s="10">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I183" s="8">
+        <v>1</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K183" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C184" s="8">
+        <v>1</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E184" s="10">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I184" s="8">
+        <v>1</v>
+      </c>
+      <c r="J184" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K184" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C185" s="8">
+        <v>1</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E185" s="10">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I185" s="8">
+        <v>1</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K185" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C186" s="8">
+        <v>1</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E186" s="10">
+        <v>0.22152777777777777</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186" s="8">
+        <v>1</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K186" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C187" s="8">
+        <v>1</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E187" s="10">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I187" s="8">
+        <v>1</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K187" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C188" s="8">
+        <v>1</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E188" s="10">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I188" s="8">
+        <v>1</v>
+      </c>
+      <c r="J188" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K188" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C189" s="8">
+        <v>1</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E189" s="10">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I189" s="8">
+        <v>1</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K189" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C190" s="8">
+        <v>1</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E190" s="10">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I190" s="8">
+        <v>1</v>
+      </c>
+      <c r="J190" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C191" s="8">
+        <v>1</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E191" s="10">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I191" s="8">
+        <v>1</v>
+      </c>
+      <c r="J191" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C192" s="8">
+        <v>1</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E192" s="10">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I192" s="8">
+        <v>1</v>
+      </c>
+      <c r="J192" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K192" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C193" s="8">
+        <v>1</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E193" s="10">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I193" s="8">
+        <v>1</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K193" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C194" s="8">
+        <v>1</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E194" s="10">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I194" s="8">
+        <v>1</v>
+      </c>
+      <c r="J194" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K194" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A195" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C195" s="8">
+        <v>1</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E195" s="10">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I195" s="8">
+        <v>1</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K195" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A196" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C196" s="8">
+        <v>1</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E196" s="10">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I196" s="8">
+        <v>1</v>
+      </c>
+      <c r="J196" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K196" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A197" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C197" s="8">
+        <v>1</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E197" s="10">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I197" s="8">
+        <v>1</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K197" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A198" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C198" s="8">
+        <v>1</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E198" s="10">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I198" s="8">
+        <v>1</v>
+      </c>
+      <c r="J198" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K198" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C199" s="8">
+        <v>1</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E199" s="10">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I199" s="8">
+        <v>1</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K199" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C200" s="8">
+        <v>1</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E200" s="10">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I200" s="8">
+        <v>1</v>
+      </c>
+      <c r="J200" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K200" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C201" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD169EC-7FA2-4BC1-BEDC-3F54B1561A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C01E3C-6AE5-4227-9555-4C51C3B24A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="158">
   <si>
     <t>date</t>
   </si>
@@ -489,7 +489,13 @@
     <t>S. coeruleus</t>
   </si>
   <si>
-    <t>^done</t>
+    <t>GOPR0185</t>
+  </si>
+  <si>
+    <t>1&amp;3&amp;4</t>
+  </si>
+  <si>
+    <t>GO010185</t>
   </si>
 </sst>
 </file>
@@ -914,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X201"/>
+  <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="G197" workbookViewId="0">
+      <selection activeCell="K213" sqref="K213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7733,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K190" s="8" t="s">
         <v>121</v>
@@ -7768,7 +7774,7 @@
         <v>1</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K191" s="8" t="s">
         <v>52</v>
@@ -7803,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K192" s="8" t="s">
         <v>83</v>
@@ -7838,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="J193" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K193" s="8">
         <v>5</v>
@@ -7873,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="J194" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K194" s="8">
         <v>1</v>
@@ -7908,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="J195" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K195" s="8">
         <v>2</v>
@@ -7943,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="J196" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K196" s="8">
         <v>5</v>
@@ -7978,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="J197" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K197" s="8">
         <v>1</v>
@@ -8013,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K198" s="8">
         <v>3</v>
@@ -8048,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K199" s="8">
         <v>5</v>
@@ -8083,15 +8089,290 @@
         <v>1</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K200" s="8">
         <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C201" t="s">
+      <c r="A201" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201" t="s">
         <v>155</v>
+      </c>
+      <c r="E201" s="10">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I201" s="8">
+        <v>1</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C202" s="8">
+        <v>2</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E202" s="10">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I202" s="8">
+        <v>1</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C203" s="8">
+        <v>2</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E203" s="10">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I203" s="8">
+        <v>1</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C204" s="8">
+        <v>2</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E204" s="10">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I204" s="8">
+        <v>1</v>
+      </c>
+      <c r="J204" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K204" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C205" s="8">
+        <v>2</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E205" s="10">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I205" s="8">
+        <v>1</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C206" s="8">
+        <v>2</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E206" s="10">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H206" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I206" s="8">
+        <v>1</v>
+      </c>
+      <c r="J206" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K206" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C207" s="8">
+        <v>2</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E207" s="10">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G207" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H207" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I207" s="8">
+        <v>1</v>
+      </c>
+      <c r="J207" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C208" s="8">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>157</v>
+      </c>
+      <c r="E208" s="10">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G208" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I208" s="8">
+        <v>1</v>
+      </c>
+      <c r="J208" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K208" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C01E3C-6AE5-4227-9555-4C51C3B24A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41FC50-4B80-4A62-8C2B-BA12A25692BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="158">
   <si>
     <t>date</t>
   </si>
@@ -495,7 +495,7 @@
     <t>1&amp;3&amp;4</t>
   </si>
   <si>
-    <t>GO010185</t>
+    <t>GP010185</t>
   </si>
 </sst>
 </file>
@@ -920,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X208"/>
+  <dimension ref="A1:X210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G197" workbookViewId="0">
-      <selection activeCell="K213" sqref="K213"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8373,6 +8373,76 @@
       </c>
       <c r="K208" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C209" s="8">
+        <v>2</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E209" s="10">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209" s="8">
+        <v>1</v>
+      </c>
+      <c r="J209" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K209" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C210" s="8">
+        <v>2</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E210" s="10">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I210" s="8">
+        <v>1</v>
+      </c>
+      <c r="J210" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K210" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41FC50-4B80-4A62-8C2B-BA12A25692BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD6216-3D13-40F2-AEA1-4E12F2EB3071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="163">
   <si>
     <t>date</t>
   </si>
@@ -496,6 +496,21 @@
   </si>
   <si>
     <t>GP010185</t>
+  </si>
+  <si>
+    <t>IC-C3</t>
+  </si>
+  <si>
+    <t>*almost indistinguishable from yellowtail except for markings on the outside of the caudal fin</t>
+  </si>
+  <si>
+    <t>GH012197</t>
+  </si>
+  <si>
+    <t>GH032197</t>
+  </si>
+  <si>
+    <t>GH042197</t>
   </si>
 </sst>
 </file>
@@ -920,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X210"/>
+  <dimension ref="A1:X213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+    <sheetView tabSelected="1" topLeftCell="G196" zoomScale="107" workbookViewId="0">
+      <selection activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8375,7 +8390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>44119</v>
       </c>
@@ -8410,7 +8425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>44119</v>
       </c>
@@ -8442,6 +8457,114 @@
         <v>33</v>
       </c>
       <c r="K210" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B211" t="s">
+        <v>158</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>160</v>
+      </c>
+      <c r="E211" s="10">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I211" s="8">
+        <v>1</v>
+      </c>
+      <c r="J211" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K211" s="8">
+        <v>5</v>
+      </c>
+      <c r="L211" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C212" s="8">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>161</v>
+      </c>
+      <c r="E212" s="10">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I212" s="8">
+        <v>1</v>
+      </c>
+      <c r="J212" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K212" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213" s="8">
+        <v>1</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E213" s="10">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I213" s="8">
+        <v>1</v>
+      </c>
+      <c r="J213" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K213" s="8">
         <v>1</v>
       </c>
     </row>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CD6216-3D13-40F2-AEA1-4E12F2EB3071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498359C-69D2-43D9-A751-C59A2E4F5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X213"/>
+  <dimension ref="A1:X214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G196" zoomScale="107" workbookViewId="0">
-      <selection activeCell="K215" sqref="K215"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="107" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8567,6 +8567,9 @@
       <c r="K213" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E214" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498359C-69D2-43D9-A751-C59A2E4F5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D98E3E8-353D-4531-BBAC-FC69CF0CFD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="170">
   <si>
     <t>date</t>
   </si>
@@ -511,6 +511,27 @@
   </si>
   <si>
     <t>GH042197</t>
+  </si>
+  <si>
+    <t>GH013572</t>
+  </si>
+  <si>
+    <t>GH023572</t>
+  </si>
+  <si>
+    <t>GH033572</t>
+  </si>
+  <si>
+    <t>GH043572</t>
+  </si>
+  <si>
+    <t>GH053572</t>
+  </si>
+  <si>
+    <t>GH063572</t>
+  </si>
+  <si>
+    <t>3&amp;4&amp;5</t>
   </si>
 </sst>
 </file>
@@ -935,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X214"/>
+  <dimension ref="A1:X222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8569,7 +8590,292 @@
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E214" s="10"/>
+      <c r="A214" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>163</v>
+      </c>
+      <c r="E214" s="10">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I214" s="8">
+        <v>1</v>
+      </c>
+      <c r="J214" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K214" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C215" s="8">
+        <v>2</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E215" s="10">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I215" s="8">
+        <v>1</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K215" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C216" s="8">
+        <v>2</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E216" s="10">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G216" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I216" s="8">
+        <v>1</v>
+      </c>
+      <c r="J216" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K216" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C217" s="8">
+        <v>2</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E217" s="10">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I217" s="8">
+        <v>1</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K217" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C218" s="8">
+        <v>2</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E218" s="10">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G218" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I218" s="8">
+        <v>1</v>
+      </c>
+      <c r="J218" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K218" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C219" s="8">
+        <v>2</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E219" s="10">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I219" s="8">
+        <v>1</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K219" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C220" s="8">
+        <v>2</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E220" s="10">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G220" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I220" s="8">
+        <v>1</v>
+      </c>
+      <c r="J220" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K220" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C221" s="8">
+        <v>2</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E221" s="10">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I221" s="8">
+        <v>1</v>
+      </c>
+      <c r="J221" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K221" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D222" t="s">
+        <v>67</v>
+      </c>
+      <c r="E222" s="10">
+        <v>0.3125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D98E3E8-353D-4531-BBAC-FC69CF0CFD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC15775-CE8F-482A-90CF-E40E613CC1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="170">
   <si>
     <t>date</t>
   </si>
@@ -956,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X222"/>
+  <dimension ref="A1:X223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A210" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8870,11 +8870,46 @@
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D222" t="s">
-        <v>67</v>
+      <c r="A222" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C222" s="8">
+        <v>2</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="E222" s="10">
-        <v>0.3125</v>
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G222" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I222" s="8">
+        <v>1</v>
+      </c>
+      <c r="J222" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K222" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D223">
+        <v>7</v>
+      </c>
+      <c r="E223" s="10">
+        <v>0.34513888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC15775-CE8F-482A-90CF-E40E613CC1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBB698A-5837-4132-999C-0BC59F40AA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="174">
   <si>
     <t>date</t>
   </si>
@@ -532,6 +532,18 @@
   </si>
   <si>
     <t>3&amp;4&amp;5</t>
+  </si>
+  <si>
+    <t>GH093572</t>
+  </si>
+  <si>
+    <t>IC-U3</t>
+  </si>
+  <si>
+    <t>GOPR0001</t>
+  </si>
+  <si>
+    <t>GP010001</t>
   </si>
 </sst>
 </file>
@@ -956,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X223"/>
+  <dimension ref="A1:X227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8905,11 +8917,151 @@
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D223">
-        <v>7</v>
+      <c r="A223" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C223" s="8">
+        <v>2</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="E223" s="10">
-        <v>0.34513888888888888</v>
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I223" s="8">
+        <v>1</v>
+      </c>
+      <c r="J223" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K223" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B224" t="s">
+        <v>171</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>172</v>
+      </c>
+      <c r="E224" s="10">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G224" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H224" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I224" s="8">
+        <v>1</v>
+      </c>
+      <c r="J224" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K224" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C225" s="8">
+        <v>1</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E225" s="10">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I225" s="8">
+        <v>1</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K225" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C226" s="8">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>173</v>
+      </c>
+      <c r="E226" s="10">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G226" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I226" s="8">
+        <v>1</v>
+      </c>
+      <c r="J226" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K226" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D227">
+        <v>4</v>
+      </c>
+      <c r="E227" s="10">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBB698A-5837-4132-999C-0BC59F40AA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984ED76F-BFD8-45C1-979D-F1B368D34E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="107" workbookViewId="0">
       <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
@@ -9061,7 +9061,7 @@
         <v>4</v>
       </c>
       <c r="E227" s="10">
-        <v>0.33333333333333331</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984ED76F-BFD8-45C1-979D-F1B368D34E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35D9B7-E254-4928-A2E7-6542FE70DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3660" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="175">
   <si>
     <t>date</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>GP010001</t>
+  </si>
+  <si>
+    <t>GP050001</t>
   </si>
 </sst>
 </file>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X227"/>
+  <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9057,11 +9060,46 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D227">
-        <v>4</v>
+      <c r="A227" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C227" s="8">
+        <v>1</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="E227" s="10">
-        <v>8</v>
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I227" s="8">
+        <v>1</v>
+      </c>
+      <c r="J227" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K227" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D228">
+        <v>6</v>
+      </c>
+      <c r="E228" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35D9B7-E254-4928-A2E7-6542FE70DCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAEA1C9-B3B6-4D78-BFB2-4CBC17D25131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3660" windowWidth="12390" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="176">
   <si>
     <t>date</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>GP050001</t>
+  </si>
+  <si>
+    <t>GP090001</t>
   </si>
 </sst>
 </file>
@@ -971,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X228"/>
+  <dimension ref="A1:X229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9095,11 +9098,43 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D228">
-        <v>6</v>
+      <c r="A228" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C228" s="8">
+        <v>1</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="E228" s="10">
-        <v>0</v>
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G228" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H228" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I228" s="8">
+        <v>1</v>
+      </c>
+      <c r="J228" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K228" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C229">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAEA1C9-B3B6-4D78-BFB2-4CBC17D25131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2880C3-22C8-4A63-9C71-D6001068771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="181">
   <si>
     <t>date</t>
   </si>
@@ -550,6 +550,21 @@
   </si>
   <si>
     <t>GP090001</t>
+  </si>
+  <si>
+    <t>GOPR0225</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>GP010225</t>
+  </si>
+  <si>
+    <t>GP020225</t>
+  </si>
+  <si>
+    <t>**6:30- stingray</t>
   </si>
 </sst>
 </file>
@@ -974,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X229"/>
+  <dimension ref="A1:X233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="107" workbookViewId="0">
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8992,7 +9007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>44362</v>
       </c>
@@ -9027,7 +9042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>44362</v>
       </c>
@@ -9062,7 +9077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>44362</v>
       </c>
@@ -9097,7 +9112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>44362</v>
       </c>
@@ -9132,9 +9147,152 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="C229">
         <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>176</v>
+      </c>
+      <c r="E229" s="10">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I229" s="8">
+        <v>1</v>
+      </c>
+      <c r="J229" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C230" s="8">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>178</v>
+      </c>
+      <c r="E230" s="10">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I230" s="8">
+        <v>1</v>
+      </c>
+      <c r="J230" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K230" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E231" s="10">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I231" s="8">
+        <v>1</v>
+      </c>
+      <c r="J231" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K231" s="8">
+        <v>2</v>
+      </c>
+      <c r="L231" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C232" s="8">
+        <v>2</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E232" s="10">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H232" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I232" s="8">
+        <v>1</v>
+      </c>
+      <c r="J232" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K232" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D233">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2880C3-22C8-4A63-9C71-D6001068771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69CB81-CEF5-4A9C-83A3-5704B49F6116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="182">
   <si>
     <t>date</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>**6:30- stingray</t>
+  </si>
+  <si>
+    <t>GP050225</t>
   </si>
 </sst>
 </file>
@@ -989,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X233"/>
+  <dimension ref="A1:X234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9291,8 +9294,46 @@
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D233">
-        <v>4</v>
+      <c r="A233" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C233" s="8">
+        <v>2</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E233" s="10">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I233" s="8">
+        <v>1</v>
+      </c>
+      <c r="J233" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K233" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D234">
+        <v>6</v>
+      </c>
+      <c r="E234" s="10">
+        <v>0.14791666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69CB81-CEF5-4A9C-83A3-5704B49F6116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57A3C0B-E885-4020-B64F-52CFCF442BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="183">
   <si>
     <t>date</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>GP050225</t>
+  </si>
+  <si>
+    <t>GP060225</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X234"/>
+  <dimension ref="A1:X236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+      <selection activeCell="E236" sqref="E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9329,11 +9332,81 @@
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D234">
-        <v>6</v>
+      <c r="A234" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C234" s="8">
+        <v>2</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="E234" s="10">
-        <v>0.14791666666666667</v>
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I234" s="8">
+        <v>1</v>
+      </c>
+      <c r="J234" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K234" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C235" s="8">
+        <v>2</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E235" s="10">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I235" s="8">
+        <v>1</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K235" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D236">
+        <v>7</v>
+      </c>
+      <c r="E236" s="10">
+        <v>0.37638888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57A3C0B-E885-4020-B64F-52CFCF442BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D8461-13F6-4A6E-A3E4-E29FBDA40C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="187">
   <si>
     <t>date</t>
   </si>
@@ -571,6 +571,18 @@
   </si>
   <si>
     <t>GP060225</t>
+  </si>
+  <si>
+    <t>GP080225</t>
+  </si>
+  <si>
+    <t>IC-Z3</t>
+  </si>
+  <si>
+    <t>GH023574</t>
+  </si>
+  <si>
+    <t>Adult Phase</t>
   </si>
 </sst>
 </file>
@@ -636,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -657,6 +669,7 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X236"/>
+  <dimension ref="A1:X241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E236" sqref="E236"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9402,15 +9415,218 @@
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D236">
-        <v>7</v>
+      <c r="A236" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C236" s="8">
+        <v>2</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="E236" s="10">
-        <v>0.37638888888888888</v>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I236" s="8">
+        <v>1</v>
+      </c>
+      <c r="J236" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K236" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B237" t="s">
+        <v>184</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E237" s="10">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I237" s="8">
+        <v>1</v>
+      </c>
+      <c r="J237" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K237" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C238" s="8">
+        <v>1</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E238" s="10">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H238" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I238" s="12">
+        <v>1</v>
+      </c>
+      <c r="J238" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K238" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C239" s="8">
+        <v>1</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E239" s="10">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H239" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I239" s="12">
+        <v>1</v>
+      </c>
+      <c r="J239" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K239" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A240" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C240" s="8">
+        <v>1</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E240" s="10">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H240" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I240" s="12">
+        <v>1</v>
+      </c>
+      <c r="J240" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K240" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A241" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C241" s="8">
+        <v>1</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E241" s="10">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H241" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I241" s="8">
+        <v>1</v>
+      </c>
+      <c r="J241" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K241" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0D8461-13F6-4A6E-A3E4-E29FBDA40C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC539E9-CF73-4365-B6A0-42183DD7CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="189">
   <si>
     <t>date</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>Adult Phase</t>
+  </si>
+  <si>
+    <t>GH043574</t>
+  </si>
+  <si>
+    <t>GH053574</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X241"/>
+  <dimension ref="A1:X248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9622,6 +9628,221 @@
       </c>
       <c r="K241" s="8">
         <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C242" s="8">
+        <v>1</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E242" s="10">
+        <v>0.32708333333333334</v>
+      </c>
+      <c r="F242" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G242" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H242" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I242" s="8">
+        <v>1</v>
+      </c>
+      <c r="J242" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K242" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A243" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C243" s="8">
+        <v>1</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E243" s="10">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I243" s="8">
+        <v>1</v>
+      </c>
+      <c r="J243" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K243" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A244" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C244" s="8">
+        <v>1</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E244" s="10">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H244" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I244" s="8">
+        <v>1</v>
+      </c>
+      <c r="J244" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K244" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A245" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C245" s="8">
+        <v>1</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E245" s="10">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I245" s="8">
+        <v>1</v>
+      </c>
+      <c r="J245" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K245" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A246" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C246" s="8">
+        <v>1</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E246" s="10">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H246" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I246" s="8">
+        <v>1</v>
+      </c>
+      <c r="J246" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K246" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A247" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C247" s="8">
+        <v>1</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E247" s="10">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I247" s="8">
+        <v>1</v>
+      </c>
+      <c r="J247" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K247" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D248">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC539E9-CF73-4365-B6A0-42183DD7CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BE517-EF17-46B3-8A39-AB2AA127D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="191">
   <si>
     <t>date</t>
   </si>
@@ -589,6 +589,12 @@
   </si>
   <si>
     <t>GH053574</t>
+  </si>
+  <si>
+    <t>GH063574</t>
+  </si>
+  <si>
+    <t>GH073574</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X248"/>
+  <dimension ref="A1:X252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9841,8 +9847,148 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D248">
-        <v>6</v>
+      <c r="A248" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C248" s="8">
+        <v>1</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E248" s="10">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I248" s="8">
+        <v>1</v>
+      </c>
+      <c r="J248" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K248" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A249" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C249" s="8">
+        <v>1</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E249" s="10">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="F249" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H249" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I249" s="12">
+        <v>1</v>
+      </c>
+      <c r="J249" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K249" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A250" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C250" s="8">
+        <v>1</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E250" s="10">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G250" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H250" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I250" s="12">
+        <v>1</v>
+      </c>
+      <c r="J250" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K250" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A251" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C251" s="8">
+        <v>1</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E251" s="10">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I251" s="8">
+        <v>1</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K251" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C252">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5BE517-EF17-46B3-8A39-AB2AA127D0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51CBFAB-9A10-41E0-9513-70642A9B380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:X252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+      <selection activeCell="E252" sqref="E252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9989,6 +9989,12 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C252">
         <v>2</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+      <c r="E252" s="10">
+        <v>0.38194444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleno\OneDrive\Documents\GitHub\photogrammetryNOAA\herbivory\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51CBFAB-9A10-41E0-9513-70642A9B380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC35D8-374B-4081-A253-47B19F02A9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21990" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="197">
   <si>
     <t>date</t>
   </si>
@@ -595,6 +595,24 @@
   </si>
   <si>
     <t>GH073574</t>
+  </si>
+  <si>
+    <t>GH068312</t>
+  </si>
+  <si>
+    <t>GH078312</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>GH088312</t>
+  </si>
+  <si>
+    <t>*this fish ate the seagrass after it was detached from the closepin</t>
+  </si>
+  <si>
+    <t>GH098312</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X252"/>
+  <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E252" sqref="E252"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9987,14 +10005,636 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A252" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="C252">
         <v>2</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="s">
+        <v>191</v>
+      </c>
+      <c r="E252" s="10">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G252" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H252" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I252" s="12">
+        <v>1</v>
+      </c>
+      <c r="J252" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K252" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A253" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C253" s="8">
+        <v>2</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E253" s="10">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H253" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I253" s="8">
+        <v>1</v>
+      </c>
+      <c r="J253" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K253" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A254" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C254" s="8">
+        <v>2</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E254" s="10">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G254" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I254" s="8">
+        <v>1</v>
+      </c>
+      <c r="J254" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K254" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A255" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C255" s="8">
+        <v>2</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E255" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="F255" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H255" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I255" s="12">
+        <v>1</v>
+      </c>
+      <c r="J255" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K255" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C256" s="8">
+        <v>2</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E256" s="10">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="F256" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H256" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I256" s="12">
+        <v>1</v>
+      </c>
+      <c r="J256" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K256" s="8">
         <v>4</v>
       </c>
-      <c r="E252" s="10">
-        <v>0.38194444444444442</v>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C257" s="8">
+        <v>2</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E257" s="10">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="F257" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H257" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I257" s="12">
+        <v>1</v>
+      </c>
+      <c r="J257" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K257" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C258" s="8">
+        <v>2</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E258" s="10">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H258" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I258" s="8">
+        <v>1</v>
+      </c>
+      <c r="J258" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K258" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A259" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C259" s="8">
+        <v>2</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E259" s="10">
+        <v>0.39861111111111108</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I259" s="8">
+        <v>1</v>
+      </c>
+      <c r="J259" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K259" s="8">
+        <v>4</v>
+      </c>
+      <c r="L259" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A260" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C260" s="8">
+        <v>2</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E260" s="10">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G260" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H260" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I260" s="8">
+        <v>1</v>
+      </c>
+      <c r="J260" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K260" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A261" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C261" s="8">
+        <v>2</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E261" s="10">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G261" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H261" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I261" s="12">
+        <v>1</v>
+      </c>
+      <c r="J261" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K261" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A262" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C262" s="8">
+        <v>2</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E262" s="10">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G262" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H262" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I262" s="8">
+        <v>1</v>
+      </c>
+      <c r="J262" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K262" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A263" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C263" s="8">
+        <v>2</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E263" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I263" s="8">
+        <v>1</v>
+      </c>
+      <c r="J263" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K263" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A264" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C264" s="8">
+        <v>2</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E264" s="10">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G264" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H264" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I264" s="8">
+        <v>1</v>
+      </c>
+      <c r="J264" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K264" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A265" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C265" s="8">
+        <v>2</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E265" s="10">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H265" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I265" s="12">
+        <v>1</v>
+      </c>
+      <c r="J265" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K265" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A266" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C266" s="8">
+        <v>2</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E266" s="10">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H266" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I266" s="8">
+        <v>1</v>
+      </c>
+      <c r="J266" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K266" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A267" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C267" s="8">
+        <v>2</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E267" s="10">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H267" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I267" s="8">
+        <v>1</v>
+      </c>
+      <c r="J267" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K267" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A268" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C268" s="8">
+        <v>2</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E268" s="10">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G268" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H268" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I268" s="8">
+        <v>1</v>
+      </c>
+      <c r="J268" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K268" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A269" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C269" s="8">
+        <v>2</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E269" s="10">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I269" s="8">
+        <v>1</v>
+      </c>
+      <c r="J269" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K269" s="8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{056DAE8E-9726-4C96-A9BD-A060A2C94254}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21996" windowHeight="9420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="201">
   <si>
     <t>date</t>
   </si>
@@ -607,12 +625,24 @@
   </si>
   <si>
     <t>reviewer1Count</t>
+  </si>
+  <si>
+    <t>GH028310</t>
+  </si>
+  <si>
+    <t>GH038310</t>
+  </si>
+  <si>
+    <t>1, 4, 2</t>
+  </si>
+  <si>
+    <t>4, 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,7 +672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -663,6 +693,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +754,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,9 +787,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,6 +839,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,38 +1031,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y269"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B270" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E289" sqref="E289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="14.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="7"/>
-    <col min="6" max="6" width="22.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.90625" style="7"/>
+    <col min="4" max="4" width="14.36328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="7"/>
+    <col min="6" max="6" width="22.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="38.5546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="18.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="38.54296875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="20.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="18.6328125" style="7" customWidth="1"/>
     <col min="20" max="23" width="15" style="7" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="7"/>
-    <col min="25" max="27" width="9.33203125" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="7"/>
+    <col min="24" max="24" width="8.90625" style="7"/>
+    <col min="25" max="27" width="9.36328125" style="7" customWidth="1"/>
+    <col min="28" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>44119</v>
       </c>
@@ -1113,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>44119</v>
       </c>
@@ -1152,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>44119</v>
       </c>
@@ -1191,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>44119</v>
       </c>
@@ -1230,7 +1295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>44119</v>
       </c>
@@ -1272,7 +1337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>44119</v>
       </c>
@@ -1311,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>44119</v>
       </c>
@@ -1350,7 +1415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>44119</v>
       </c>
@@ -1389,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>44119</v>
       </c>
@@ -1428,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>44119</v>
       </c>
@@ -1467,7 +1532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>44119</v>
       </c>
@@ -1509,7 +1574,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>44119</v>
       </c>
@@ -1548,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>44119</v>
       </c>
@@ -1587,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>44119</v>
       </c>
@@ -1629,7 +1694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>44119</v>
       </c>
@@ -1668,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>44119</v>
       </c>
@@ -1707,7 +1772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>44119</v>
       </c>
@@ -1746,7 +1811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>44119</v>
       </c>
@@ -1785,7 +1850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>44119</v>
       </c>
@@ -1824,7 +1889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>44119</v>
       </c>
@@ -1863,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>44119</v>
       </c>
@@ -1902,7 +1967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>44119</v>
       </c>
@@ -1941,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>44119</v>
       </c>
@@ -1980,7 +2045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>44119</v>
       </c>
@@ -2019,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>44119</v>
       </c>
@@ -2061,7 +2126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>44119</v>
       </c>
@@ -2100,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>44119</v>
       </c>
@@ -2139,7 +2204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>44119</v>
       </c>
@@ -2178,7 +2243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>44119</v>
       </c>
@@ -2220,7 +2285,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>44119</v>
       </c>
@@ -2259,7 +2324,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>44119</v>
       </c>
@@ -2298,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>44119</v>
       </c>
@@ -2337,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>44119</v>
       </c>
@@ -2376,7 +2441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>44119</v>
       </c>
@@ -2415,7 +2480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>44119</v>
       </c>
@@ -2454,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>44119</v>
       </c>
@@ -2493,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>44119</v>
       </c>
@@ -2532,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>44119</v>
       </c>
@@ -2571,7 +2636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>44119</v>
       </c>
@@ -2610,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>44119</v>
       </c>
@@ -2649,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>44118</v>
       </c>
@@ -2691,7 +2756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>44118</v>
       </c>
@@ -2733,7 +2798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>44118</v>
       </c>
@@ -2775,7 +2840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44118</v>
       </c>
@@ -2817,7 +2882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>44118</v>
       </c>
@@ -2859,7 +2924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>44118</v>
       </c>
@@ -2901,7 +2966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>44118</v>
       </c>
@@ -2943,7 +3008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>44118</v>
       </c>
@@ -2982,7 +3047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>44118</v>
       </c>
@@ -3021,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>44118</v>
       </c>
@@ -3060,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>44118</v>
       </c>
@@ -3099,7 +3164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>44118</v>
       </c>
@@ -3141,7 +3206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>44118</v>
       </c>
@@ -3180,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>44118</v>
       </c>
@@ -3219,7 +3284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>44118</v>
       </c>
@@ -3258,7 +3323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>44118</v>
       </c>
@@ -3297,7 +3362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>44118</v>
       </c>
@@ -3336,7 +3401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>44118</v>
       </c>
@@ -3375,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>44118</v>
       </c>
@@ -3414,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>44118</v>
       </c>
@@ -3453,7 +3518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>44118</v>
       </c>
@@ -3492,7 +3557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>44118</v>
       </c>
@@ -3531,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>44118</v>
       </c>
@@ -3570,7 +3635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>44118</v>
       </c>
@@ -3609,7 +3674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>44118</v>
       </c>
@@ -3648,7 +3713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>44118</v>
       </c>
@@ -3684,7 +3749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>44118</v>
       </c>
@@ -3723,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>44118</v>
       </c>
@@ -3762,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>44118</v>
       </c>
@@ -3801,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>44118</v>
       </c>
@@ -3840,7 +3905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>44118</v>
       </c>
@@ -3879,7 +3944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>44118</v>
       </c>
@@ -3918,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>44118</v>
       </c>
@@ -3960,7 +4025,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>44118</v>
       </c>
@@ -3999,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>44118</v>
       </c>
@@ -4038,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>44118</v>
       </c>
@@ -4077,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>44118</v>
       </c>
@@ -4116,7 +4181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>44118</v>
       </c>
@@ -4155,7 +4220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>44118</v>
       </c>
@@ -4197,7 +4262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>44118</v>
       </c>
@@ -4236,7 +4301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>44118</v>
       </c>
@@ -4278,7 +4343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>44118</v>
       </c>
@@ -4317,7 +4382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>44118</v>
       </c>
@@ -4356,7 +4421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>44118</v>
       </c>
@@ -4395,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>44118</v>
       </c>
@@ -4434,7 +4499,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>44118</v>
       </c>
@@ -4473,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>44118</v>
       </c>
@@ -4512,7 +4577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>44118</v>
       </c>
@@ -4551,7 +4616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>44118</v>
       </c>
@@ -4590,7 +4655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>44118</v>
       </c>
@@ -4632,7 +4697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>44118</v>
       </c>
@@ -4671,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>44118</v>
       </c>
@@ -4710,7 +4775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>44118</v>
       </c>
@@ -4749,7 +4814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>44118</v>
       </c>
@@ -4788,7 +4853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>44118</v>
       </c>
@@ -4827,7 +4892,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>44118</v>
       </c>
@@ -4866,7 +4931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>44118</v>
       </c>
@@ -4905,7 +4970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>44118</v>
       </c>
@@ -4944,7 +5009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>44118</v>
       </c>
@@ -4983,7 +5048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>44118</v>
       </c>
@@ -5022,7 +5087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>44118</v>
       </c>
@@ -5061,7 +5126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>44118</v>
       </c>
@@ -5100,7 +5165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>44118</v>
       </c>
@@ -5142,7 +5207,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>44118</v>
       </c>
@@ -5181,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>44118</v>
       </c>
@@ -5220,7 +5285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>44118</v>
       </c>
@@ -5259,7 +5324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>44118</v>
       </c>
@@ -5298,7 +5363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>44118</v>
       </c>
@@ -5337,7 +5402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>44118</v>
       </c>
@@ -5376,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>44118</v>
       </c>
@@ -5415,7 +5480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>44118</v>
       </c>
@@ -5457,7 +5522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>44118</v>
       </c>
@@ -5499,7 +5564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>44118</v>
       </c>
@@ -5538,7 +5603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>44118</v>
       </c>
@@ -5577,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>44118</v>
       </c>
@@ -5619,7 +5684,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>44118</v>
       </c>
@@ -5661,7 +5726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>44118</v>
       </c>
@@ -5700,7 +5765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>44118</v>
       </c>
@@ -5742,7 +5807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>44118</v>
       </c>
@@ -5784,7 +5849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>44118</v>
       </c>
@@ -5823,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>44118</v>
       </c>
@@ -5862,7 +5927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>44118</v>
       </c>
@@ -5904,7 +5969,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>44118</v>
       </c>
@@ -5943,7 +6008,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>44118</v>
       </c>
@@ -5982,7 +6047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>44118</v>
       </c>
@@ -6021,7 +6086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>44118</v>
       </c>
@@ -6060,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>44118</v>
       </c>
@@ -6099,7 +6164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>44118</v>
       </c>
@@ -6138,7 +6203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>44118</v>
       </c>
@@ -6177,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>44118</v>
       </c>
@@ -6216,7 +6281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>44118</v>
       </c>
@@ -6258,7 +6323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>44118</v>
       </c>
@@ -6297,7 +6362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>44118</v>
       </c>
@@ -6339,7 +6404,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>44118</v>
       </c>
@@ -6381,7 +6446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>44118</v>
       </c>
@@ -6423,7 +6488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>44118</v>
       </c>
@@ -6465,7 +6530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>44118</v>
       </c>
@@ -6507,7 +6572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>44118</v>
       </c>
@@ -6549,7 +6614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>44118</v>
       </c>
@@ -6588,7 +6653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>44118</v>
       </c>
@@ -6630,7 +6695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>44118</v>
       </c>
@@ -6669,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>44118</v>
       </c>
@@ -6708,7 +6773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>44118</v>
       </c>
@@ -6747,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>44118</v>
       </c>
@@ -6786,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>44119</v>
       </c>
@@ -6825,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>44119</v>
       </c>
@@ -6864,7 +6929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>44119</v>
       </c>
@@ -6903,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>44119</v>
       </c>
@@ -6942,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>44119</v>
       </c>
@@ -6981,7 +7046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>44119</v>
       </c>
@@ -7020,7 +7085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>44119</v>
       </c>
@@ -7059,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>44119</v>
       </c>
@@ -7098,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>44119</v>
       </c>
@@ -7137,7 +7202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>44119</v>
       </c>
@@ -7176,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>44119</v>
       </c>
@@ -7218,7 +7283,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>44119</v>
       </c>
@@ -7257,7 +7322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>44119</v>
       </c>
@@ -7299,7 +7364,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>44119</v>
       </c>
@@ -7338,7 +7403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>44119</v>
       </c>
@@ -7377,7 +7442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>44119</v>
       </c>
@@ -7416,7 +7481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>44119</v>
       </c>
@@ -7455,7 +7520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>44119</v>
       </c>
@@ -7494,7 +7559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>44119</v>
       </c>
@@ -7533,7 +7598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>44119</v>
       </c>
@@ -7572,7 +7637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>44119</v>
       </c>
@@ -7611,7 +7676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>44119</v>
       </c>
@@ -7650,7 +7715,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>44119</v>
       </c>
@@ -7689,7 +7754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>44119</v>
       </c>
@@ -7728,7 +7793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>44119</v>
       </c>
@@ -7767,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>44119</v>
       </c>
@@ -7806,7 +7871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>44119</v>
       </c>
@@ -7845,7 +7910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>44119</v>
       </c>
@@ -7884,7 +7949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>44119</v>
       </c>
@@ -7923,7 +7988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>44119</v>
       </c>
@@ -7962,7 +8027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>44119</v>
       </c>
@@ -8004,7 +8069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>44119</v>
       </c>
@@ -8043,7 +8108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>44119</v>
       </c>
@@ -8082,7 +8147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>44119</v>
       </c>
@@ -8121,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>44119</v>
       </c>
@@ -8163,7 +8228,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>44119</v>
       </c>
@@ -8202,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>44119</v>
       </c>
@@ -8244,7 +8309,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>44119</v>
       </c>
@@ -8283,7 +8348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>44119</v>
       </c>
@@ -8322,7 +8387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>44119</v>
       </c>
@@ -8361,7 +8426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>44119</v>
       </c>
@@ -8400,7 +8465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>44119</v>
       </c>
@@ -8439,7 +8504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>44119</v>
       </c>
@@ -8478,7 +8543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>44119</v>
       </c>
@@ -8517,7 +8582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>44119</v>
       </c>
@@ -8556,7 +8621,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>44119</v>
       </c>
@@ -8595,7 +8660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>44119</v>
       </c>
@@ -8634,7 +8699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>44119</v>
       </c>
@@ -8673,7 +8738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>44119</v>
       </c>
@@ -8712,7 +8777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>44119</v>
       </c>
@@ -8751,7 +8816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>44119</v>
       </c>
@@ -8790,7 +8855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>44119</v>
       </c>
@@ -8829,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>44119</v>
       </c>
@@ -8868,7 +8933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>44119</v>
       </c>
@@ -8907,7 +8972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>44119</v>
       </c>
@@ -8946,7 +9011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>44119</v>
       </c>
@@ -8985,7 +9050,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>44119</v>
       </c>
@@ -9024,7 +9089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>44119</v>
       </c>
@@ -9063,7 +9128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>44119</v>
       </c>
@@ -9102,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>44119</v>
       </c>
@@ -9141,7 +9206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>44119</v>
       </c>
@@ -9180,7 +9245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>44119</v>
       </c>
@@ -9219,7 +9284,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>44119</v>
       </c>
@@ -9258,7 +9323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>44119</v>
       </c>
@@ -9297,7 +9362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>44119</v>
       </c>
@@ -9336,7 +9401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>44359</v>
       </c>
@@ -9378,7 +9443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>44359</v>
       </c>
@@ -9417,7 +9482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>44359</v>
       </c>
@@ -9456,7 +9521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>44359</v>
       </c>
@@ -9495,7 +9560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>44359</v>
       </c>
@@ -9534,7 +9599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>44359</v>
       </c>
@@ -9573,7 +9638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>44359</v>
       </c>
@@ -9612,7 +9677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>44359</v>
       </c>
@@ -9651,7 +9716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>44359</v>
       </c>
@@ -9690,7 +9755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>44359</v>
       </c>
@@ -9729,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>44359</v>
       </c>
@@ -9768,7 +9833,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>44359</v>
       </c>
@@ -9807,7 +9872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>44359</v>
       </c>
@@ -9846,7 +9911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>44362</v>
       </c>
@@ -9885,7 +9950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>44362</v>
       </c>
@@ -9924,7 +9989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>44362</v>
       </c>
@@ -9963,7 +10028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>44362</v>
       </c>
@@ -10002,7 +10067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>44362</v>
       </c>
@@ -10041,7 +10106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>44362</v>
       </c>
@@ -10080,7 +10145,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>44362</v>
       </c>
@@ -10119,7 +10184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>44362</v>
       </c>
@@ -10161,7 +10226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>44362</v>
       </c>
@@ -10200,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>44362</v>
       </c>
@@ -10239,7 +10304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>44362</v>
       </c>
@@ -10278,7 +10343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>44362</v>
       </c>
@@ -10317,7 +10382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>44362</v>
       </c>
@@ -10356,7 +10421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>44362</v>
       </c>
@@ -10395,7 +10460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>44362</v>
       </c>
@@ -10434,7 +10499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>44362</v>
       </c>
@@ -10473,7 +10538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>44362</v>
       </c>
@@ -10512,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>44362</v>
       </c>
@@ -10551,7 +10616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>44362</v>
       </c>
@@ -10590,7 +10655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>44362</v>
       </c>
@@ -10629,7 +10694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>44362</v>
       </c>
@@ -10668,7 +10733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>44362</v>
       </c>
@@ -10707,7 +10772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>44362</v>
       </c>
@@ -10746,7 +10811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>44362</v>
       </c>
@@ -10785,7 +10850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>44362</v>
       </c>
@@ -10824,7 +10889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>44362</v>
       </c>
@@ -10863,7 +10928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>44362</v>
       </c>
@@ -10902,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>44362</v>
       </c>
@@ -10941,7 +11006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>44362</v>
       </c>
@@ -10980,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>44362</v>
       </c>
@@ -11019,7 +11084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>44362</v>
       </c>
@@ -11058,7 +11123,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>44362</v>
       </c>
@@ -11097,7 +11162,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
         <v>44362</v>
       </c>
@@ -11136,7 +11201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
         <v>44362</v>
       </c>
@@ -11175,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>44362</v>
       </c>
@@ -11214,7 +11279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>44362</v>
       </c>
@@ -11256,7 +11321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>44362</v>
       </c>
@@ -11295,7 +11360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>44362</v>
       </c>
@@ -11334,7 +11399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>44362</v>
       </c>
@@ -11373,7 +11438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>44362</v>
       </c>
@@ -11412,7 +11477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>44362</v>
       </c>
@@ -11451,7 +11516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>44362</v>
       </c>
@@ -11490,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>44362</v>
       </c>
@@ -11529,7 +11594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>44362</v>
       </c>
@@ -11568,7 +11633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>44362</v>
       </c>
@@ -11607,7 +11672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>44362</v>
       </c>
@@ -11643,6 +11708,513 @@
         <v>184</v>
       </c>
       <c r="L269" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A270" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="12">
+        <v>1</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E270" s="8">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H270" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I270" s="7" t="str">
+        <f t="shared" ref="I270" si="5">G270&amp;""&amp;H270</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J270" s="7">
+        <v>1</v>
+      </c>
+      <c r="K270" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L270" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A271" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="12">
+        <v>1</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E271" s="8">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G271" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H271" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I271" s="7" t="str">
+        <f t="shared" ref="I271" si="6">G271&amp;""&amp;H271</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J271" s="7">
+        <v>1</v>
+      </c>
+      <c r="K271" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L271" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A272" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="12">
+        <v>1</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E272" s="8">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G272" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H272" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I272" s="7" t="str">
+        <f t="shared" ref="I272" si="7">G272&amp;""&amp;H272</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J272" s="7">
+        <v>1</v>
+      </c>
+      <c r="K272" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L272" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A273" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="12">
+        <v>1</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E273" s="8">
+        <v>0.41736111111111113</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G273" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H273" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I273" s="7" t="str">
+        <f t="shared" ref="I273:I274" si="8">G273&amp;""&amp;H273</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J273" s="7">
+        <v>1</v>
+      </c>
+      <c r="K273" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L273" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A274" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" s="12">
+        <v>1</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E274" s="8">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G274" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H274" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I274" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J274" s="7">
+        <v>1</v>
+      </c>
+      <c r="K274" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L274" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A275" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="12">
+        <v>1</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E275" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G275" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H275" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I275" s="7" t="str">
+        <f t="shared" ref="I275" si="9">G275&amp;""&amp;H275</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J275" s="7">
+        <v>1</v>
+      </c>
+      <c r="K275" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L275" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A276" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="12">
+        <v>1</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E276" s="8">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I276" s="7" t="str">
+        <f t="shared" ref="I276:I277" si="10">G276&amp;""&amp;H276</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J276" s="7">
+        <v>1</v>
+      </c>
+      <c r="K276" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L276" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A277" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="12">
+        <v>1</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E277" s="8">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G277" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H277" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I277" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J277" s="7">
+        <v>1</v>
+      </c>
+      <c r="K277" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L277" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A278" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C278" s="12">
+        <v>1</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E278" s="8">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G278" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H278" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I278" s="7" t="str">
+        <f t="shared" ref="I278" si="11">G278&amp;""&amp;H278</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J278" s="7">
+        <v>1</v>
+      </c>
+      <c r="K278" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L278" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A279" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" s="12">
+        <v>1</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E279" s="8">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G279" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H279" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I279" s="7" t="str">
+        <f t="shared" ref="I279:I280" si="12">G279&amp;""&amp;H279</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J279" s="7">
+        <v>1</v>
+      </c>
+      <c r="K279" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L279" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A280" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="12">
+        <v>1</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E280" s="8">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G280" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H280" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I280" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J280" s="7">
+        <v>1</v>
+      </c>
+      <c r="K280" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L280" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A281" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="12">
+        <v>1</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E281" s="8">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G281" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H281" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I281" s="7" t="str">
+        <f t="shared" ref="I281" si="13">G281&amp;""&amp;H281</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J281" s="7">
+        <v>1</v>
+      </c>
+      <c r="K281" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L281" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A282" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="12">
+        <v>1</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E282" s="8">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G282" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H282" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I282" s="7" t="str">
+        <f t="shared" ref="I282" si="14">G282&amp;""&amp;H282</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J282" s="7">
+        <v>1</v>
+      </c>
+      <c r="K282" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L282" s="12">
         <v>3</v>
       </c>
     </row>
@@ -11653,18 +12225,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="9.33203125" style="1"/>
-    <col min="11" max="11" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="9.36328125" style="1"/>
+    <col min="11" max="11" width="9.36328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -11693,14 +12265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{056DAE8E-9726-4C96-A9BD-A060A2C94254}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1964CC2C-E5F6-4EF8-8C6E-B2DD71A496A2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="210">
   <si>
     <t>date</t>
   </si>
@@ -637,6 +637,33 @@
   </si>
   <si>
     <t>4, 5</t>
+  </si>
+  <si>
+    <t>GH048310</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>0:38 *triggerfish altercation lol</t>
+  </si>
+  <si>
+    <t>GH058310</t>
+  </si>
+  <si>
+    <t>GH078310</t>
+  </si>
+  <si>
+    <t>GH088310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:49 *scrawled trunkfish </t>
+  </si>
+  <si>
+    <t>GH098310</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y282"/>
+  <dimension ref="A1:Y298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B270" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E289" sqref="E289"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11828,7 +11855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>44359</v>
       </c>
@@ -11867,7 +11894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>44359</v>
       </c>
@@ -11906,7 +11933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>44359</v>
       </c>
@@ -11945,7 +11972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>44359</v>
       </c>
@@ -11984,7 +12011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>44359</v>
       </c>
@@ -12023,7 +12050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>44359</v>
       </c>
@@ -12062,7 +12089,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>44359</v>
       </c>
@@ -12101,7 +12128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>44359</v>
       </c>
@@ -12140,7 +12167,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
         <v>44359</v>
       </c>
@@ -12179,7 +12206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
         <v>44359</v>
       </c>
@@ -12216,6 +12243,602 @@
       </c>
       <c r="L282" s="12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A283" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="12">
+        <v>1</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E283" s="8">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G283" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H283" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I283" s="7" t="str">
+        <f t="shared" ref="I283:I284" si="15">G283&amp;""&amp;H283</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J283" s="7">
+        <v>1</v>
+      </c>
+      <c r="K283" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L283" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A284" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="12">
+        <v>1</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E284" s="8">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G284" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H284" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I284" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J284" s="7">
+        <v>1</v>
+      </c>
+      <c r="K284" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L284" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A285" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="12">
+        <v>1</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E285" s="8">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H285" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I285" s="7" t="str">
+        <f t="shared" ref="I285:I286" si="16">G285&amp;""&amp;H285</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J285" s="7">
+        <v>1</v>
+      </c>
+      <c r="K285" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L285" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A286" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" s="12">
+        <v>1</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E286" s="8">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H286" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I286" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J286" s="7">
+        <v>1</v>
+      </c>
+      <c r="K286" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L286" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A287" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="12">
+        <v>1</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E287" s="8">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I287" s="7" t="str">
+        <f t="shared" ref="I287" si="17">G287&amp;""&amp;H287</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J287" s="7">
+        <v>1</v>
+      </c>
+      <c r="K287" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L287" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A288" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" s="12">
+        <v>1</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E288" s="8">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G288" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H288" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I288" s="7" t="str">
+        <f t="shared" ref="I288" si="18">G288&amp;""&amp;H288</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J288" s="7">
+        <v>1</v>
+      </c>
+      <c r="K288" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L288" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="M288" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A289" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" s="12">
+        <v>1</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E289" s="8">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G289" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H289" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I289" s="7" t="str">
+        <f t="shared" ref="I289:I290" si="19">G289&amp;""&amp;H289</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J289" s="7">
+        <v>1</v>
+      </c>
+      <c r="K289" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L289" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A290" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" s="12">
+        <v>1</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E290" s="8">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G290" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H290" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I290" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J290" s="7">
+        <v>1</v>
+      </c>
+      <c r="K290" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L290" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A291" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291" s="12">
+        <v>1</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E291" s="8">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G291" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H291" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I291" s="7" t="str">
+        <f t="shared" ref="I291" si="20">G291&amp;""&amp;H291</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J291" s="7">
+        <v>1</v>
+      </c>
+      <c r="K291" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L291" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A292" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="12">
+        <v>1</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E292" s="8">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G292" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H292" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I292" s="7" t="str">
+        <f t="shared" ref="I292:I293" si="21">G292&amp;""&amp;H292</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J292" s="7">
+        <v>1</v>
+      </c>
+      <c r="K292" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L292" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A293" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="12">
+        <v>1</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E293" s="8">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G293" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H293" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I293" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J293" s="7">
+        <v>1</v>
+      </c>
+      <c r="K293" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L293" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A294" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="12">
+        <v>1</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E294" s="8">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G294" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H294" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I294" s="7" t="str">
+        <f t="shared" ref="I294" si="22">G294&amp;""&amp;H294</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J294" s="7">
+        <v>1</v>
+      </c>
+      <c r="K294" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L294" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A295" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="12">
+        <v>1</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E295" s="8">
+        <v>0.20277777777777781</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G295" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H295" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I295" s="7" t="str">
+        <f t="shared" ref="I295" si="23">G295&amp;""&amp;H295</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J295" s="7">
+        <v>1</v>
+      </c>
+      <c r="K295" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L295" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A296" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C296" s="12">
+        <v>1</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E296" s="8">
+        <v>0.10347222222222223</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G296" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H296" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I296" s="7" t="str">
+        <f t="shared" ref="I296" si="24">G296&amp;""&amp;H296</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J296" s="7">
+        <v>1</v>
+      </c>
+      <c r="K296" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L296" s="12">
+        <v>4</v>
+      </c>
+      <c r="M296" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A297" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="12">
+        <v>1</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E297" s="8">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G297" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H297" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I297" s="7" t="str">
+        <f t="shared" ref="I297" si="25">G297&amp;""&amp;H297</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J297" s="7">
+        <v>1</v>
+      </c>
+      <c r="K297" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L297" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C298" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1964CC2C-E5F6-4EF8-8C6E-B2DD71A496A2}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0143FDFE-332C-403B-9ABF-561885FF4470}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="223">
   <si>
     <t>date</t>
   </si>
@@ -664,6 +664,45 @@
   </si>
   <si>
     <t>GH098310</t>
+  </si>
+  <si>
+    <t>Vis makes it hard to tell, but white scales on caudal peduncle gives it away</t>
+  </si>
+  <si>
+    <t>GP020222</t>
+  </si>
+  <si>
+    <t>GOPR0222</t>
+  </si>
+  <si>
+    <t>GP010222</t>
+  </si>
+  <si>
+    <t>** 0:29 ray!!!</t>
+  </si>
+  <si>
+    <t>GP030222</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>GP040222</t>
+  </si>
+  <si>
+    <t>GP050222</t>
+  </si>
+  <si>
+    <t>GP060222</t>
+  </si>
+  <si>
+    <t>Juvinile</t>
+  </si>
+  <si>
+    <t>GP070222</t>
+  </si>
+  <si>
+    <t>^done</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y298"/>
+  <dimension ref="A1:Y337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,7 +1113,7 @@
     <col min="6" max="6" width="22.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" style="7" customWidth="1"/>
     <col min="10" max="10" width="15.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="7" customWidth="1"/>
     <col min="12" max="12" width="13.6328125" style="7" customWidth="1"/>
@@ -12836,9 +12875,1536 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A298" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="C298" s="12">
         <v>2</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E298" s="8">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G298" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H298" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I298" s="7" t="str">
+        <f t="shared" ref="I298" si="26">G298&amp;""&amp;H298</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J298" s="7">
+        <v>1</v>
+      </c>
+      <c r="K298" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L298" s="12">
+        <v>5</v>
+      </c>
+      <c r="M298" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A299" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C299" s="12">
+        <v>2</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E299" s="8">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G299" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H299" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I299" s="7" t="str">
+        <f t="shared" ref="I299" si="27">G299&amp;""&amp;H299</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J299" s="7">
+        <v>1</v>
+      </c>
+      <c r="K299" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L299" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A300" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C300" s="12">
+        <v>2</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E300" s="8">
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G300" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H300" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I300" s="7" t="str">
+        <f t="shared" ref="I300" si="28">G300&amp;""&amp;H300</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J300" s="7">
+        <v>1</v>
+      </c>
+      <c r="K300" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L300" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A301" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C301" s="12">
+        <v>2</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E301" s="8">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G301" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H301" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I301" s="7" t="str">
+        <f t="shared" ref="I301" si="29">G301&amp;""&amp;H301</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J301" s="12">
+        <v>1</v>
+      </c>
+      <c r="K301" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L301" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A302" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C302" s="12">
+        <v>2</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E302" s="8">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G302" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H302" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I302" s="7" t="str">
+        <f t="shared" ref="I302" si="30">G302&amp;""&amp;H302</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J302" s="12">
+        <v>1</v>
+      </c>
+      <c r="K302" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L302" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A303" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C303" s="12">
+        <v>2</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E303" s="8">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G303" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H303" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I303" s="7" t="str">
+        <f t="shared" ref="I303:I304" si="31">G303&amp;""&amp;H303</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J303" s="12">
+        <v>1</v>
+      </c>
+      <c r="K303" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L303" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A304" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304" s="12">
+        <v>2</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E304" s="8">
+        <v>0.32013888888888892</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G304" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H304" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I304" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J304" s="12">
+        <v>1</v>
+      </c>
+      <c r="K304" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L304" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A305" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" s="12">
+        <v>2</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E305" s="8">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H305" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I305" s="7" t="str">
+        <f t="shared" ref="I305" si="32">G305&amp;""&amp;H305</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J305" s="12">
+        <v>1</v>
+      </c>
+      <c r="K305" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L305" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A306" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C306" s="12">
+        <v>2</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E306" s="8">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G306" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H306" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I306" s="7" t="str">
+        <f t="shared" ref="I306" si="33">G306&amp;""&amp;H306</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J306" s="12">
+        <v>1</v>
+      </c>
+      <c r="K306" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L306" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A307" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307" s="12">
+        <v>2</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E307" s="8">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="F307" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G307" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H307" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I307" s="7" t="str">
+        <f t="shared" ref="I307" si="34">G307&amp;""&amp;H307</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J307" s="12">
+        <v>1</v>
+      </c>
+      <c r="K307" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L307" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A308" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C308" s="12">
+        <v>2</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E308" s="8">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G308" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H308" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I308" s="7" t="str">
+        <f t="shared" ref="I308" si="35">G308&amp;""&amp;H308</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J308" s="12">
+        <v>1</v>
+      </c>
+      <c r="K308" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L308" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A309" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C309" s="12">
+        <v>2</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E309" s="8">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G309" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H309" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I309" s="7" t="str">
+        <f t="shared" ref="I309" si="36">G309&amp;""&amp;H309</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J309" s="12">
+        <v>1</v>
+      </c>
+      <c r="K309" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L309" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A310" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310" s="12">
+        <v>2</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E310" s="8">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G310" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H310" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I310" s="7" t="str">
+        <f t="shared" ref="I310" si="37">G310&amp;""&amp;H310</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J310" s="12">
+        <v>1</v>
+      </c>
+      <c r="K310" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L310" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A311" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="12">
+        <v>2</v>
+      </c>
+      <c r="D311" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E311" s="8">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G311" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H311" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I311" s="7" t="str">
+        <f t="shared" ref="I311" si="38">G311&amp;""&amp;H311</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J311" s="12">
+        <v>1</v>
+      </c>
+      <c r="K311" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L311" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A312" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312" s="12">
+        <v>2</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E312" s="8">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G312" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H312" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I312" s="7" t="str">
+        <f t="shared" ref="I312" si="39">G312&amp;""&amp;H312</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J312" s="12">
+        <v>1</v>
+      </c>
+      <c r="K312" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L312" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A313" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C313" s="12">
+        <v>2</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E313" s="8">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H313" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I313" s="7" t="str">
+        <f t="shared" ref="I313" si="40">G313&amp;""&amp;H313</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J313" s="12">
+        <v>1</v>
+      </c>
+      <c r="K313" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L313" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A314" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C314" s="12">
+        <v>2</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E314" s="8">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G314" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H314" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I314" s="7" t="str">
+        <f t="shared" ref="I314" si="41">G314&amp;""&amp;H314</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J314" s="12">
+        <v>1</v>
+      </c>
+      <c r="K314" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L314" s="12">
+        <v>2</v>
+      </c>
+      <c r="M314" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A315" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315" s="12">
+        <v>2</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E315" s="8">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G315" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H315" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I315" s="7" t="str">
+        <f t="shared" ref="I315" si="42">G315&amp;""&amp;H315</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J315" s="12">
+        <v>1</v>
+      </c>
+      <c r="K315" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L315" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A316" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C316" s="12">
+        <v>2</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E316" s="8">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G316" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H316" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I316" s="7" t="str">
+        <f t="shared" ref="I316" si="43">G316&amp;""&amp;H316</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J316" s="12">
+        <v>1</v>
+      </c>
+      <c r="K316" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L316" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A317" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C317" s="12">
+        <v>2</v>
+      </c>
+      <c r="D317" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E317" s="8">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G317" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H317" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I317" s="7" t="str">
+        <f t="shared" ref="I317:I318" si="44">G317&amp;""&amp;H317</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J317" s="12">
+        <v>1</v>
+      </c>
+      <c r="K317" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L317" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A318" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" s="12">
+        <v>2</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E318" s="8">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="F318" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G318" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H318" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I318" s="7" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J318" s="12">
+        <v>1</v>
+      </c>
+      <c r="K318" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L318" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A319" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C319" s="12">
+        <v>2</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E319" s="8">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="F319" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G319" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H319" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I319" s="7" t="str">
+        <f t="shared" ref="I319" si="45">G319&amp;""&amp;H319</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J319" s="12">
+        <v>1</v>
+      </c>
+      <c r="K319" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L319" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A320" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C320" s="12">
+        <v>2</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E320" s="8">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H320" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I320" s="7" t="str">
+        <f t="shared" ref="I320" si="46">G320&amp;""&amp;H320</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J320" s="12">
+        <v>1</v>
+      </c>
+      <c r="K320" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L320" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A321" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C321" s="12">
+        <v>2</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E321" s="8">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H321" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I321" s="7" t="str">
+        <f t="shared" ref="I321" si="47">G321&amp;""&amp;H321</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J321" s="12">
+        <v>1</v>
+      </c>
+      <c r="K321" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L321" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A322" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C322" s="12">
+        <v>2</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E322" s="8">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G322" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H322" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I322" s="7" t="str">
+        <f t="shared" ref="I322" si="48">G322&amp;""&amp;H322</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J322" s="12">
+        <v>1</v>
+      </c>
+      <c r="K322" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L322" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A323" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C323" s="12">
+        <v>2</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E323" s="8">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G323" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H323" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I323" s="7" t="str">
+        <f t="shared" ref="I323" si="49">G323&amp;""&amp;H323</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J323" s="12">
+        <v>1</v>
+      </c>
+      <c r="K323" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L323" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A324" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C324" s="12">
+        <v>2</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E324" s="8">
+        <v>0.16874999999999998</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G324" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H324" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I324" s="7" t="str">
+        <f t="shared" ref="I324" si="50">G324&amp;""&amp;H324</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J324" s="12">
+        <v>1</v>
+      </c>
+      <c r="K324" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L324" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A325" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C325" s="12">
+        <v>2</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E325" s="8">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="F325" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G325" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H325" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I325" s="7" t="str">
+        <f t="shared" ref="I325:I326" si="51">G325&amp;""&amp;H325</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J325" s="12">
+        <v>1</v>
+      </c>
+      <c r="K325" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L325" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A326" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C326" s="12">
+        <v>2</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E326" s="8">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G326" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H326" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I326" s="7" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J326" s="7">
+        <v>1</v>
+      </c>
+      <c r="K326" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L326" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A327" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C327" s="12">
+        <v>2</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E327" s="8">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G327" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H327" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I327" s="7" t="str">
+        <f t="shared" ref="I327" si="52">G327&amp;""&amp;H327</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J327" s="7">
+        <v>1</v>
+      </c>
+      <c r="K327" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L327" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A328" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" s="12">
+        <v>2</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E328" s="8">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G328" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H328" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I328" s="7" t="str">
+        <f t="shared" ref="I328" si="53">G328&amp;""&amp;H328</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J328" s="7">
+        <v>1</v>
+      </c>
+      <c r="K328" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L328" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A329" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C329" s="12">
+        <v>2</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E329" s="8">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G329" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H329" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I329" s="7" t="str">
+        <f t="shared" ref="I329" si="54">G329&amp;""&amp;H329</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J329" s="7">
+        <v>1</v>
+      </c>
+      <c r="K329" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L329" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A330" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C330" s="12">
+        <v>2</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E330" s="8">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G330" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H330" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I330" s="7" t="str">
+        <f t="shared" ref="I330" si="55">G330&amp;""&amp;H330</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J330" s="7">
+        <v>1</v>
+      </c>
+      <c r="K330" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L330" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A331" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C331" s="12">
+        <v>2</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E331" s="8">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="F331" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G331" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H331" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I331" s="7" t="str">
+        <f t="shared" ref="I331" si="56">G331&amp;""&amp;H331</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J331" s="7">
+        <v>1</v>
+      </c>
+      <c r="K331" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L331" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A332" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C332" s="12">
+        <v>2</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E332" s="8">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="F332" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G332" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H332" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I332" s="7" t="str">
+        <f t="shared" ref="I332" si="57">G332&amp;""&amp;H332</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J332" s="7">
+        <v>1</v>
+      </c>
+      <c r="K332" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L332" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A333" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333" s="12">
+        <v>2</v>
+      </c>
+      <c r="D333" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E333" s="8">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="F333" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G333" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H333" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I333" s="7" t="str">
+        <f t="shared" ref="I333" si="58">G333&amp;""&amp;H333</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J333" s="7">
+        <v>1</v>
+      </c>
+      <c r="K333" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L333" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A334" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C334" s="12">
+        <v>2</v>
+      </c>
+      <c r="D334" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E334" s="8">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="F334" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G334" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H334" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I334" s="7" t="str">
+        <f t="shared" ref="I334" si="59">G334&amp;""&amp;H334</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J334" s="7">
+        <v>1</v>
+      </c>
+      <c r="K334" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L334" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A335" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C335" s="12">
+        <v>2</v>
+      </c>
+      <c r="D335" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E335" s="8">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="F335" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G335" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H335" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I335" s="7" t="str">
+        <f t="shared" ref="I335" si="60">G335&amp;""&amp;H335</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J335" s="7">
+        <v>1</v>
+      </c>
+      <c r="K335" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L335" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A336" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C336" s="12">
+        <v>2</v>
+      </c>
+      <c r="D336" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E336" s="8">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="F336" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G336" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H336" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I336" s="7" t="str">
+        <f t="shared" ref="I336" si="61">G336&amp;""&amp;H336</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J336" s="7">
+        <v>1</v>
+      </c>
+      <c r="K336" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="L336" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C337" s="7" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="305" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0143FDFE-332C-403B-9ABF-561885FF4470}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87593E56-4BD9-49F5-90CA-E8748D2F3C64}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1220" windowWidth="12660" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="233">
   <si>
     <t>date</t>
   </si>
@@ -519,9 +519,6 @@
     <t>GH023574</t>
   </si>
   <si>
-    <t>Adult Phase</t>
-  </si>
-  <si>
     <t>GH043574</t>
   </si>
   <si>
@@ -696,13 +693,46 @@
     <t>GP060222</t>
   </si>
   <si>
-    <t>Juvinile</t>
-  </si>
-  <si>
     <t>GP070222</t>
   </si>
   <si>
     <t>^done</t>
+  </si>
+  <si>
+    <t>** this assay does not have the best angle of blades 5</t>
+  </si>
+  <si>
+    <t>GH013231</t>
+  </si>
+  <si>
+    <t>GH023231</t>
+  </si>
+  <si>
+    <t>GH033231</t>
+  </si>
+  <si>
+    <t>GH043231</t>
+  </si>
+  <si>
+    <t>GH053231</t>
+  </si>
+  <si>
+    <t>GH063231</t>
+  </si>
+  <si>
+    <t>GH083231</t>
+  </si>
+  <si>
+    <t>1, 4</t>
+  </si>
+  <si>
+    <t>GH028718</t>
+  </si>
+  <si>
+    <t>GH038718</t>
+  </si>
+  <si>
+    <t>3, 5</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y337"/>
+  <dimension ref="A1:Y369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C337" sqref="C337"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,10 +1184,10 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>15</v>
@@ -1216,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="8">
         <v>0.11597222222222221</v>
@@ -1228,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I2" s="7" t="str">
         <f>G2&amp;""&amp;H2</f>
@@ -1255,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E3" s="8">
         <v>0.14166666666666666</v>
@@ -1267,7 +1297,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I3" s="7" t="str">
         <f t="shared" ref="I3:I66" si="0">G3&amp;""&amp;H3</f>
@@ -1294,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E4" s="8">
         <v>0.14166666666666666</v>
@@ -1306,7 +1336,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1333,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="8">
         <v>0.22569444444444445</v>
@@ -1345,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1372,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="8">
         <v>3.472222222222222E-3</v>
@@ -1384,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1414,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="8">
         <v>0.20833333333333334</v>
@@ -1426,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1453,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="8">
         <v>0.26111111111111113</v>
@@ -1465,7 +1495,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1492,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="8">
         <v>0.36249999999999999</v>
@@ -1504,7 +1534,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1514,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
@@ -1531,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="8">
         <v>0.42986111111111108</v>
@@ -1543,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1553,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
@@ -1570,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="8">
         <v>0.17986111111111111</v>
@@ -1582,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1609,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="8">
         <v>0.18194444444444444</v>
@@ -1621,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1631,13 +1661,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
@@ -1651,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="8">
         <v>0.19305555555555554</v>
@@ -1663,7 +1693,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1673,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7">
         <v>1</v>
@@ -1690,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="8">
         <v>0.4145833333333333</v>
@@ -1702,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1712,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
@@ -1729,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="8">
         <v>0.25347222222222221</v>
@@ -1741,7 +1771,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1751,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L15" s="7">
         <v>2</v>
@@ -1771,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="8">
         <v>4.4444444444444446E-2</v>
@@ -1783,7 +1813,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1793,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7">
         <v>1</v>
@@ -1810,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="8">
         <v>0.15069444444444444</v>
@@ -1822,7 +1852,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="8">
         <v>0.18263888888888891</v>
@@ -1861,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1888,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E19" s="8">
         <v>0.20208333333333331</v>
@@ -1900,7 +1930,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1927,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="8">
         <v>0.23611111111111113</v>
@@ -1939,7 +1969,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1966,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="8">
         <v>0.33055555555555555</v>
@@ -1978,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2005,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="8">
         <v>0.35833333333333334</v>
@@ -2017,7 +2047,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2044,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="8">
         <v>0.40347222222222223</v>
@@ -2056,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2083,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E24" s="8">
         <v>1.0416666666666666E-2</v>
@@ -2095,7 +2125,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2122,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="8">
         <v>0.26874999999999999</v>
@@ -2134,7 +2164,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2173,7 +2203,7 @@
         <v>24</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2183,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7">
         <v>2</v>
@@ -2215,7 +2245,7 @@
         <v>24</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2225,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L27" s="7">
         <v>1</v>
@@ -2254,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2264,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>39</v>
@@ -2293,7 +2323,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2332,7 +2362,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I30" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2374,7 +2404,7 @@
         <v>24</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2413,7 +2443,7 @@
         <v>24</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2423,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L32" s="7">
         <v>2</v>
@@ -2452,7 +2482,7 @@
         <v>24</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2491,7 +2521,7 @@
         <v>24</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2530,7 +2560,7 @@
         <v>24</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2569,7 +2599,7 @@
         <v>24</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2608,7 +2638,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2647,7 +2677,7 @@
         <v>24</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2686,7 +2716,7 @@
         <v>24</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2696,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L39" s="7">
         <v>2</v>
@@ -2725,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2735,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L40" s="7">
         <v>1</v>
@@ -2764,7 +2794,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2774,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L41" s="7">
         <v>1</v>
@@ -2803,7 +2833,7 @@
         <v>48</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2845,7 +2875,7 @@
         <v>48</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2881,13 +2911,13 @@
         <v>0.19166666666666665</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I44" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2929,7 +2959,7 @@
         <v>48</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I45" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2971,7 +3001,7 @@
         <v>48</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I46" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3013,7 +3043,7 @@
         <v>48</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I47" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3049,13 +3079,13 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I48" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3091,13 +3121,13 @@
         <v>0.37013888888888885</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3136,7 +3166,7 @@
         <v>48</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I50" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3169,13 +3199,13 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I51" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3208,13 +3238,13 @@
         <v>0.45208333333333334</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I52" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3253,7 +3283,7 @@
         <v>24</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3289,13 +3319,13 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3328,13 +3358,13 @@
         <v>0.14444444444444446</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I55" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3373,7 +3403,7 @@
         <v>48</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I56" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3406,13 +3436,13 @@
         <v>0.18611111111111112</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I57" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3445,13 +3475,13 @@
         <v>0.19930555555555554</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I58" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3484,13 +3514,13 @@
         <v>0.27291666666666664</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I59" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3523,13 +3553,13 @@
         <v>0.32569444444444445</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I60" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3568,7 +3598,7 @@
         <v>48</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I61" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3601,13 +3631,13 @@
         <v>0.41944444444444445</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I62" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3646,7 +3676,7 @@
         <v>48</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I63" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3656,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L63" s="7">
         <v>1</v>
@@ -3679,13 +3709,13 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I64" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3724,7 +3754,7 @@
         <v>60</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I65" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3757,13 +3787,13 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I66" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3802,7 +3832,7 @@
         <v>60</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I67" s="7" t="str">
         <f t="shared" ref="I67:I130" si="1">G67&amp;""&amp;H67</f>
@@ -3832,13 +3862,13 @@
         <v>0.15</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I68" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3877,7 +3907,7 @@
         <v>24</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I69" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3910,13 +3940,13 @@
         <v>0.25694444444444448</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I70" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3949,13 +3979,13 @@
         <v>0.3527777777777778</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I71" s="7" t="str">
         <f t="shared" si="1"/>
@@ -3994,7 +4024,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I72" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4033,7 +4063,7 @@
         <v>24</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I73" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4072,7 +4102,7 @@
         <v>48</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I74" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4082,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L74" s="7" t="s">
         <v>34</v>
@@ -4114,7 +4144,7 @@
         <v>24</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I75" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4153,7 +4183,7 @@
         <v>48</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I76" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4186,13 +4216,13 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I77" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4225,13 +4255,13 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I78" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4264,13 +4294,13 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I79" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4309,7 +4339,7 @@
         <v>70</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I80" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4351,7 +4381,7 @@
         <v>24</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I81" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4390,7 +4420,7 @@
         <v>24</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I82" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4432,7 +4462,7 @@
         <v>48</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I83" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4471,7 +4501,7 @@
         <v>70</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I84" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4510,7 +4540,7 @@
         <v>70</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I85" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4549,7 +4579,7 @@
         <v>24</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I86" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4588,7 +4618,7 @@
         <v>78</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I87" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4627,7 +4657,7 @@
         <v>48</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I88" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4666,7 +4696,7 @@
         <v>48</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I89" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4705,7 +4735,7 @@
         <v>24</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I90" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4744,7 +4774,7 @@
         <v>24</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I91" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4786,7 +4816,7 @@
         <v>24</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I92" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4796,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L92" s="7">
         <v>5</v>
@@ -4825,7 +4855,7 @@
         <v>24</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I93" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4864,7 +4894,7 @@
         <v>24</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I94" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4903,7 +4933,7 @@
         <v>24</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I95" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4913,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L95" s="7">
         <v>5</v>
@@ -4942,7 +4972,7 @@
         <v>24</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I96" s="7" t="str">
         <f t="shared" si="1"/>
@@ -4981,7 +5011,7 @@
         <v>24</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I97" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5020,7 +5050,7 @@
         <v>24</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I98" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5059,7 +5089,7 @@
         <v>24</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I99" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5098,7 +5128,7 @@
         <v>24</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I100" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5137,7 +5167,7 @@
         <v>70</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I101" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5176,7 +5206,7 @@
         <v>70</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I102" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5215,7 +5245,7 @@
         <v>70</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I103" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5254,7 +5284,7 @@
         <v>24</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I104" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5264,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>35</v>
@@ -5296,7 +5326,7 @@
         <v>48</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I105" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5335,7 +5365,7 @@
         <v>24</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I106" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5374,7 +5404,7 @@
         <v>24</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I107" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5413,7 +5443,7 @@
         <v>24</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I108" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5423,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>93</v>
@@ -5452,7 +5482,7 @@
         <v>24</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I109" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5462,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L109" s="7">
         <v>2</v>
@@ -5491,7 +5521,7 @@
         <v>24</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I110" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5530,7 +5560,7 @@
         <v>24</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I111" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5540,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L111" s="7">
         <v>5</v>
@@ -5569,7 +5599,7 @@
         <v>24</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I112" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5611,7 +5641,7 @@
         <v>24</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I113" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5653,7 +5683,7 @@
         <v>24</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I114" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5663,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L114" s="7">
         <v>3</v>
@@ -5692,7 +5722,7 @@
         <v>24</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I115" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5731,7 +5761,7 @@
         <v>24</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I116" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5773,7 +5803,7 @@
         <v>24</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I117" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5815,7 +5845,7 @@
         <v>24</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I118" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5854,7 +5884,7 @@
         <v>24</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I119" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5896,7 +5926,7 @@
         <v>24</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I120" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5938,7 +5968,7 @@
         <v>24</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I121" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5977,7 +6007,7 @@
         <v>24</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I122" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6016,7 +6046,7 @@
         <v>24</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I123" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6058,7 +6088,7 @@
         <v>24</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I124" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6097,7 +6127,7 @@
         <v>24</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I125" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6136,7 +6166,7 @@
         <v>24</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I126" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6146,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L126" s="7">
         <v>3</v>
@@ -6175,7 +6205,7 @@
         <v>24</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I127" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6214,7 +6244,7 @@
         <v>48</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I128" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6253,7 +6283,7 @@
         <v>24</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I129" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6292,7 +6322,7 @@
         <v>24</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I130" s="7" t="str">
         <f t="shared" si="1"/>
@@ -6331,7 +6361,7 @@
         <v>24</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I131" s="7" t="str">
         <f t="shared" ref="I131:I194" si="2">G131&amp;""&amp;H131</f>
@@ -6370,7 +6400,7 @@
         <v>24</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I132" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6412,7 +6442,7 @@
         <v>24</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I133" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6422,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L133" s="7">
         <v>5</v>
@@ -6451,7 +6481,7 @@
         <v>24</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I134" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6493,7 +6523,7 @@
         <v>24</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I135" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6535,7 +6565,7 @@
         <v>24</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I136" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6577,7 +6607,7 @@
         <v>24</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I137" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6619,7 +6649,7 @@
         <v>24</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I138" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6661,7 +6691,7 @@
         <v>24</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I139" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6703,7 +6733,7 @@
         <v>24</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I140" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6742,7 +6772,7 @@
         <v>24</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I141" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6784,7 +6814,7 @@
         <v>24</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I142" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6823,7 +6853,7 @@
         <v>24</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I143" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6862,7 +6892,7 @@
         <v>24</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I144" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6901,7 +6931,7 @@
         <v>24</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I145" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6940,7 +6970,7 @@
         <v>48</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I146" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6979,7 +7009,7 @@
         <v>24</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I147" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7018,7 +7048,7 @@
         <v>24</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I148" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7057,7 +7087,7 @@
         <v>24</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I149" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7096,7 +7126,7 @@
         <v>24</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I150" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7135,7 +7165,7 @@
         <v>24</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I151" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7174,7 +7204,7 @@
         <v>24</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I152" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7213,7 +7243,7 @@
         <v>24</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I153" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7252,7 +7282,7 @@
         <v>24</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I154" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7291,7 +7321,7 @@
         <v>24</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I155" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7330,7 +7360,7 @@
         <v>24</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I156" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7372,7 +7402,7 @@
         <v>24</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I157" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7411,7 +7441,7 @@
         <v>24</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I158" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7453,7 +7483,7 @@
         <v>48</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I159" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7492,7 +7522,7 @@
         <v>48</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I160" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7531,7 +7561,7 @@
         <v>24</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I161" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7570,7 +7600,7 @@
         <v>24</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I162" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7609,7 +7639,7 @@
         <v>24</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I163" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7648,7 +7678,7 @@
         <v>24</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I164" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7687,7 +7717,7 @@
         <v>48</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I165" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7726,7 +7756,7 @@
         <v>48</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I166" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7765,7 +7795,7 @@
         <v>24</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I167" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7804,7 +7834,7 @@
         <v>24</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I168" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7843,7 +7873,7 @@
         <v>24</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I169" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7882,7 +7912,7 @@
         <v>24</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I170" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7921,7 +7951,7 @@
         <v>48</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I171" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7960,7 +7990,7 @@
         <v>48</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I172" s="7" t="str">
         <f t="shared" si="2"/>
@@ -7999,7 +8029,7 @@
         <v>24</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I173" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8038,7 +8068,7 @@
         <v>24</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I174" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8077,7 +8107,7 @@
         <v>24</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I175" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8116,7 +8146,7 @@
         <v>70</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I176" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8158,7 +8188,7 @@
         <v>24</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I177" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8197,7 +8227,7 @@
         <v>24</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I178" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8236,7 +8266,7 @@
         <v>24</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I179" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8275,7 +8305,7 @@
         <v>24</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I180" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8285,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="K180" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L180" s="7">
         <v>1</v>
@@ -8317,7 +8347,7 @@
         <v>24</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I181" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8327,7 +8357,7 @@
         <v>1</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L181" s="7">
         <v>2</v>
@@ -8350,13 +8380,13 @@
         <v>0.37708333333333338</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G182" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I182" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8392,13 +8422,13 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G183" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I183" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8437,7 +8467,7 @@
         <v>24</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I184" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8447,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="K184" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L184" s="7">
         <v>3</v>
@@ -8470,13 +8500,13 @@
         <v>0.19375000000000001</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I185" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8509,13 +8539,13 @@
         <v>0.22152777777777777</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I186" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8548,13 +8578,13 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="F187" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G187" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I187" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8587,13 +8617,13 @@
         <v>0.28194444444444444</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G188" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I188" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8632,7 +8662,7 @@
         <v>24</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I189" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8642,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="K189" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L189" s="7">
         <v>2</v>
@@ -8671,7 +8701,7 @@
         <v>24</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I190" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8710,7 +8740,7 @@
         <v>24</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I191" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8749,7 +8779,7 @@
         <v>24</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I192" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8788,7 +8818,7 @@
         <v>24</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I193" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8827,7 +8857,7 @@
         <v>24</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I194" s="7" t="str">
         <f t="shared" si="2"/>
@@ -8866,7 +8896,7 @@
         <v>24</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I195" s="7" t="str">
         <f t="shared" ref="I195:I258" si="3">G195&amp;""&amp;H195</f>
@@ -8905,7 +8935,7 @@
         <v>24</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I196" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8944,7 +8974,7 @@
         <v>24</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I197" s="7" t="str">
         <f t="shared" si="3"/>
@@ -8983,7 +9013,7 @@
         <v>60</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I198" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9022,7 +9052,7 @@
         <v>24</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I199" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9061,7 +9091,7 @@
         <v>24</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I200" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9100,7 +9130,7 @@
         <v>24</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I201" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9139,7 +9169,7 @@
         <v>24</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I202" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9178,7 +9208,7 @@
         <v>24</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I203" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9217,7 +9247,7 @@
         <v>24</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I204" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9256,7 +9286,7 @@
         <v>24</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I205" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9295,7 +9325,7 @@
         <v>24</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I206" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9334,7 +9364,7 @@
         <v>24</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I207" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9373,7 +9403,7 @@
         <v>24</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I208" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9412,7 +9442,7 @@
         <v>24</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I209" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9451,7 +9481,7 @@
         <v>24</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I210" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9490,7 +9520,7 @@
         <v>24</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I211" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9532,7 +9562,7 @@
         <v>24</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I212" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9542,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="K212" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L212" s="7">
         <v>3</v>
@@ -9571,7 +9601,7 @@
         <v>24</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I213" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9581,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L213" s="7">
         <v>1</v>
@@ -9610,7 +9640,7 @@
         <v>48</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I214" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9649,7 +9679,7 @@
         <v>24</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I215" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9688,7 +9718,7 @@
         <v>24</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I216" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9727,7 +9757,7 @@
         <v>24</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I217" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9737,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="K217" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L217" s="7">
         <v>2</v>
@@ -9766,7 +9796,7 @@
         <v>24</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I218" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9805,7 +9835,7 @@
         <v>24</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I219" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9844,7 +9874,7 @@
         <v>24</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I220" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9883,7 +9913,7 @@
         <v>24</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I221" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9922,7 +9952,7 @@
         <v>24</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I222" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9961,7 +9991,7 @@
         <v>24</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I223" s="7" t="str">
         <f t="shared" si="3"/>
@@ -9971,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L223" s="7">
         <v>3</v>
@@ -10000,7 +10030,7 @@
         <v>48</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I224" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10009,7 +10039,7 @@
       <c r="J224" s="7">
         <v>1</v>
       </c>
-      <c r="K224" s="7" t="s">
+      <c r="K224" s="12" t="s">
         <v>49</v>
       </c>
       <c r="L224" s="7">
@@ -10039,7 +10069,7 @@
         <v>24</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I225" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10078,7 +10108,7 @@
         <v>24</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I226" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10117,7 +10147,7 @@
         <v>24</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I227" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10127,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="K227" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L227" s="7">
         <v>3</v>
@@ -10156,7 +10186,7 @@
         <v>24</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I228" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10166,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="K228" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L228" s="7">
         <v>4</v>
@@ -10195,7 +10225,7 @@
         <v>24</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I229" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10205,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="K229" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L229" s="7" t="s">
         <v>152</v>
@@ -10234,7 +10264,7 @@
         <v>48</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I230" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10243,7 +10273,7 @@
       <c r="J230" s="7">
         <v>1</v>
       </c>
-      <c r="K230" s="7" t="s">
+      <c r="K230" s="12" t="s">
         <v>49</v>
       </c>
       <c r="L230" s="7">
@@ -10273,7 +10303,7 @@
         <v>24</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I231" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10283,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="K231" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L231" s="7">
         <v>2</v>
@@ -10315,7 +10345,7 @@
         <v>24</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I232" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10325,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="K232" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L232" s="7">
         <v>1</v>
@@ -10354,7 +10384,7 @@
         <v>48</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I233" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10363,7 +10393,7 @@
       <c r="J233" s="7">
         <v>1</v>
       </c>
-      <c r="K233" s="7" t="s">
+      <c r="K233" s="12" t="s">
         <v>49</v>
       </c>
       <c r="L233" s="7">
@@ -10393,7 +10423,7 @@
         <v>24</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I234" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10403,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L234" s="7">
         <v>2</v>
@@ -10432,7 +10462,7 @@
         <v>24</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I235" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10442,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="K235" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L235" s="7">
         <v>2</v>
@@ -10471,7 +10501,7 @@
         <v>24</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I236" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10481,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="K236" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L236" s="7">
         <v>2</v>
@@ -10510,7 +10540,7 @@
         <v>24</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I237" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10519,8 +10549,8 @@
       <c r="J237" s="7">
         <v>1</v>
       </c>
-      <c r="K237" s="7" t="s">
-        <v>161</v>
+      <c r="K237" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L237" s="7">
         <v>4</v>
@@ -10549,7 +10579,7 @@
         <v>24</v>
       </c>
       <c r="H238" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I238" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10558,8 +10588,8 @@
       <c r="J238" s="11">
         <v>1</v>
       </c>
-      <c r="K238" s="11" t="s">
-        <v>161</v>
+      <c r="K238" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L238" s="7">
         <v>5</v>
@@ -10588,7 +10618,7 @@
         <v>24</v>
       </c>
       <c r="H239" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I239" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10597,8 +10627,8 @@
       <c r="J239" s="11">
         <v>1</v>
       </c>
-      <c r="K239" s="11" t="s">
-        <v>161</v>
+      <c r="K239" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L239" s="7">
         <v>5</v>
@@ -10627,7 +10657,7 @@
         <v>24</v>
       </c>
       <c r="H240" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I240" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10636,8 +10666,8 @@
       <c r="J240" s="11">
         <v>1</v>
       </c>
-      <c r="K240" s="11" t="s">
-        <v>161</v>
+      <c r="K240" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L240" s="7">
         <v>1</v>
@@ -10666,7 +10696,7 @@
         <v>24</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I241" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10676,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="K241" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L241" s="7">
         <v>3</v>
@@ -10693,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E242" s="8">
         <v>0.32708333333333334</v>
@@ -10705,7 +10735,7 @@
         <v>24</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I242" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10715,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="K242" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L242" s="7">
         <v>3</v>
@@ -10732,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E243" s="8">
         <v>0.33055555555555555</v>
@@ -10744,7 +10774,7 @@
         <v>24</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I243" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10754,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="K243" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L243" s="7">
         <v>3</v>
@@ -10771,7 +10801,7 @@
         <v>1</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E244" s="8">
         <v>0.35625000000000001</v>
@@ -10783,7 +10813,7 @@
         <v>24</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I244" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10793,7 +10823,7 @@
         <v>1</v>
       </c>
       <c r="K244" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L244" s="7">
         <v>2</v>
@@ -10810,7 +10840,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E245" s="8">
         <v>0.35972222222222222</v>
@@ -10822,7 +10852,7 @@
         <v>24</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I245" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10832,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="K245" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L245" s="7">
         <v>2</v>
@@ -10849,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E246" s="8">
         <v>0.45555555555555555</v>
@@ -10861,7 +10891,7 @@
         <v>24</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I246" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10871,7 +10901,7 @@
         <v>1</v>
       </c>
       <c r="K246" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L246" s="7">
         <v>2</v>
@@ -10888,7 +10918,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E247" s="8">
         <v>0.43958333333333338</v>
@@ -10900,7 +10930,7 @@
         <v>24</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I247" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10910,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="K247" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L247" s="7">
         <v>2</v>
@@ -10927,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E248" s="8">
         <v>4.0972222222222222E-2</v>
@@ -10939,7 +10969,7 @@
         <v>24</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I248" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10949,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L248" s="7">
         <v>1</v>
@@ -10966,7 +10996,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E249" s="8">
         <v>0.20972222222222223</v>
@@ -10978,7 +11008,7 @@
         <v>24</v>
       </c>
       <c r="H249" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I249" s="7" t="str">
         <f t="shared" si="3"/>
@@ -10987,8 +11017,8 @@
       <c r="J249" s="11">
         <v>1</v>
       </c>
-      <c r="K249" s="11" t="s">
-        <v>161</v>
+      <c r="K249" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L249" s="7">
         <v>2</v>
@@ -11005,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E250" s="8">
         <v>0.32361111111111113</v>
@@ -11017,7 +11047,7 @@
         <v>24</v>
       </c>
       <c r="H250" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I250" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11027,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="K250" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L250" s="7">
         <v>1</v>
@@ -11044,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E251" s="8">
         <v>0.35069444444444442</v>
@@ -11056,7 +11086,7 @@
         <v>24</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I251" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11066,7 +11096,7 @@
         <v>1</v>
       </c>
       <c r="K251" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L251" s="7">
         <v>2</v>
@@ -11083,7 +11113,7 @@
         <v>2</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E252" s="8">
         <v>0.17291666666666669</v>
@@ -11095,7 +11125,7 @@
         <v>24</v>
       </c>
       <c r="H252" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I252" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11104,8 +11134,8 @@
       <c r="J252" s="11">
         <v>1</v>
       </c>
-      <c r="K252" s="11" t="s">
-        <v>161</v>
+      <c r="K252" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L252" s="7">
         <v>1</v>
@@ -11122,7 +11152,7 @@
         <v>2</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E253" s="8">
         <v>0.15208333333333332</v>
@@ -11134,7 +11164,7 @@
         <v>24</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I253" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11144,7 +11174,7 @@
         <v>1</v>
       </c>
       <c r="K253" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L253" s="7">
         <v>5</v>
@@ -11161,7 +11191,7 @@
         <v>2</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E254" s="8">
         <v>0.31736111111111115</v>
@@ -11173,7 +11203,7 @@
         <v>24</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I254" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11183,10 +11213,10 @@
         <v>1</v>
       </c>
       <c r="K254" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L254" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
@@ -11200,7 +11230,7 @@
         <v>2</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E255" s="8">
         <v>0.375</v>
@@ -11212,7 +11242,7 @@
         <v>24</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I255" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11221,8 +11251,8 @@
       <c r="J255" s="11">
         <v>1</v>
       </c>
-      <c r="K255" s="11" t="s">
-        <v>161</v>
+      <c r="K255" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L255" s="7" t="s">
         <v>152</v>
@@ -11239,7 +11269,7 @@
         <v>2</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E256" s="8">
         <v>0.19097222222222221</v>
@@ -11251,7 +11281,7 @@
         <v>24</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I256" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11260,8 +11290,8 @@
       <c r="J256" s="11">
         <v>1</v>
       </c>
-      <c r="K256" s="11" t="s">
-        <v>161</v>
+      <c r="K256" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L256" s="7">
         <v>4</v>
@@ -11278,7 +11308,7 @@
         <v>2</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E257" s="8">
         <v>0.39513888888888887</v>
@@ -11290,7 +11320,7 @@
         <v>24</v>
       </c>
       <c r="H257" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I257" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11299,8 +11329,8 @@
       <c r="J257" s="11">
         <v>1</v>
       </c>
-      <c r="K257" s="11" t="s">
-        <v>161</v>
+      <c r="K257" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L257" s="7">
         <v>1</v>
@@ -11317,7 +11347,7 @@
         <v>2</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E258" s="8">
         <v>0.39513888888888887</v>
@@ -11329,7 +11359,7 @@
         <v>24</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I258" s="7" t="str">
         <f t="shared" si="3"/>
@@ -11339,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="K258" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L258" s="7">
         <v>4</v>
@@ -11356,7 +11386,7 @@
         <v>2</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E259" s="8">
         <v>0.39861111111111108</v>
@@ -11368,7 +11398,7 @@
         <v>24</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I259" s="7" t="str">
         <f t="shared" ref="I259:I269" si="4">G259&amp;""&amp;H259</f>
@@ -11378,13 +11408,13 @@
         <v>1</v>
       </c>
       <c r="K259" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L259" s="7">
         <v>4</v>
       </c>
       <c r="M259" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.35">
@@ -11398,7 +11428,7 @@
         <v>2</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E260" s="8">
         <v>0.4284722222222222</v>
@@ -11410,7 +11440,7 @@
         <v>24</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I260" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11420,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="K260" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L260" s="7">
         <v>2</v>
@@ -11437,7 +11467,7 @@
         <v>2</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E261" s="8">
         <v>0.47291666666666665</v>
@@ -11449,7 +11479,7 @@
         <v>24</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I261" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11458,8 +11488,8 @@
       <c r="J261" s="11">
         <v>1</v>
       </c>
-      <c r="K261" s="11" t="s">
-        <v>161</v>
+      <c r="K261" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L261" s="7">
         <v>5</v>
@@ -11476,7 +11506,7 @@
         <v>2</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E262" s="8">
         <v>0.48333333333333334</v>
@@ -11488,7 +11518,7 @@
         <v>24</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I262" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11498,7 +11528,7 @@
         <v>1</v>
       </c>
       <c r="K262" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L262" s="7">
         <v>3</v>
@@ -11515,7 +11545,7 @@
         <v>2</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E263" s="8">
         <v>1.0416666666666666E-2</v>
@@ -11527,7 +11557,7 @@
         <v>24</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I263" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11537,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="K263" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L263" s="7">
         <v>2</v>
@@ -11554,7 +11584,7 @@
         <v>2</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E264" s="8">
         <v>1.3888888888888888E-2</v>
@@ -11566,7 +11596,7 @@
         <v>24</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I264" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11576,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L264" s="7">
         <v>2</v>
@@ -11593,7 +11623,7 @@
         <v>2</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E265" s="8">
         <v>8.6805555555555566E-2</v>
@@ -11605,7 +11635,7 @@
         <v>24</v>
       </c>
       <c r="H265" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I265" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11614,8 +11644,8 @@
       <c r="J265" s="11">
         <v>1</v>
       </c>
-      <c r="K265" s="11" t="s">
-        <v>161</v>
+      <c r="K265" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L265" s="7">
         <v>1</v>
@@ -11632,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E266" s="8">
         <v>9.375E-2</v>
@@ -11644,7 +11674,7 @@
         <v>24</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I266" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11654,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="K266" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L266" s="7">
         <v>4</v>
@@ -11671,7 +11701,7 @@
         <v>2</v>
       </c>
       <c r="D267" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E267" s="8">
         <v>0.10486111111111111</v>
@@ -11683,7 +11713,7 @@
         <v>24</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I267" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11693,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="K267" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L267" s="7">
         <v>2</v>
@@ -11710,7 +11740,7 @@
         <v>2</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E268" s="8">
         <v>0.14027777777777778</v>
@@ -11722,7 +11752,7 @@
         <v>24</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I268" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11732,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="K268" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L268" s="7">
         <v>2</v>
@@ -11749,7 +11779,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E269" s="8">
         <v>0.20069444444444443</v>
@@ -11761,7 +11791,7 @@
         <v>24</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I269" s="7" t="str">
         <f t="shared" si="4"/>
@@ -11771,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="K269" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L269" s="7">
         <v>3</v>
@@ -11788,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E270" s="8">
         <v>0.31111111111111112</v>
@@ -11800,7 +11830,7 @@
         <v>24</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I270" s="7" t="str">
         <f t="shared" ref="I270" si="5">G270&amp;""&amp;H270</f>
@@ -11810,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="K270" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L270" s="12">
         <v>4</v>
@@ -11827,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E271" s="8">
         <v>0.31736111111111115</v>
@@ -11839,7 +11869,7 @@
         <v>24</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I271" s="7" t="str">
         <f t="shared" ref="I271" si="6">G271&amp;""&amp;H271</f>
@@ -11849,10 +11879,10 @@
         <v>1</v>
       </c>
       <c r="K271" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L271" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.35">
@@ -11866,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E272" s="8">
         <v>0.34930555555555554</v>
@@ -11878,7 +11908,7 @@
         <v>24</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I272" s="7" t="str">
         <f t="shared" ref="I272" si="7">G272&amp;""&amp;H272</f>
@@ -11888,7 +11918,7 @@
         <v>1</v>
       </c>
       <c r="K272" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L272" s="12">
         <v>3</v>
@@ -11905,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E273" s="8">
         <v>0.41736111111111113</v>
@@ -11917,7 +11947,7 @@
         <v>24</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I273" s="7" t="str">
         <f t="shared" ref="I273:I274" si="8">G273&amp;""&amp;H273</f>
@@ -11927,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="K273" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L273" s="12">
         <v>4</v>
@@ -11944,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E274" s="8">
         <v>0.47152777777777777</v>
@@ -11956,7 +11986,7 @@
         <v>48</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I274" s="7" t="str">
         <f t="shared" si="8"/>
@@ -11965,8 +11995,8 @@
       <c r="J274" s="7">
         <v>1</v>
       </c>
-      <c r="K274" s="7" t="s">
-        <v>49</v>
+      <c r="K274" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="L274" s="12">
         <v>2</v>
@@ -11983,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E275" s="8">
         <v>0.4861111111111111</v>
@@ -11995,7 +12025,7 @@
         <v>24</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I275" s="7" t="str">
         <f t="shared" ref="I275" si="9">G275&amp;""&amp;H275</f>
@@ -12005,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="K275" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L275" s="12">
         <v>3</v>
@@ -12022,7 +12052,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E276" s="8">
         <v>0.4909722222222222</v>
@@ -12034,7 +12064,7 @@
         <v>24</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I276" s="7" t="str">
         <f t="shared" ref="I276:I277" si="10">G276&amp;""&amp;H276</f>
@@ -12044,7 +12074,7 @@
         <v>1</v>
       </c>
       <c r="K276" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L276" s="12">
         <v>3</v>
@@ -12061,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E277" s="8">
         <v>4.8611111111111112E-3</v>
@@ -12073,7 +12103,7 @@
         <v>24</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I277" s="7" t="str">
         <f t="shared" si="10"/>
@@ -12083,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="K277" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L277" s="12">
         <v>4</v>
@@ -12100,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E278" s="8">
         <v>4.5138888888888888E-2</v>
@@ -12112,7 +12142,7 @@
         <v>24</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I278" s="7" t="str">
         <f t="shared" ref="I278" si="11">G278&amp;""&amp;H278</f>
@@ -12122,10 +12152,10 @@
         <v>1</v>
       </c>
       <c r="K278" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L278" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.35">
@@ -12139,7 +12169,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E279" s="8">
         <v>5.1388888888888894E-2</v>
@@ -12151,7 +12181,7 @@
         <v>24</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I279" s="7" t="str">
         <f t="shared" ref="I279:I280" si="12">G279&amp;""&amp;H279</f>
@@ -12161,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="K279" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L279" s="12">
         <v>2</v>
@@ -12178,7 +12208,7 @@
         <v>1</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E280" s="8">
         <v>5.486111111111111E-2</v>
@@ -12190,7 +12220,7 @@
         <v>24</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I280" s="7" t="str">
         <f t="shared" si="12"/>
@@ -12200,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="K280" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L280" s="12" t="s">
         <v>152</v>
@@ -12217,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E281" s="8">
         <v>5.9027777777777783E-2</v>
@@ -12229,7 +12259,7 @@
         <v>24</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I281" s="7" t="str">
         <f t="shared" ref="I281" si="13">G281&amp;""&amp;H281</f>
@@ -12239,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="K281" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L281" s="12">
         <v>3</v>
@@ -12256,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E282" s="8">
         <v>6.3194444444444442E-2</v>
@@ -12268,7 +12298,7 @@
         <v>24</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I282" s="7" t="str">
         <f t="shared" ref="I282" si="14">G282&amp;""&amp;H282</f>
@@ -12278,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="K282" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L282" s="12">
         <v>3</v>
@@ -12295,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E283" s="8">
         <v>0.11388888888888889</v>
@@ -12307,7 +12337,7 @@
         <v>24</v>
       </c>
       <c r="H283" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I283" s="7" t="str">
         <f t="shared" ref="I283:I284" si="15">G283&amp;""&amp;H283</f>
@@ -12317,7 +12347,7 @@
         <v>1</v>
       </c>
       <c r="K283" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L283" s="12">
         <v>2</v>
@@ -12334,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E284" s="8">
         <v>0.12916666666666668</v>
@@ -12346,7 +12376,7 @@
         <v>24</v>
       </c>
       <c r="H284" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I284" s="7" t="str">
         <f t="shared" si="15"/>
@@ -12356,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="K284" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L284" s="12">
         <v>2</v>
@@ -12373,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E285" s="8">
         <v>0.3666666666666667</v>
@@ -12385,7 +12415,7 @@
         <v>24</v>
       </c>
       <c r="H285" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I285" s="7" t="str">
         <f t="shared" ref="I285:I286" si="16">G285&amp;""&amp;H285</f>
@@ -12395,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="K285" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L285" s="12">
         <v>1</v>
@@ -12412,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E286" s="8">
         <v>6.9444444444444447E-4</v>
@@ -12424,7 +12454,7 @@
         <v>24</v>
       </c>
       <c r="H286" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I286" s="7" t="str">
         <f t="shared" si="16"/>
@@ -12434,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="K286" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L286" s="12">
         <v>2</v>
@@ -12451,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E287" s="8">
         <v>2.361111111111111E-2</v>
@@ -12463,7 +12493,7 @@
         <v>24</v>
       </c>
       <c r="H287" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I287" s="7" t="str">
         <f t="shared" ref="I287" si="17">G287&amp;""&amp;H287</f>
@@ -12473,10 +12503,10 @@
         <v>1</v>
       </c>
       <c r="K287" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L287" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.35">
@@ -12490,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E288" s="8">
         <v>0.12708333333333333</v>
@@ -12502,7 +12532,7 @@
         <v>24</v>
       </c>
       <c r="H288" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I288" s="7" t="str">
         <f t="shared" ref="I288" si="18">G288&amp;""&amp;H288</f>
@@ -12512,13 +12542,13 @@
         <v>1</v>
       </c>
       <c r="K288" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L288" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M288" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.35">
@@ -12532,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E289" s="8">
         <v>0.20138888888888887</v>
@@ -12544,7 +12574,7 @@
         <v>24</v>
       </c>
       <c r="H289" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I289" s="7" t="str">
         <f t="shared" ref="I289:I290" si="19">G289&amp;""&amp;H289</f>
@@ -12554,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="K289" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L289" s="12">
         <v>1</v>
@@ -12571,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E290" s="8">
         <v>0.20486111111111113</v>
@@ -12583,7 +12613,7 @@
         <v>24</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I290" s="7" t="str">
         <f t="shared" si="19"/>
@@ -12593,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="K290" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L290" s="12">
         <v>1</v>
@@ -12610,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E291" s="8">
         <v>0.23750000000000002</v>
@@ -12622,7 +12652,7 @@
         <v>24</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I291" s="7" t="str">
         <f t="shared" ref="I291" si="20">G291&amp;""&amp;H291</f>
@@ -12632,7 +12662,7 @@
         <v>1</v>
       </c>
       <c r="K291" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L291" s="12">
         <v>2</v>
@@ -12649,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E292" s="8">
         <v>0.39999999999999997</v>
@@ -12661,7 +12691,7 @@
         <v>24</v>
       </c>
       <c r="H292" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I292" s="7" t="str">
         <f t="shared" ref="I292:I293" si="21">G292&amp;""&amp;H292</f>
@@ -12671,10 +12701,10 @@
         <v>1</v>
       </c>
       <c r="K292" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L292" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.35">
@@ -12688,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E293" s="8">
         <v>0.44236111111111115</v>
@@ -12700,7 +12730,7 @@
         <v>24</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I293" s="7" t="str">
         <f t="shared" si="21"/>
@@ -12710,10 +12740,10 @@
         <v>1</v>
       </c>
       <c r="K293" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L293" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
@@ -12727,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E294" s="8">
         <v>7.7777777777777779E-2</v>
@@ -12739,7 +12769,7 @@
         <v>24</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I294" s="7" t="str">
         <f t="shared" ref="I294" si="22">G294&amp;""&amp;H294</f>
@@ -12749,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="K294" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L294" s="12">
         <v>4</v>
@@ -12766,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E295" s="8">
         <v>0.20277777777777781</v>
@@ -12778,7 +12808,7 @@
         <v>24</v>
       </c>
       <c r="H295" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I295" s="7" t="str">
         <f t="shared" ref="I295" si="23">G295&amp;""&amp;H295</f>
@@ -12788,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="K295" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L295" s="12">
         <v>4</v>
@@ -12805,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E296" s="8">
         <v>0.10347222222222223</v>
@@ -12817,7 +12847,7 @@
         <v>24</v>
       </c>
       <c r="H296" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I296" s="7" t="str">
         <f t="shared" ref="I296" si="24">G296&amp;""&amp;H296</f>
@@ -12827,13 +12857,13 @@
         <v>1</v>
       </c>
       <c r="K296" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L296" s="12">
         <v>4</v>
       </c>
       <c r="M296" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.35">
@@ -12847,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E297" s="8">
         <v>7.3611111111111113E-2</v>
@@ -12859,7 +12889,7 @@
         <v>24</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I297" s="7" t="str">
         <f t="shared" ref="I297" si="25">G297&amp;""&amp;H297</f>
@@ -12869,7 +12899,7 @@
         <v>1</v>
       </c>
       <c r="K297" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L297" s="12">
         <v>4</v>
@@ -12886,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E298" s="8">
         <v>0.41944444444444445</v>
@@ -12898,7 +12928,7 @@
         <v>24</v>
       </c>
       <c r="H298" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I298" s="7" t="str">
         <f t="shared" ref="I298" si="26">G298&amp;""&amp;H298</f>
@@ -12908,13 +12938,13 @@
         <v>1</v>
       </c>
       <c r="K298" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L298" s="12">
         <v>5</v>
       </c>
       <c r="M298" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.35">
@@ -12928,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E299" s="8">
         <v>0.21805555555555556</v>
@@ -12940,7 +12970,7 @@
         <v>24</v>
       </c>
       <c r="H299" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I299" s="7" t="str">
         <f t="shared" ref="I299" si="27">G299&amp;""&amp;H299</f>
@@ -12950,7 +12980,7 @@
         <v>1</v>
       </c>
       <c r="K299" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L299" s="12">
         <v>5</v>
@@ -12967,7 +12997,7 @@
         <v>2</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E300" s="8">
         <v>0.30069444444444443</v>
@@ -12979,7 +13009,7 @@
         <v>24</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I300" s="7" t="str">
         <f t="shared" ref="I300" si="28">G300&amp;""&amp;H300</f>
@@ -12989,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="K300" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L300" s="12">
         <v>2</v>
@@ -13006,7 +13036,7 @@
         <v>2</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E301" s="8">
         <v>0.30972222222222223</v>
@@ -13018,7 +13048,7 @@
         <v>24</v>
       </c>
       <c r="H301" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I301" s="7" t="str">
         <f t="shared" ref="I301" si="29">G301&amp;""&amp;H301</f>
@@ -13028,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="K301" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L301" s="12">
         <v>4</v>
@@ -13045,7 +13075,7 @@
         <v>2</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E302" s="8">
         <v>0.31527777777777777</v>
@@ -13057,7 +13087,7 @@
         <v>24</v>
       </c>
       <c r="H302" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I302" s="7" t="str">
         <f t="shared" ref="I302" si="30">G302&amp;""&amp;H302</f>
@@ -13067,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="K302" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L302" s="12">
         <v>5</v>
@@ -13084,7 +13114,7 @@
         <v>2</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E303" s="8">
         <v>0.31666666666666665</v>
@@ -13096,7 +13126,7 @@
         <v>24</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I303" s="7" t="str">
         <f t="shared" ref="I303:I304" si="31">G303&amp;""&amp;H303</f>
@@ -13106,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="K303" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L303" s="12">
         <v>4</v>
@@ -13123,7 +13153,7 @@
         <v>2</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E304" s="8">
         <v>0.32013888888888892</v>
@@ -13135,7 +13165,7 @@
         <v>24</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I304" s="7" t="str">
         <f t="shared" si="31"/>
@@ -13145,10 +13175,10 @@
         <v>1</v>
       </c>
       <c r="K304" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L304" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.35">
@@ -13162,7 +13192,7 @@
         <v>2</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E305" s="8">
         <v>0.34583333333333338</v>
@@ -13174,7 +13204,7 @@
         <v>24</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I305" s="7" t="str">
         <f t="shared" ref="I305" si="32">G305&amp;""&amp;H305</f>
@@ -13184,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="K305" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L305" s="12">
         <v>2</v>
@@ -13201,7 +13231,7 @@
         <v>2</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E306" s="8">
         <v>0.35833333333333334</v>
@@ -13213,7 +13243,7 @@
         <v>24</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I306" s="7" t="str">
         <f t="shared" ref="I306" si="33">G306&amp;""&amp;H306</f>
@@ -13223,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="K306" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L306" s="12">
         <v>5</v>
@@ -13240,7 +13270,7 @@
         <v>2</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E307" s="8">
         <v>0.36388888888888887</v>
@@ -13252,7 +13282,7 @@
         <v>24</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I307" s="7" t="str">
         <f t="shared" ref="I307" si="34">G307&amp;""&amp;H307</f>
@@ -13262,7 +13292,7 @@
         <v>1</v>
       </c>
       <c r="K307" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L307" s="12">
         <v>3</v>
@@ -13279,7 +13309,7 @@
         <v>2</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E308" s="8">
         <v>0.36736111111111108</v>
@@ -13291,7 +13321,7 @@
         <v>24</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I308" s="7" t="str">
         <f t="shared" ref="I308" si="35">G308&amp;""&amp;H308</f>
@@ -13301,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="K308" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L308" s="12">
         <v>1</v>
@@ -13318,7 +13348,7 @@
         <v>2</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E309" s="8">
         <v>0.39305555555555555</v>
@@ -13330,7 +13360,7 @@
         <v>24</v>
       </c>
       <c r="H309" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I309" s="7" t="str">
         <f t="shared" ref="I309" si="36">G309&amp;""&amp;H309</f>
@@ -13340,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="K309" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L309" s="12">
         <v>4</v>
@@ -13357,7 +13387,7 @@
         <v>2</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E310" s="8">
         <v>0.42569444444444443</v>
@@ -13369,7 +13399,7 @@
         <v>24</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I310" s="7" t="str">
         <f t="shared" ref="I310" si="37">G310&amp;""&amp;H310</f>
@@ -13379,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="K310" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L310" s="12">
         <v>4</v>
@@ -13396,7 +13426,7 @@
         <v>2</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E311" s="8">
         <v>0.4597222222222222</v>
@@ -13408,7 +13438,7 @@
         <v>24</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I311" s="7" t="str">
         <f t="shared" ref="I311" si="38">G311&amp;""&amp;H311</f>
@@ -13418,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="K311" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L311" s="12">
         <v>5</v>
@@ -13435,7 +13465,7 @@
         <v>2</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E312" s="8">
         <v>0.47430555555555554</v>
@@ -13447,7 +13477,7 @@
         <v>24</v>
       </c>
       <c r="H312" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I312" s="7" t="str">
         <f t="shared" ref="I312" si="39">G312&amp;""&amp;H312</f>
@@ -13457,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="K312" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L312" s="12">
         <v>1</v>
@@ -13474,7 +13504,7 @@
         <v>2</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E313" s="8">
         <v>4.1666666666666666E-3</v>
@@ -13486,7 +13516,7 @@
         <v>24</v>
       </c>
       <c r="H313" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I313" s="7" t="str">
         <f t="shared" ref="I313" si="40">G313&amp;""&amp;H313</f>
@@ -13496,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="K313" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L313" s="12">
         <v>4</v>
@@ -13513,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E314" s="8">
         <v>1.4583333333333332E-2</v>
@@ -13525,7 +13555,7 @@
         <v>24</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I314" s="7" t="str">
         <f t="shared" ref="I314" si="41">G314&amp;""&amp;H314</f>
@@ -13535,13 +13565,13 @@
         <v>1</v>
       </c>
       <c r="K314" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L314" s="12">
         <v>2</v>
       </c>
       <c r="M314" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
@@ -13555,7 +13585,7 @@
         <v>2</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E315" s="8">
         <v>6.9444444444444434E-2</v>
@@ -13567,7 +13597,7 @@
         <v>24</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I315" s="7" t="str">
         <f t="shared" ref="I315" si="42">G315&amp;""&amp;H315</f>
@@ -13577,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="K315" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L315" s="12">
         <v>2</v>
@@ -13594,7 +13624,7 @@
         <v>2</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E316" s="8">
         <v>7.2916666666666671E-2</v>
@@ -13606,7 +13636,7 @@
         <v>24</v>
       </c>
       <c r="H316" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I316" s="7" t="str">
         <f t="shared" ref="I316" si="43">G316&amp;""&amp;H316</f>
@@ -13616,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="K316" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L316" s="12">
         <v>1</v>
@@ -13633,7 +13663,7 @@
         <v>2</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E317" s="8">
         <v>7.2916666666666671E-2</v>
@@ -13645,7 +13675,7 @@
         <v>24</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I317" s="7" t="str">
         <f t="shared" ref="I317:I318" si="44">G317&amp;""&amp;H317</f>
@@ -13655,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="K317" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L317" s="12">
         <v>4</v>
@@ -13672,7 +13702,7 @@
         <v>2</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E318" s="8">
         <v>9.4444444444444442E-2</v>
@@ -13684,7 +13714,7 @@
         <v>24</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I318" s="7" t="str">
         <f t="shared" si="44"/>
@@ -13694,7 +13724,7 @@
         <v>1</v>
       </c>
       <c r="K318" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L318" s="12">
         <v>2</v>
@@ -13711,7 +13741,7 @@
         <v>2</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E319" s="8">
         <v>0.17083333333333331</v>
@@ -13723,7 +13753,7 @@
         <v>24</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I319" s="7" t="str">
         <f t="shared" ref="I319" si="45">G319&amp;""&amp;H319</f>
@@ -13733,7 +13763,7 @@
         <v>1</v>
       </c>
       <c r="K319" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L319" s="12">
         <v>2</v>
@@ -13750,7 +13780,7 @@
         <v>2</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E320" s="8">
         <v>0.28750000000000003</v>
@@ -13762,7 +13792,7 @@
         <v>24</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I320" s="7" t="str">
         <f t="shared" ref="I320" si="46">G320&amp;""&amp;H320</f>
@@ -13772,7 +13802,7 @@
         <v>1</v>
       </c>
       <c r="K320" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L320" s="12">
         <v>2</v>
@@ -13789,7 +13819,7 @@
         <v>2</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E321" s="8">
         <v>0.31041666666666667</v>
@@ -13801,7 +13831,7 @@
         <v>24</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I321" s="7" t="str">
         <f t="shared" ref="I321" si="47">G321&amp;""&amp;H321</f>
@@ -13811,7 +13841,7 @@
         <v>1</v>
       </c>
       <c r="K321" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L321" s="12">
         <v>5</v>
@@ -13828,7 +13858,7 @@
         <v>2</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E322" s="8">
         <v>0.3888888888888889</v>
@@ -13840,7 +13870,7 @@
         <v>24</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I322" s="7" t="str">
         <f t="shared" ref="I322" si="48">G322&amp;""&amp;H322</f>
@@ -13850,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="K322" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L322" s="12">
         <v>2</v>
@@ -13867,7 +13897,7 @@
         <v>2</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E323" s="8">
         <v>0.42430555555555555</v>
@@ -13879,7 +13909,7 @@
         <v>24</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I323" s="7" t="str">
         <f t="shared" ref="I323" si="49">G323&amp;""&amp;H323</f>
@@ -13889,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="K323" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L323" s="12" t="s">
         <v>152</v>
@@ -13906,7 +13936,7 @@
         <v>2</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E324" s="8">
         <v>0.16874999999999998</v>
@@ -13918,7 +13948,7 @@
         <v>24</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I324" s="7" t="str">
         <f t="shared" ref="I324" si="50">G324&amp;""&amp;H324</f>
@@ -13928,10 +13958,10 @@
         <v>1</v>
       </c>
       <c r="K324" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L324" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
@@ -13945,7 +13975,7 @@
         <v>2</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E325" s="8">
         <v>0.3034722222222222</v>
@@ -13957,7 +13987,7 @@
         <v>24</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I325" s="7" t="str">
         <f t="shared" ref="I325:I326" si="51">G325&amp;""&amp;H325</f>
@@ -13967,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="K325" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L325" s="12">
         <v>3</v>
@@ -13984,7 +14014,7 @@
         <v>2</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E326" s="8">
         <v>0.33749999999999997</v>
@@ -13996,7 +14026,7 @@
         <v>24</v>
       </c>
       <c r="H326" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I326" s="7" t="str">
         <f t="shared" si="51"/>
@@ -14006,10 +14036,10 @@
         <v>1</v>
       </c>
       <c r="K326" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L326" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
@@ -14023,7 +14053,7 @@
         <v>2</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E327" s="8">
         <v>0.3215277777777778</v>
@@ -14035,7 +14065,7 @@
         <v>24</v>
       </c>
       <c r="H327" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I327" s="7" t="str">
         <f t="shared" ref="I327" si="52">G327&amp;""&amp;H327</f>
@@ -14045,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="K327" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L327" s="12">
         <v>3</v>
@@ -14062,7 +14092,7 @@
         <v>2</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E328" s="8">
         <v>0.48680555555555555</v>
@@ -14074,7 +14104,7 @@
         <v>24</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I328" s="7" t="str">
         <f t="shared" ref="I328" si="53">G328&amp;""&amp;H328</f>
@@ -14084,7 +14114,7 @@
         <v>1</v>
       </c>
       <c r="K328" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L328" s="12">
         <v>1</v>
@@ -14101,7 +14131,7 @@
         <v>2</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E329" s="8">
         <v>0.29375000000000001</v>
@@ -14113,7 +14143,7 @@
         <v>24</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I329" s="7" t="str">
         <f t="shared" ref="I329" si="54">G329&amp;""&amp;H329</f>
@@ -14123,7 +14153,7 @@
         <v>1</v>
       </c>
       <c r="K329" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L329" s="12">
         <v>3</v>
@@ -14140,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E330" s="8">
         <v>0.17569444444444446</v>
@@ -14152,7 +14182,7 @@
         <v>24</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I330" s="7" t="str">
         <f t="shared" ref="I330" si="55">G330&amp;""&amp;H330</f>
@@ -14161,8 +14191,8 @@
       <c r="J330" s="7">
         <v>1</v>
       </c>
-      <c r="K330" s="12" t="s">
-        <v>220</v>
+      <c r="K330" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L330" s="12">
         <v>3</v>
@@ -14179,7 +14209,7 @@
         <v>2</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E331" s="8">
         <v>7.8472222222222221E-2</v>
@@ -14191,7 +14221,7 @@
         <v>24</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I331" s="7" t="str">
         <f t="shared" ref="I331" si="56">G331&amp;""&amp;H331</f>
@@ -14200,8 +14230,8 @@
       <c r="J331" s="7">
         <v>1</v>
       </c>
-      <c r="K331" s="12" t="s">
-        <v>220</v>
+      <c r="K331" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L331" s="12">
         <v>1</v>
@@ -14218,7 +14248,7 @@
         <v>2</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E332" s="8">
         <v>8.5416666666666655E-2</v>
@@ -14230,7 +14260,7 @@
         <v>24</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I332" s="7" t="str">
         <f t="shared" ref="I332" si="57">G332&amp;""&amp;H332</f>
@@ -14239,8 +14269,8 @@
       <c r="J332" s="7">
         <v>1</v>
       </c>
-      <c r="K332" s="12" t="s">
-        <v>220</v>
+      <c r="K332" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L332" s="12">
         <v>1</v>
@@ -14257,7 +14287,7 @@
         <v>2</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E333" s="8">
         <v>0.28750000000000003</v>
@@ -14269,7 +14299,7 @@
         <v>24</v>
       </c>
       <c r="H333" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I333" s="7" t="str">
         <f t="shared" ref="I333" si="58">G333&amp;""&amp;H333</f>
@@ -14278,8 +14308,8 @@
       <c r="J333" s="7">
         <v>1</v>
       </c>
-      <c r="K333" s="12" t="s">
-        <v>220</v>
+      <c r="K333" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L333" s="12">
         <v>4</v>
@@ -14296,7 +14326,7 @@
         <v>2</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E334" s="8">
         <v>0.33611111111111108</v>
@@ -14308,7 +14338,7 @@
         <v>24</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I334" s="7" t="str">
         <f t="shared" ref="I334" si="59">G334&amp;""&amp;H334</f>
@@ -14317,8 +14347,8 @@
       <c r="J334" s="7">
         <v>1</v>
       </c>
-      <c r="K334" s="12" t="s">
-        <v>220</v>
+      <c r="K334" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L334" s="12">
         <v>5</v>
@@ -14335,7 +14365,7 @@
         <v>2</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E335" s="8">
         <v>0.37013888888888885</v>
@@ -14347,7 +14377,7 @@
         <v>24</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I335" s="7" t="str">
         <f t="shared" ref="I335" si="60">G335&amp;""&amp;H335</f>
@@ -14356,8 +14386,8 @@
       <c r="J335" s="7">
         <v>1</v>
       </c>
-      <c r="K335" s="12" t="s">
-        <v>220</v>
+      <c r="K335" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L335" s="12">
         <v>5</v>
@@ -14374,7 +14404,7 @@
         <v>2</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E336" s="8">
         <v>0.17847222222222223</v>
@@ -14386,7 +14416,7 @@
         <v>24</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I336" s="7" t="str">
         <f t="shared" ref="I336" si="61">G336&amp;""&amp;H336</f>
@@ -14395,16 +14425,1267 @@
       <c r="J336" s="7">
         <v>1</v>
       </c>
-      <c r="K336" s="12" t="s">
-        <v>220</v>
+      <c r="K336" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="L336" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C337" s="7" t="s">
+    <row r="337" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A337" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C337" s="12">
+        <v>1</v>
+      </c>
+      <c r="D337" s="12" t="s">
         <v>222</v>
+      </c>
+      <c r="E337" s="8">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G337" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H337" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I337" s="7" t="str">
+        <f t="shared" ref="I337" si="62">G337&amp;""&amp;H337</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J337" s="7">
+        <v>1</v>
+      </c>
+      <c r="K337" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L337" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="M337" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A338" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338" s="12">
+        <v>1</v>
+      </c>
+      <c r="D338" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E338" s="8">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G338" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H338" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I338" s="7" t="str">
+        <f t="shared" ref="I338" si="63">G338&amp;""&amp;H338</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J338" s="7">
+        <v>1</v>
+      </c>
+      <c r="K338" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L338" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A339" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C339" s="12">
+        <v>1</v>
+      </c>
+      <c r="D339" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E339" s="8">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G339" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H339" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I339" s="7" t="str">
+        <f t="shared" ref="I339" si="64">G339&amp;""&amp;H339</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J339" s="7">
+        <v>1</v>
+      </c>
+      <c r="K339" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L339" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A340" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C340" s="12">
+        <v>1</v>
+      </c>
+      <c r="D340" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E340" s="8">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F340" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G340" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H340" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I340" s="7" t="str">
+        <f t="shared" ref="I340" si="65">G340&amp;""&amp;H340</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J340" s="7">
+        <v>1</v>
+      </c>
+      <c r="K340" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L340" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A341" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C341" s="12">
+        <v>1</v>
+      </c>
+      <c r="D341" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E341" s="8">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G341" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H341" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I341" s="7" t="str">
+        <f t="shared" ref="I341" si="66">G341&amp;""&amp;H341</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J341" s="7">
+        <v>1</v>
+      </c>
+      <c r="K341" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L341" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A342" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C342" s="12">
+        <v>1</v>
+      </c>
+      <c r="D342" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E342" s="8">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G342" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H342" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I342" s="7" t="str">
+        <f t="shared" ref="I342" si="67">G342&amp;""&amp;H342</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J342" s="7">
+        <v>1</v>
+      </c>
+      <c r="K342" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L342" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A343" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C343" s="12">
+        <v>1</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E343" s="8">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G343" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H343" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I343" s="7" t="str">
+        <f t="shared" ref="I343" si="68">G343&amp;""&amp;H343</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J343" s="7">
+        <v>1</v>
+      </c>
+      <c r="K343" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L343" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A344" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C344" s="12">
+        <v>1</v>
+      </c>
+      <c r="D344" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E344" s="8">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G344" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H344" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I344" s="7" t="str">
+        <f t="shared" ref="I344" si="69">G344&amp;""&amp;H344</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J344" s="7">
+        <v>1</v>
+      </c>
+      <c r="K344" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L344" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A345" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C345" s="12">
+        <v>1</v>
+      </c>
+      <c r="D345" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E345" s="8">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G345" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H345" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I345" s="7" t="str">
+        <f t="shared" ref="I345" si="70">G345&amp;""&amp;H345</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J345" s="7">
+        <v>1</v>
+      </c>
+      <c r="K345" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L345" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A346" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C346" s="12">
+        <v>1</v>
+      </c>
+      <c r="D346" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E346" s="8">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="F346" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G346" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H346" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I346" s="7" t="str">
+        <f t="shared" ref="I346" si="71">G346&amp;""&amp;H346</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J346" s="7">
+        <v>1</v>
+      </c>
+      <c r="K346" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L346" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A347" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" s="12">
+        <v>1</v>
+      </c>
+      <c r="D347" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E347" s="8">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F347" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G347" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H347" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I347" s="7" t="str">
+        <f t="shared" ref="I347" si="72">G347&amp;""&amp;H347</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J347" s="7">
+        <v>1</v>
+      </c>
+      <c r="K347" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L347" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A348" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C348" s="12">
+        <v>1</v>
+      </c>
+      <c r="D348" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E348" s="8">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="F348" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G348" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H348" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I348" s="7" t="str">
+        <f t="shared" ref="I348:I349" si="73">G348&amp;""&amp;H348</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J348" s="7">
+        <v>1</v>
+      </c>
+      <c r="K348" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L348" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A349" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" s="12">
+        <v>1</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E349" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F349" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G349" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H349" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I349" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J349" s="7">
+        <v>1</v>
+      </c>
+      <c r="K349" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L349" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A350" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C350" s="12">
+        <v>1</v>
+      </c>
+      <c r="D350" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E350" s="8">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F350" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G350" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H350" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I350" s="7" t="str">
+        <f t="shared" ref="I350" si="74">G350&amp;""&amp;H350</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J350" s="7">
+        <v>1</v>
+      </c>
+      <c r="K350" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L350" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A351" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C351" s="12">
+        <v>1</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E351" s="8">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="F351" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G351" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H351" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I351" s="7" t="str">
+        <f t="shared" ref="I351:I352" si="75">G351&amp;""&amp;H351</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J351" s="7">
+        <v>1</v>
+      </c>
+      <c r="K351" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L351" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A352" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C352" s="12">
+        <v>1</v>
+      </c>
+      <c r="D352" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E352" s="8">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G352" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H352" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I352" s="7" t="str">
+        <f t="shared" si="75"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J352" s="7">
+        <v>1</v>
+      </c>
+      <c r="K352" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L352" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A353" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C353" s="12">
+        <v>1</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E353" s="8">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="F353" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G353" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H353" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I353" s="7" t="str">
+        <f t="shared" ref="I353" si="76">G353&amp;""&amp;H353</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J353" s="7">
+        <v>1</v>
+      </c>
+      <c r="K353" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L353" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A354" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C354" s="12">
+        <v>1</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E354" s="8">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="F354" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G354" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H354" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I354" s="7" t="str">
+        <f t="shared" ref="I354" si="77">G354&amp;""&amp;H354</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J354" s="7">
+        <v>1</v>
+      </c>
+      <c r="K354" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L354" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A355" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C355" s="12">
+        <v>1</v>
+      </c>
+      <c r="D355" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E355" s="8">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F355" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G355" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H355" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I355" s="7" t="str">
+        <f t="shared" ref="I355" si="78">G355&amp;""&amp;H355</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J355" s="7">
+        <v>1</v>
+      </c>
+      <c r="K355" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L355" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A356" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C356" s="12">
+        <v>1</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E356" s="8">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F356" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G356" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H356" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I356" s="7" t="str">
+        <f t="shared" ref="I356" si="79">G356&amp;""&amp;H356</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J356" s="7">
+        <v>1</v>
+      </c>
+      <c r="K356" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L356" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A357" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C357" s="12">
+        <v>2</v>
+      </c>
+      <c r="D357" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E357" s="8">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F357" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G357" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H357" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I357" s="7" t="str">
+        <f t="shared" ref="I357" si="80">G357&amp;""&amp;H357</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J357" s="7">
+        <v>1</v>
+      </c>
+      <c r="K357" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L357" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A358" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C358" s="12">
+        <v>2</v>
+      </c>
+      <c r="D358" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E358" s="8">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="F358" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G358" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H358" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I358" s="7" t="str">
+        <f t="shared" ref="I358" si="81">G358&amp;""&amp;H358</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J358" s="7">
+        <v>1</v>
+      </c>
+      <c r="K358" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L358" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A359" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C359" s="12">
+        <v>2</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E359" s="8">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="F359" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G359" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H359" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I359" s="7" t="str">
+        <f t="shared" ref="I359" si="82">G359&amp;""&amp;H359</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J359" s="7">
+        <v>1</v>
+      </c>
+      <c r="K359" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L359" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A360" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" s="12">
+        <v>2</v>
+      </c>
+      <c r="D360" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E360" s="8">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="F360" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G360" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H360" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I360" s="7" t="str">
+        <f t="shared" ref="I360" si="83">G360&amp;""&amp;H360</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J360" s="7">
+        <v>1</v>
+      </c>
+      <c r="K360" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L360" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A361" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C361" s="12">
+        <v>2</v>
+      </c>
+      <c r="D361" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E361" s="8">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="F361" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G361" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H361" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I361" s="7" t="str">
+        <f t="shared" ref="I361" si="84">G361&amp;""&amp;H361</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J361" s="7">
+        <v>1</v>
+      </c>
+      <c r="K361" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L361" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A362" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362" s="12">
+        <v>2</v>
+      </c>
+      <c r="D362" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E362" s="8">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F362" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G362" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H362" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I362" s="7" t="str">
+        <f t="shared" ref="I362" si="85">G362&amp;""&amp;H362</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J362" s="7">
+        <v>1</v>
+      </c>
+      <c r="K362" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L362" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A363" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C363" s="12">
+        <v>2</v>
+      </c>
+      <c r="D363" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E363" s="8">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G363" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H363" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I363" s="7" t="str">
+        <f t="shared" ref="I363" si="86">G363&amp;""&amp;H363</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J363" s="7">
+        <v>1</v>
+      </c>
+      <c r="K363" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L363" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A364" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C364" s="12">
+        <v>2</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E364" s="8">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G364" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H364" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I364" s="7" t="str">
+        <f t="shared" ref="I364" si="87">G364&amp;""&amp;H364</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J364" s="7">
+        <v>1</v>
+      </c>
+      <c r="K364" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L364" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A365" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C365" s="12">
+        <v>2</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E365" s="8">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G365" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H365" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I365" s="7" t="str">
+        <f t="shared" ref="I365" si="88">G365&amp;""&amp;H365</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J365" s="7">
+        <v>1</v>
+      </c>
+      <c r="K365" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L365" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A366" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C366" s="12">
+        <v>2</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E366" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F366" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G366" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H366" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I366" s="7" t="str">
+        <f t="shared" ref="I366" si="89">G366&amp;""&amp;H366</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J366" s="7">
+        <v>1</v>
+      </c>
+      <c r="K366" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L366" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A367" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C367" s="12">
+        <v>2</v>
+      </c>
+      <c r="D367" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E367" s="8">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F367" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G367" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H367" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I367" s="7" t="str">
+        <f t="shared" ref="I367" si="90">G367&amp;""&amp;H367</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J367" s="7">
+        <v>1</v>
+      </c>
+      <c r="K367" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L367" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A368" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C368" s="12">
+        <v>2</v>
+      </c>
+      <c r="D368" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E368" s="8">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="F368" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G368" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H368" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I368" s="7" t="str">
+        <f t="shared" ref="I368" si="91">G368&amp;""&amp;H368</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J368" s="7">
+        <v>1</v>
+      </c>
+      <c r="K368" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L368" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D369" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="468" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87593E56-4BD9-49F5-90CA-E8748D2F3C64}"/>
+  <xr:revisionPtr revIDLastSave="673" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AEE13B-1F98-4BF3-9D26-E12CA0C4ACCD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1220" windowWidth="12660" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="249">
   <si>
     <t>date</t>
   </si>
@@ -696,9 +696,6 @@
     <t>GP070222</t>
   </si>
   <si>
-    <t>^done</t>
-  </si>
-  <si>
     <t>** this assay does not have the best angle of blades 5</t>
   </si>
   <si>
@@ -733,6 +730,57 @@
   </si>
   <si>
     <t>3, 5</t>
+  </si>
+  <si>
+    <t>GH048718</t>
+  </si>
+  <si>
+    <t>Intermediate Phase</t>
+  </si>
+  <si>
+    <t>GH098718</t>
+  </si>
+  <si>
+    <t>GOPR0277</t>
+  </si>
+  <si>
+    <t>GP010277</t>
+  </si>
+  <si>
+    <t>GP020277</t>
+  </si>
+  <si>
+    <t>GOPR0210</t>
+  </si>
+  <si>
+    <t>GP010210</t>
+  </si>
+  <si>
+    <t>GP030210</t>
+  </si>
+  <si>
+    <t>GH030311</t>
+  </si>
+  <si>
+    <t>1, 5</t>
+  </si>
+  <si>
+    <t>GH040311</t>
+  </si>
+  <si>
+    <t>GH050311</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 5</t>
+  </si>
+  <si>
+    <t>GH060311</t>
+  </si>
+  <si>
+    <t>GH080311</t>
+  </si>
+  <si>
+    <t>GH027311</t>
   </si>
 </sst>
 </file>
@@ -768,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -790,6 +838,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y369"/>
+  <dimension ref="A1:Y418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
+    <sheetView tabSelected="1" topLeftCell="G392" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="L421" sqref="L421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14443,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E337" s="8">
         <v>0.3298611111111111</v>
@@ -14471,7 +14522,7 @@
         <v>201</v>
       </c>
       <c r="M337" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.35">
@@ -14485,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E338" s="8">
         <v>6.2499999999999995E-3</v>
@@ -14524,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E339" s="8">
         <v>3.4722222222222224E-2</v>
@@ -14563,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E340" s="8">
         <v>9.7222222222222224E-2</v>
@@ -14602,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E341" s="8">
         <v>0.1173611111111111</v>
@@ -14641,7 +14692,7 @@
         <v>1</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E342" s="8">
         <v>0.17569444444444446</v>
@@ -14680,7 +14731,7 @@
         <v>1</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E343" s="8">
         <v>0.29444444444444445</v>
@@ -14719,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E344" s="8">
         <v>0.40347222222222223</v>
@@ -14758,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E345" s="8">
         <v>0.48194444444444445</v>
@@ -14797,7 +14848,7 @@
         <v>1</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E346" s="8">
         <v>0.19583333333333333</v>
@@ -14836,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E347" s="8">
         <v>2.4305555555555556E-2</v>
@@ -14875,7 +14926,7 @@
         <v>1</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E348" s="8">
         <v>0.31805555555555554</v>
@@ -14914,7 +14965,7 @@
         <v>1</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E349" s="8">
         <v>0.33333333333333331</v>
@@ -14953,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E350" s="8">
         <v>0.46180555555555558</v>
@@ -14992,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E351" s="8">
         <v>0.11944444444444445</v>
@@ -15031,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E352" s="8">
         <v>0.46249999999999997</v>
@@ -15070,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E353" s="8">
         <v>1.8055555555555557E-2</v>
@@ -15109,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E354" s="8">
         <v>0.30694444444444441</v>
@@ -15148,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E355" s="8">
         <v>1.3888888888888889E-3</v>
@@ -15187,7 +15238,7 @@
         <v>1</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E356" s="8">
         <v>4.9999999999999996E-2</v>
@@ -15212,7 +15263,7 @@
         <v>183</v>
       </c>
       <c r="L356" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.35">
@@ -15226,7 +15277,7 @@
         <v>2</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E357" s="8">
         <v>4.9999999999999996E-2</v>
@@ -15265,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E358" s="8">
         <v>7.1527777777777787E-2</v>
@@ -15304,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E359" s="8">
         <v>7.9861111111111105E-2</v>
@@ -15343,7 +15394,7 @@
         <v>2</v>
       </c>
       <c r="D360" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E360" s="8">
         <v>8.4027777777777771E-2</v>
@@ -15382,7 +15433,7 @@
         <v>2</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E361" s="8">
         <v>8.9583333333333334E-2</v>
@@ -15421,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E362" s="8">
         <v>9.375E-2</v>
@@ -15460,7 +15511,7 @@
         <v>2</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E363" s="8">
         <v>9.7222222222222224E-2</v>
@@ -15499,7 +15550,7 @@
         <v>2</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E364" s="8">
         <v>0.14097222222222222</v>
@@ -15538,7 +15589,7 @@
         <v>2</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E365" s="8">
         <v>0.1673611111111111</v>
@@ -15563,7 +15614,7 @@
         <v>183</v>
       </c>
       <c r="L365" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.35">
@@ -15577,7 +15628,7 @@
         <v>2</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E366" s="8">
         <v>0.20833333333333334</v>
@@ -15602,7 +15653,7 @@
         <v>183</v>
       </c>
       <c r="L366" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.35">
@@ -15616,7 +15667,7 @@
         <v>2</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E367" s="8">
         <v>0.22569444444444445</v>
@@ -15655,7 +15706,7 @@
         <v>2</v>
       </c>
       <c r="D368" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E368" s="8">
         <v>0.35486111111111113</v>
@@ -15683,9 +15734,1957 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A369" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C369" s="12">
+        <v>2</v>
+      </c>
       <c r="D369" s="12" t="s">
-        <v>220</v>
+        <v>232</v>
+      </c>
+      <c r="E369" s="8">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="F369" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G369" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H369" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I369" s="7" t="str">
+        <f t="shared" ref="I369" si="92">G369&amp;""&amp;H369</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J369" s="7">
+        <v>1</v>
+      </c>
+      <c r="K369" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L369" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A370" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C370" s="12">
+        <v>2</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E370" s="8">
+        <v>0.24930555555555556</v>
+      </c>
+      <c r="F370" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G370" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H370" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I370" s="7" t="str">
+        <f t="shared" ref="I370" si="93">G370&amp;""&amp;H370</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J370" s="7">
+        <v>1</v>
+      </c>
+      <c r="K370" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L370" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A371" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C371" s="12">
+        <v>2</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E371" s="8">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="F371" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G371" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H371" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I371" s="7" t="str">
+        <f t="shared" ref="I371" si="94">G371&amp;""&amp;H371</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J371" s="7">
+        <v>1</v>
+      </c>
+      <c r="K371" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L371" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A372" s="6">
+        <v>44588</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C372" s="12">
+        <v>2</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E372" s="8">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="F372" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G372" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H372" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I372" s="7" t="str">
+        <f t="shared" ref="I372" si="95">G372&amp;""&amp;H372</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J372" s="7">
+        <v>1</v>
+      </c>
+      <c r="K372" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L372" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A373" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C373" s="12">
+        <v>1</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E373" s="8">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="F373" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G373" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H373" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I373" s="7" t="str">
+        <f t="shared" ref="I373" si="96">G373&amp;""&amp;H373</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J373" s="7">
+        <v>1</v>
+      </c>
+      <c r="K373" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L373" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C374" s="12">
+        <v>1</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E374" s="8">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="F374" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G374" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H374" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I374" s="7" t="str">
+        <f t="shared" ref="I374" si="97">G374&amp;""&amp;H374</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J374" s="7">
+        <v>1</v>
+      </c>
+      <c r="K374" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L374" s="12">
+        <v>3</v>
+      </c>
+      <c r="M374" s="13"/>
+    </row>
+    <row r="375" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C375" s="12">
+        <v>1</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E375" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F375" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G375" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H375" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I375" s="7" t="str">
+        <f t="shared" ref="I375" si="98">G375&amp;""&amp;H375</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J375" s="7">
+        <v>1</v>
+      </c>
+      <c r="K375" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L375" s="12">
+        <v>4</v>
+      </c>
+      <c r="M375" s="13"/>
+    </row>
+    <row r="376" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C376" s="12">
+        <v>1</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E376" s="8">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="F376" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G376" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H376" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I376" s="7" t="str">
+        <f t="shared" ref="I376" si="99">G376&amp;""&amp;H376</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J376" s="7">
+        <v>1</v>
+      </c>
+      <c r="K376" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L376" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="M376" s="13"/>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A377" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C377" s="12">
+        <v>1</v>
+      </c>
+      <c r="D377" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E377" s="8">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="F377" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G377" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H377" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I377" s="7" t="str">
+        <f t="shared" ref="I377" si="100">G377&amp;""&amp;H377</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J377" s="7">
+        <v>1</v>
+      </c>
+      <c r="K377" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L377" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A378" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C378" s="12">
+        <v>1</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E378" s="8">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="F378" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G378" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H378" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I378" s="7" t="str">
+        <f t="shared" ref="I378" si="101">G378&amp;""&amp;H378</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J378" s="7">
+        <v>1</v>
+      </c>
+      <c r="K378" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L378" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A379" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B379" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C379" s="12">
+        <v>1</v>
+      </c>
+      <c r="D379" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E379" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F379" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G379" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H379" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I379" s="7" t="str">
+        <f t="shared" ref="I379" si="102">G379&amp;""&amp;H379</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J379" s="7">
+        <v>1</v>
+      </c>
+      <c r="K379" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L379" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A380" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B380" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C380" s="12">
+        <v>1</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E380" s="8">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="F380" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G380" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H380" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I380" s="7" t="str">
+        <f t="shared" ref="I380" si="103">G380&amp;""&amp;H380</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J380" s="7">
+        <v>1</v>
+      </c>
+      <c r="K380" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L380" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A381" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B381" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C381" s="12">
+        <v>1</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E381" s="8">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="F381" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G381" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H381" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I381" s="7" t="str">
+        <f t="shared" ref="I381" si="104">G381&amp;""&amp;H381</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J381" s="7">
+        <v>1</v>
+      </c>
+      <c r="K381" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L381" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A382" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C382" s="12">
+        <v>1</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E382" s="8">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F382" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G382" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H382" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I382" s="7" t="str">
+        <f t="shared" ref="I382" si="105">G382&amp;""&amp;H382</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J382" s="7">
+        <v>1</v>
+      </c>
+      <c r="K382" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L382" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A383" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C383" s="12">
+        <v>1</v>
+      </c>
+      <c r="D383" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E383" s="8">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="F383" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G383" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H383" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I383" s="7" t="str">
+        <f t="shared" ref="I383" si="106">G383&amp;""&amp;H383</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J383" s="7">
+        <v>1</v>
+      </c>
+      <c r="K383" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L383" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A384" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C384" s="12">
+        <v>1</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E384" s="8">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="F384" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G384" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H384" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I384" s="7" t="str">
+        <f t="shared" ref="I384" si="107">G384&amp;""&amp;H384</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J384" s="7">
+        <v>1</v>
+      </c>
+      <c r="K384" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L384" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A385" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B385" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C385" s="12">
+        <v>1</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E385" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F385" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G385" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H385" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I385" s="7" t="str">
+        <f t="shared" ref="I385" si="108">G385&amp;""&amp;H385</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J385" s="7">
+        <v>1</v>
+      </c>
+      <c r="K385" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L385" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A386" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C386" s="12">
+        <v>1</v>
+      </c>
+      <c r="D386" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E386" s="8">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="F386" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G386" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H386" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I386" s="7" t="str">
+        <f t="shared" ref="I386" si="109">G386&amp;""&amp;H386</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J386" s="7">
+        <v>1</v>
+      </c>
+      <c r="K386" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L386" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A387" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B387" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C387" s="12">
+        <v>2</v>
+      </c>
+      <c r="D387" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E387" s="8">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="F387" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G387" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H387" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I387" s="7" t="str">
+        <f t="shared" ref="I387" si="110">G387&amp;""&amp;H387</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J387" s="7">
+        <v>1</v>
+      </c>
+      <c r="K387" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L387" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A388" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C388" s="12">
+        <v>2</v>
+      </c>
+      <c r="D388" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E388" s="8">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="F388" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G388" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H388" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I388" s="7" t="str">
+        <f t="shared" ref="I388" si="111">G388&amp;""&amp;H388</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J388" s="7">
+        <v>1</v>
+      </c>
+      <c r="K388" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L388" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A389" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C389" s="12">
+        <v>2</v>
+      </c>
+      <c r="D389" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E389" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="F389" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G389" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H389" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I389" s="7" t="str">
+        <f t="shared" ref="I389" si="112">G389&amp;""&amp;H389</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J389" s="7">
+        <v>1</v>
+      </c>
+      <c r="K389" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L389" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A390" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C390" s="12">
+        <v>2</v>
+      </c>
+      <c r="D390" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E390" s="8">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="F390" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G390" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H390" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I390" s="7" t="str">
+        <f t="shared" ref="I390" si="113">G390&amp;""&amp;H390</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J390" s="7">
+        <v>1</v>
+      </c>
+      <c r="K390" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L390" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A391" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C391" s="12">
+        <v>2</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E391" s="8">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="F391" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G391" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H391" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I391" s="7" t="str">
+        <f t="shared" ref="I391" si="114">G391&amp;""&amp;H391</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J391" s="7">
+        <v>1</v>
+      </c>
+      <c r="K391" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L391" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A392" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C392" s="12">
+        <v>2</v>
+      </c>
+      <c r="D392" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E392" s="8">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="F392" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G392" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H392" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I392" s="7" t="str">
+        <f t="shared" ref="I392" si="115">G392&amp;""&amp;H392</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J392" s="7">
+        <v>1</v>
+      </c>
+      <c r="K392" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L392" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A393" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C393" s="12">
+        <v>2</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E393" s="8">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="F393" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G393" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H393" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I393" s="7" t="str">
+        <f t="shared" ref="I393:I394" si="116">G393&amp;""&amp;H393</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J393" s="7">
+        <v>1</v>
+      </c>
+      <c r="K393" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L393" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A394" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C394" s="12">
+        <v>2</v>
+      </c>
+      <c r="D394" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E394" s="8">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="F394" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G394" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H394" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I394" s="7" t="str">
+        <f t="shared" si="116"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J394" s="7">
+        <v>1</v>
+      </c>
+      <c r="K394" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L394" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A395" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C395" s="12">
+        <v>2</v>
+      </c>
+      <c r="D395" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E395" s="8">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F395" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G395" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H395" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I395" s="7" t="str">
+        <f t="shared" ref="I395" si="117">G395&amp;""&amp;H395</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J395" s="7">
+        <v>1</v>
+      </c>
+      <c r="K395" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L395" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A396" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C396" s="12">
+        <v>2</v>
+      </c>
+      <c r="D396" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E396" s="8">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="F396" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G396" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H396" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I396" s="7" t="str">
+        <f t="shared" ref="I396" si="118">G396&amp;""&amp;H396</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J396" s="7">
+        <v>1</v>
+      </c>
+      <c r="K396" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L396" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A397" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C397" s="12">
+        <v>2</v>
+      </c>
+      <c r="D397" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E397" s="8">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="F397" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G397" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H397" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I397" s="7" t="str">
+        <f t="shared" ref="I397" si="119">G397&amp;""&amp;H397</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J397" s="7">
+        <v>1</v>
+      </c>
+      <c r="K397" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L397" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A398" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C398" s="12">
+        <v>2</v>
+      </c>
+      <c r="D398" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E398" s="8">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="F398" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G398" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H398" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I398" s="7" t="str">
+        <f t="shared" ref="I398" si="120">G398&amp;""&amp;H398</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J398" s="7">
+        <v>1</v>
+      </c>
+      <c r="K398" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L398" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A399" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C399" s="12">
+        <v>2</v>
+      </c>
+      <c r="D399" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E399" s="8">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="F399" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G399" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H399" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I399" s="7" t="str">
+        <f t="shared" ref="I399" si="121">G399&amp;""&amp;H399</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J399" s="7">
+        <v>1</v>
+      </c>
+      <c r="K399" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L399" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A400" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C400" s="12">
+        <v>2</v>
+      </c>
+      <c r="D400" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E400" s="8">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F400" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G400" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H400" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I400" s="7" t="str">
+        <f t="shared" ref="I400" si="122">G400&amp;""&amp;H400</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J400" s="7">
+        <v>1</v>
+      </c>
+      <c r="K400" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L400" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A401" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C401" s="12">
+        <v>2</v>
+      </c>
+      <c r="D401" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E401" s="8">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="F401" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G401" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H401" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I401" s="7" t="str">
+        <f t="shared" ref="I401" si="123">G401&amp;""&amp;H401</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J401" s="7">
+        <v>1</v>
+      </c>
+      <c r="K401" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L401" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A402" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B402" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C402" s="12">
+        <v>2</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E402" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F402" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G402" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H402" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I402" s="7" t="str">
+        <f t="shared" ref="I402" si="124">G402&amp;""&amp;H402</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J402" s="7">
+        <v>1</v>
+      </c>
+      <c r="K402" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L402" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A403" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B403" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C403" s="12">
+        <v>1</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E403" s="8">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G403" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H403" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I403" s="7" t="str">
+        <f t="shared" ref="I403" si="125">G403&amp;""&amp;H403</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J403" s="7">
+        <v>1</v>
+      </c>
+      <c r="K403" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L403" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A404" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C404" s="12">
+        <v>1</v>
+      </c>
+      <c r="D404" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E404" s="8">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="F404" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G404" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H404" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I404" s="7" t="str">
+        <f t="shared" ref="I404" si="126">G404&amp;""&amp;H404</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J404" s="7">
+        <v>1</v>
+      </c>
+      <c r="K404" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L404" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A405" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B405" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C405" s="12">
+        <v>1</v>
+      </c>
+      <c r="D405" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E405" s="8">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="F405" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G405" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H405" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I405" s="7" t="str">
+        <f t="shared" ref="I405" si="127">G405&amp;""&amp;H405</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J405" s="7">
+        <v>1</v>
+      </c>
+      <c r="K405" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L405" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A406" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B406" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C406" s="12">
+        <v>1</v>
+      </c>
+      <c r="D406" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E406" s="8">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="F406" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G406" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H406" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I406" s="7" t="str">
+        <f t="shared" ref="I406" si="128">G406&amp;""&amp;H406</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J406" s="7">
+        <v>1</v>
+      </c>
+      <c r="K406" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L406" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A407" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C407" s="12">
+        <v>1</v>
+      </c>
+      <c r="D407" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E407" s="8">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="F407" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G407" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H407" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I407" s="7" t="str">
+        <f t="shared" ref="I407:I408" si="129">G407&amp;""&amp;H407</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J407" s="7">
+        <v>1</v>
+      </c>
+      <c r="K407" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L407" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A408" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C408" s="12">
+        <v>1</v>
+      </c>
+      <c r="D408" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E408" s="8">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="F408" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G408" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H408" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I408" s="7" t="str">
+        <f t="shared" si="129"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J408" s="7">
+        <v>1</v>
+      </c>
+      <c r="K408" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L408" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A409" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C409" s="12">
+        <v>1</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E409" s="8">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G409" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H409" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I409" s="7" t="str">
+        <f t="shared" ref="I409" si="130">G409&amp;""&amp;H409</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J409" s="7">
+        <v>1</v>
+      </c>
+      <c r="K409" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L409" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A410" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C410" s="12">
+        <v>1</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E410" s="8">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="F410" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G410" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H410" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I410" s="7" t="str">
+        <f t="shared" ref="I410" si="131">G410&amp;""&amp;H410</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J410" s="7">
+        <v>1</v>
+      </c>
+      <c r="K410" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L410" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A411" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C411" s="12">
+        <v>1</v>
+      </c>
+      <c r="D411" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E411" s="8">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G411" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H411" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I411" s="7" t="str">
+        <f t="shared" ref="I411:I412" si="132">G411&amp;""&amp;H411</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J411" s="7">
+        <v>1</v>
+      </c>
+      <c r="K411" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L411" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A412" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C412" s="12">
+        <v>1</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E412" s="8">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="F412" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G412" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H412" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I412" s="7" t="str">
+        <f t="shared" si="132"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J412" s="7">
+        <v>1</v>
+      </c>
+      <c r="K412" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L412" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A413" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B413" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C413" s="12">
+        <v>1</v>
+      </c>
+      <c r="D413" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E413" s="8">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="F413" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G413" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H413" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I413" s="7" t="str">
+        <f t="shared" ref="I413" si="133">G413&amp;""&amp;H413</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J413" s="7">
+        <v>1</v>
+      </c>
+      <c r="K413" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L413" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A414" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C414" s="12">
+        <v>1</v>
+      </c>
+      <c r="D414" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E414" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F414" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G414" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H414" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I414" s="7" t="str">
+        <f t="shared" ref="I414:I415" si="134">G414&amp;""&amp;H414</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J414" s="7">
+        <v>1</v>
+      </c>
+      <c r="K414" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L414" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A415" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B415" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C415" s="12">
+        <v>2</v>
+      </c>
+      <c r="D415" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E415" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F415" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G415" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H415" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I415" s="7" t="str">
+        <f t="shared" si="134"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J415" s="7">
+        <v>1</v>
+      </c>
+      <c r="K415" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L415" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A416" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C416" s="12">
+        <v>2</v>
+      </c>
+      <c r="D416" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E416" s="8">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="F416" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G416" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H416" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I416" s="7" t="str">
+        <f t="shared" ref="I416" si="135">G416&amp;""&amp;H416</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J416" s="7">
+        <v>1</v>
+      </c>
+      <c r="K416" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L416" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A417" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B417" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C417" s="12">
+        <v>2</v>
+      </c>
+      <c r="D417" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E417" s="8">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="F417" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G417" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H417" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I417" s="7" t="str">
+        <f t="shared" ref="I417" si="136">G417&amp;""&amp;H417</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J417" s="7">
+        <v>1</v>
+      </c>
+      <c r="K417" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L417" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A418" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B418" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C418" s="12">
+        <v>2</v>
+      </c>
+      <c r="D418" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E418" s="8">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="F418" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G418" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H418" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I418" s="7" t="str">
+        <f t="shared" ref="I418" si="137">G418&amp;""&amp;H418</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J418" s="7">
+        <v>1</v>
+      </c>
+      <c r="K418" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L418" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="673" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AEE13B-1F98-4BF3-9D26-E12CA0C4ACCD}"/>
+  <xr:revisionPtr revIDLastSave="809" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20631C5E-BBEA-49E8-8DF9-CC2E6542CA86}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1220" windowWidth="12660" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="256">
   <si>
     <t>date</t>
   </si>
@@ -781,6 +781,27 @@
   </si>
   <si>
     <t>GH027311</t>
+  </si>
+  <si>
+    <t>GH037311</t>
+  </si>
+  <si>
+    <t>GH057311</t>
+  </si>
+  <si>
+    <t>GOPR0287</t>
+  </si>
+  <si>
+    <t>GP030287</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>GP040287</t>
+  </si>
+  <si>
+    <t>GP050287</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y418"/>
+  <dimension ref="A1:Y451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G392" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="L421" sqref="L421"/>
+    <sheetView tabSelected="1" topLeftCell="G438" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="L455" sqref="L455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17685,6 +17706,1293 @@
       </c>
       <c r="L418" s="12" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A419" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B419" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C419" s="12">
+        <v>2</v>
+      </c>
+      <c r="D419" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E419" s="8">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="F419" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G419" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H419" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I419" s="7" t="str">
+        <f t="shared" ref="I419" si="138">G419&amp;""&amp;H419</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J419" s="7">
+        <v>1</v>
+      </c>
+      <c r="K419" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L419" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A420" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B420" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C420" s="12">
+        <v>2</v>
+      </c>
+      <c r="D420" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E420" s="8">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="F420" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H420" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I420" s="7" t="str">
+        <f t="shared" ref="I420" si="139">G420&amp;""&amp;H420</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J420" s="7">
+        <v>1</v>
+      </c>
+      <c r="K420" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L420" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A421" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B421" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C421" s="12">
+        <v>1</v>
+      </c>
+      <c r="D421" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E421" s="8">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="F421" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G421" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H421" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I421" s="7" t="str">
+        <f t="shared" ref="I421:I422" si="140">G421&amp;""&amp;H421</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J421" s="7">
+        <v>1</v>
+      </c>
+      <c r="K421" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L421" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A422" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B422" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C422" s="12">
+        <v>1</v>
+      </c>
+      <c r="D422" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E422" s="8">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="F422" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G422" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H422" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I422" s="7" t="str">
+        <f t="shared" si="140"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J422" s="7">
+        <v>1</v>
+      </c>
+      <c r="K422" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L422" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A423" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B423" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C423" s="12">
+        <v>1</v>
+      </c>
+      <c r="D423" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E423" s="8">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="F423" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G423" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H423" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I423" s="7" t="str">
+        <f t="shared" ref="I423:I425" si="141">G423&amp;""&amp;H423</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J423" s="7">
+        <v>1</v>
+      </c>
+      <c r="K423" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L423" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A424" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B424" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C424" s="12">
+        <v>2</v>
+      </c>
+      <c r="D424" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E424" s="8">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="F424" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G424" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H424" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I424" s="7" t="str">
+        <f t="shared" si="141"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J424" s="7">
+        <v>1</v>
+      </c>
+      <c r="K424" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L424" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A425" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B425" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C425" s="12">
+        <v>2</v>
+      </c>
+      <c r="D425" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E425" s="8">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F425" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G425" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H425" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I425" s="7" t="str">
+        <f t="shared" si="141"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J425" s="7">
+        <v>1</v>
+      </c>
+      <c r="K425" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L425" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A426" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C426" s="12">
+        <v>2</v>
+      </c>
+      <c r="D426" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E426" s="8">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="F426" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H426" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I426" s="7" t="str">
+        <f t="shared" ref="I426:I427" si="142">G426&amp;""&amp;H426</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J426" s="7">
+        <v>1</v>
+      </c>
+      <c r="K426" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L426" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A427" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B427" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C427" s="12">
+        <v>2</v>
+      </c>
+      <c r="D427" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E427" s="8">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="F427" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G427" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H427" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I427" s="7" t="str">
+        <f t="shared" si="142"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J427" s="7">
+        <v>1</v>
+      </c>
+      <c r="K427" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L427" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A428" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C428" s="12">
+        <v>2</v>
+      </c>
+      <c r="D428" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E428" s="8">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="F428" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G428" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H428" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I428" s="7" t="str">
+        <f t="shared" ref="I428" si="143">G428&amp;""&amp;H428</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J428" s="7">
+        <v>1</v>
+      </c>
+      <c r="K428" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L428" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A429" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B429" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C429" s="12">
+        <v>2</v>
+      </c>
+      <c r="D429" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E429" s="8">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="F429" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G429" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H429" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I429" s="7" t="str">
+        <f t="shared" ref="I429" si="144">G429&amp;""&amp;H429</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J429" s="7">
+        <v>1</v>
+      </c>
+      <c r="K429" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L429" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A430" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C430" s="12">
+        <v>2</v>
+      </c>
+      <c r="D430" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E430" s="8">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="F430" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G430" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H430" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I430" s="7" t="str">
+        <f t="shared" ref="I430" si="145">G430&amp;""&amp;H430</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J430" s="7">
+        <v>1</v>
+      </c>
+      <c r="K430" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L430" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A431" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B431" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C431" s="12">
+        <v>2</v>
+      </c>
+      <c r="D431" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E431" s="8">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="F431" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G431" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H431" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I431" s="7" t="str">
+        <f t="shared" ref="I431" si="146">G431&amp;""&amp;H431</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J431" s="7">
+        <v>1</v>
+      </c>
+      <c r="K431" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L431" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A432" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C432" s="12">
+        <v>2</v>
+      </c>
+      <c r="D432" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E432" s="8">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="F432" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H432" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I432" s="7" t="str">
+        <f t="shared" ref="I432" si="147">G432&amp;""&amp;H432</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J432" s="7">
+        <v>1</v>
+      </c>
+      <c r="K432" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L432" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A433" s="6">
+        <v>44359</v>
+      </c>
+      <c r="B433" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C433" s="12">
+        <v>2</v>
+      </c>
+      <c r="D433" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E433" s="8">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="F433" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G433" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H433" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I433" s="7" t="str">
+        <f t="shared" ref="I433:I434" si="148">G433&amp;""&amp;H433</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J433" s="7">
+        <v>1</v>
+      </c>
+      <c r="K433" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L433" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A434" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B434" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C434" s="12">
+        <v>1</v>
+      </c>
+      <c r="D434" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E434" s="8">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="F434" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G434" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H434" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I434" s="7" t="str">
+        <f t="shared" si="148"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J434" s="7">
+        <v>1</v>
+      </c>
+      <c r="K434" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L434" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A435" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B435" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C435" s="12">
+        <v>1</v>
+      </c>
+      <c r="D435" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E435" s="8">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="F435" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G435" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H435" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I435" s="7" t="str">
+        <f t="shared" ref="I435:I436" si="149">G435&amp;""&amp;H435</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J435" s="7">
+        <v>1</v>
+      </c>
+      <c r="K435" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L435" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A436" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B436" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C436" s="12">
+        <v>1</v>
+      </c>
+      <c r="D436" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E436" s="8">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="F436" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G436" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H436" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I436" s="7" t="str">
+        <f t="shared" si="149"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J436" s="7">
+        <v>1</v>
+      </c>
+      <c r="K436" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L436" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A437" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B437" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C437" s="12">
+        <v>1</v>
+      </c>
+      <c r="D437" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E437" s="8">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F437" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G437" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H437" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I437" s="7" t="str">
+        <f t="shared" ref="I437" si="150">G437&amp;""&amp;H437</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J437" s="7">
+        <v>1</v>
+      </c>
+      <c r="K437" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L437" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A438" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B438" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C438" s="12">
+        <v>1</v>
+      </c>
+      <c r="D438" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E438" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F438" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G438" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H438" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I438" s="7" t="str">
+        <f t="shared" ref="I438:I439" si="151">G438&amp;""&amp;H438</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J438" s="7">
+        <v>1</v>
+      </c>
+      <c r="K438" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L438" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A439" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B439" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C439" s="12">
+        <v>1</v>
+      </c>
+      <c r="D439" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E439" s="8">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="F439" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G439" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H439" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I439" s="7" t="str">
+        <f t="shared" ref="I439:I440" si="152">G439&amp;""&amp;H439</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J439" s="7">
+        <v>1</v>
+      </c>
+      <c r="K439" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L439" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A440" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B440" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C440" s="12">
+        <v>1</v>
+      </c>
+      <c r="D440" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E440" s="8">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="F440" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G440" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H440" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I440" s="7" t="str">
+        <f t="shared" si="152"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J440" s="7">
+        <v>1</v>
+      </c>
+      <c r="K440" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L440" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A441" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B441" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C441" s="12">
+        <v>1</v>
+      </c>
+      <c r="D441" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E441" s="8">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="F441" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G441" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H441" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I441" s="7" t="str">
+        <f t="shared" ref="I441" si="153">G441&amp;""&amp;H441</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J441" s="7">
+        <v>1</v>
+      </c>
+      <c r="K441" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L441" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A442" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C442" s="12">
+        <v>1</v>
+      </c>
+      <c r="D442" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E442" s="8">
+        <v>0.28125</v>
+      </c>
+      <c r="F442" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G442" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H442" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I442" s="7" t="str">
+        <f t="shared" ref="I442:I443" si="154">G442&amp;""&amp;H442</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J442" s="7">
+        <v>1</v>
+      </c>
+      <c r="K442" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L442" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A443" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C443" s="12">
+        <v>1</v>
+      </c>
+      <c r="D443" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E443" s="8">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="F443" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G443" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H443" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I443" s="7" t="str">
+        <f t="shared" si="154"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J443" s="7">
+        <v>1</v>
+      </c>
+      <c r="K443" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L443" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A444" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C444" s="12">
+        <v>1</v>
+      </c>
+      <c r="D444" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E444" s="8">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="F444" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G444" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H444" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I444" s="7" t="str">
+        <f t="shared" ref="I444:I445" si="155">G444&amp;""&amp;H444</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J444" s="7">
+        <v>1</v>
+      </c>
+      <c r="K444" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L444" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A445" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B445" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C445" s="12">
+        <v>1</v>
+      </c>
+      <c r="D445" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E445" s="8">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="F445" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G445" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H445" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I445" s="7" t="str">
+        <f t="shared" si="155"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J445" s="7">
+        <v>1</v>
+      </c>
+      <c r="K445" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L445" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A446" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B446" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C446" s="12">
+        <v>1</v>
+      </c>
+      <c r="D446" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E446" s="8">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="F446" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G446" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H446" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I446" s="7" t="str">
+        <f t="shared" ref="I446:I447" si="156">G446&amp;""&amp;H446</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J446" s="7">
+        <v>1</v>
+      </c>
+      <c r="K446" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L446" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A447" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B447" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C447" s="12">
+        <v>1</v>
+      </c>
+      <c r="D447" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E447" s="8">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F447" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G447" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H447" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I447" s="7" t="str">
+        <f t="shared" si="156"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J447" s="7">
+        <v>1</v>
+      </c>
+      <c r="K447" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L447" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A448" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B448" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C448" s="12">
+        <v>1</v>
+      </c>
+      <c r="D448" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E448" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F448" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G448" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H448" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I448" s="7" t="str">
+        <f t="shared" ref="I448" si="157">G448&amp;""&amp;H448</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J448" s="7">
+        <v>1</v>
+      </c>
+      <c r="K448" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L448" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A449" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B449" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C449" s="12">
+        <v>1</v>
+      </c>
+      <c r="D449" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E449" s="8">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="F449" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G449" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H449" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I449" s="7" t="str">
+        <f t="shared" ref="I449" si="158">G449&amp;""&amp;H449</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J449" s="7">
+        <v>1</v>
+      </c>
+      <c r="K449" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L449" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A450" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B450" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C450" s="12">
+        <v>1</v>
+      </c>
+      <c r="D450" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E450" s="8">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="F450" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G450" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H450" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I450" s="7" t="str">
+        <f t="shared" ref="I450:I451" si="159">G450&amp;""&amp;H450</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J450" s="7">
+        <v>1</v>
+      </c>
+      <c r="K450" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L450" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A451" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B451" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C451" s="12">
+        <v>1</v>
+      </c>
+      <c r="D451" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E451" s="8">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="F451" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G451" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H451" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I451" s="7" t="str">
+        <f t="shared" si="159"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J451" s="7">
+        <v>1</v>
+      </c>
+      <c r="K451" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L451" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="809" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20631C5E-BBEA-49E8-8DF9-CC2E6542CA86}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4804DB10-BC72-4B33-B3C5-7CD3FB4FBF26}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="272">
   <si>
     <t>date</t>
   </si>
@@ -802,6 +802,54 @@
   </si>
   <si>
     <t>GP050287</t>
+  </si>
+  <si>
+    <t>GOPR0238</t>
+  </si>
+  <si>
+    <t>GP010238</t>
+  </si>
+  <si>
+    <t>1, 4, 5</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>GP020238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>GP030238</t>
+  </si>
+  <si>
+    <t>GP060238</t>
+  </si>
+  <si>
+    <t>GH022199</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>GH032199</t>
+  </si>
+  <si>
+    <t>GH042199</t>
+  </si>
+  <si>
+    <t>*footage goes out from 9:50-10:10 in GH052199</t>
+  </si>
+  <si>
+    <t>GH062199</t>
+  </si>
+  <si>
+    <t>GH072199</t>
+  </si>
+  <si>
+    <t>GH023573</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y451"/>
+  <dimension ref="A1:Y494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G438" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="L455" sqref="L455"/>
+    <sheetView tabSelected="1" topLeftCell="A479" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E493" sqref="E493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18475,7 +18523,7 @@
         <v>189</v>
       </c>
       <c r="I438" s="7" t="str">
-        <f t="shared" ref="I438:I439" si="151">G438&amp;""&amp;H438</f>
+        <f t="shared" ref="I438" si="151">G438&amp;""&amp;H438</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J438" s="7">
@@ -18943,7 +18991,7 @@
         <v>189</v>
       </c>
       <c r="I450" s="7" t="str">
-        <f t="shared" ref="I450:I451" si="159">G450&amp;""&amp;H450</f>
+        <f t="shared" ref="I450:I452" si="159">G450&amp;""&amp;H450</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J450" s="7">
@@ -18993,6 +19041,1685 @@
       </c>
       <c r="L451" s="7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A452" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C452" s="12">
+        <v>2</v>
+      </c>
+      <c r="D452" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E452" s="8">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="F452" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G452" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H452" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I452" s="7" t="str">
+        <f t="shared" si="159"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J452" s="7">
+        <v>1</v>
+      </c>
+      <c r="K452" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L452" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A453" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C453" s="12">
+        <v>2</v>
+      </c>
+      <c r="D453" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E453" s="8">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="F453" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G453" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H453" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I453" s="7" t="str">
+        <f t="shared" ref="I453" si="160">G453&amp;""&amp;H453</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J453" s="7">
+        <v>1</v>
+      </c>
+      <c r="K453" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L453" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A454" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C454" s="12">
+        <v>2</v>
+      </c>
+      <c r="D454" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E454" s="8">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="F454" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G454" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H454" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I454" s="7" t="str">
+        <f>G454&amp;""&amp;H454</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J454" s="7">
+        <v>1</v>
+      </c>
+      <c r="K454" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L454" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A455" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B455" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C455" s="12">
+        <v>2</v>
+      </c>
+      <c r="D455" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E455" s="8">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="F455" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G455" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H455" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I455" s="7" t="str">
+        <f>G455&amp;""&amp;H455</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J455" s="7">
+        <v>1</v>
+      </c>
+      <c r="K455" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L455" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A456" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C456" s="12">
+        <v>2</v>
+      </c>
+      <c r="D456" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E456" s="8">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="F456" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G456" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H456" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I456" s="7" t="str">
+        <f>G456&amp;""&amp;H456</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J456" s="7">
+        <v>1</v>
+      </c>
+      <c r="K456" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L456" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A457" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B457" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C457" s="12">
+        <v>2</v>
+      </c>
+      <c r="D457" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E457" s="8">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F457" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G457" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H457" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I457" s="7" t="str">
+        <f>G457&amp;""&amp;H457</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J457" s="7">
+        <v>1</v>
+      </c>
+      <c r="K457" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L457" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A458" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B458" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C458" s="12">
+        <v>2</v>
+      </c>
+      <c r="D458" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E458" s="8">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F458" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G458" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H458" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I458" s="7" t="str">
+        <f>G458&amp;""&amp;H458</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J458" s="7">
+        <v>1</v>
+      </c>
+      <c r="K458" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L458" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A459" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B459" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C459" s="12">
+        <v>2</v>
+      </c>
+      <c r="D459" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E459" s="8">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="F459" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G459" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H459" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I459" s="7" t="str">
+        <f>G459&amp;""&amp;H459</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J459" s="7">
+        <v>1</v>
+      </c>
+      <c r="K459" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L459" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A460" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B460" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C460" s="12">
+        <v>2</v>
+      </c>
+      <c r="D460" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E460" s="8">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="F460" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G460" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H460" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I460" s="7" t="str">
+        <f>G460&amp;""&amp;H460</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J460" s="7">
+        <v>1</v>
+      </c>
+      <c r="K460" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L460" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A461" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B461" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C461" s="12">
+        <v>2</v>
+      </c>
+      <c r="D461" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E461" s="8">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="F461" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G461" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H461" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I461" s="7" t="str">
+        <f>G461&amp;""&amp;H461</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J461" s="7">
+        <v>1</v>
+      </c>
+      <c r="K461" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L461" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A462" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B462" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C462" s="12">
+        <v>2</v>
+      </c>
+      <c r="D462" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E462" s="8">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="F462" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G462" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H462" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I462" s="7" t="str">
+        <f>G462&amp;""&amp;H462</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J462" s="7">
+        <v>1</v>
+      </c>
+      <c r="K462" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L462" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A463" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B463" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C463" s="12">
+        <v>2</v>
+      </c>
+      <c r="D463" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E463" s="8">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="F463" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G463" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H463" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I463" s="7" t="str">
+        <f>G463&amp;""&amp;H463</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J463" s="7">
+        <v>1</v>
+      </c>
+      <c r="K463" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L463" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A464" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B464" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C464" s="12">
+        <v>2</v>
+      </c>
+      <c r="D464" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E464" s="8">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="F464" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G464" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H464" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I464" s="7" t="str">
+        <f>G464&amp;""&amp;H464</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J464" s="7">
+        <v>1</v>
+      </c>
+      <c r="K464" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L464" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A465" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B465" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C465" s="12">
+        <v>2</v>
+      </c>
+      <c r="D465" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E465" s="8">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="F465" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G465" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H465" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I465" s="7" t="str">
+        <f>G465&amp;""&amp;H465</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J465" s="7">
+        <v>1</v>
+      </c>
+      <c r="K465" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L465" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A466" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B466" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C466" s="12">
+        <v>2</v>
+      </c>
+      <c r="D466" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E466" s="8">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="F466" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G466" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H466" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I466" s="7" t="str">
+        <f>G466&amp;""&amp;H466</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J466" s="7">
+        <v>1</v>
+      </c>
+      <c r="K466" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L466" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A467" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B467" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C467" s="12">
+        <v>2</v>
+      </c>
+      <c r="D467" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E467" s="8">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F467" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G467" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H467" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I467" s="7" t="str">
+        <f>G467&amp;""&amp;H467</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J467" s="7">
+        <v>1</v>
+      </c>
+      <c r="K467" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L467" s="12">
+        <v>2</v>
+      </c>
+      <c r="M467" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A468" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B468" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C468" s="12">
+        <v>2</v>
+      </c>
+      <c r="D468" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E468" s="8">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="F468" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G468" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H468" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I468" s="7" t="str">
+        <f>G468&amp;""&amp;H468</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J468" s="7">
+        <v>1</v>
+      </c>
+      <c r="K468" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L468" s="12">
+        <v>1</v>
+      </c>
+      <c r="M468" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A469" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C469" s="12">
+        <v>2</v>
+      </c>
+      <c r="D469" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E469" s="8">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F469" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G469" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H469" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I469" s="7" t="str">
+        <f>G469&amp;""&amp;H469</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J469" s="7">
+        <v>1</v>
+      </c>
+      <c r="K469" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L469" s="12">
+        <v>3</v>
+      </c>
+      <c r="M469" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A470" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B470" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C470" s="12">
+        <v>2</v>
+      </c>
+      <c r="D470" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E470" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F470" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G470" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H470" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I470" s="7" t="str">
+        <f>G470&amp;""&amp;H470</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J470" s="7">
+        <v>1</v>
+      </c>
+      <c r="K470" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L470" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="M470" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A471" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B471" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C471" s="12">
+        <v>2</v>
+      </c>
+      <c r="D471" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="E471" s="8">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="F471" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G471" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H471" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I471" s="7" t="str">
+        <f>G471&amp;""&amp;H471</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J471" s="7">
+        <v>1</v>
+      </c>
+      <c r="K471" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L471" s="12">
+        <v>5</v>
+      </c>
+      <c r="M471" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A472" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B472" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C472" s="12">
+        <v>2</v>
+      </c>
+      <c r="D472" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E472" s="8">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="F472" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G472" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H472" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I472" s="7" t="str">
+        <f>G472&amp;""&amp;H472</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J472" s="7">
+        <v>1</v>
+      </c>
+      <c r="K472" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L472" s="12">
+        <v>2</v>
+      </c>
+      <c r="M472" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A473" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B473" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C473" s="12">
+        <v>2</v>
+      </c>
+      <c r="D473" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E473" s="8">
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="F473" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G473" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H473" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I473" s="7" t="str">
+        <f>G473&amp;""&amp;H473</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J473" s="7">
+        <v>1</v>
+      </c>
+      <c r="K473" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L473" s="12">
+        <v>4</v>
+      </c>
+      <c r="M473" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A474" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B474" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C474" s="12">
+        <v>2</v>
+      </c>
+      <c r="D474" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E474" s="8">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="F474" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G474" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H474" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I474" s="7" t="str">
+        <f>G474&amp;""&amp;H474</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J474" s="7">
+        <v>1</v>
+      </c>
+      <c r="K474" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L474" s="12">
+        <v>3</v>
+      </c>
+      <c r="M474" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A475" s="6">
+        <v>44223</v>
+      </c>
+      <c r="B475" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C475" s="12">
+        <v>2</v>
+      </c>
+      <c r="D475" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E475" s="8">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="F475" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G475" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H475" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I475" s="7" t="str">
+        <f t="shared" ref="I475:I476" si="161">G475&amp;""&amp;H475</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J475" s="7">
+        <v>1</v>
+      </c>
+      <c r="K475" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L475" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A476" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B476" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C476" s="12">
+        <v>1</v>
+      </c>
+      <c r="D476" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E476" s="8">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="F476" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G476" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H476" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I476" s="7" t="str">
+        <f t="shared" si="161"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J476" s="7">
+        <v>1</v>
+      </c>
+      <c r="K476" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L476" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A477" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B477" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C477" s="12">
+        <v>1</v>
+      </c>
+      <c r="D477" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E477" s="8">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="F477" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H477" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I477" s="7" t="str">
+        <f t="shared" ref="I477:I479" si="162">G477&amp;""&amp;H477</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J477" s="7">
+        <v>1</v>
+      </c>
+      <c r="K477" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L477" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A478" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C478" s="12">
+        <v>1</v>
+      </c>
+      <c r="D478" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E478" s="8">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="F478" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G478" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H478" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I478" s="7" t="str">
+        <f t="shared" si="162"/>
+        <v>Sparisoma viride</v>
+      </c>
+      <c r="J478" s="7">
+        <v>1</v>
+      </c>
+      <c r="K478" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L478" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A479" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B479" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C479" s="12">
+        <v>1</v>
+      </c>
+      <c r="D479" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E479" s="8">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="F479" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G479" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H479" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I479" s="7" t="str">
+        <f t="shared" si="162"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J479" s="7">
+        <v>1</v>
+      </c>
+      <c r="K479" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L479" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A480" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B480" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C480" s="12">
+        <v>1</v>
+      </c>
+      <c r="D480" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E480" s="8">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="F480" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G480" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H480" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I480" s="7" t="str">
+        <f t="shared" ref="I480" si="163">G480&amp;""&amp;H480</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J480" s="7">
+        <v>1</v>
+      </c>
+      <c r="K480" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L480" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A481" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B481" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C481" s="12">
+        <v>1</v>
+      </c>
+      <c r="D481" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E481" s="8">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="F481" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G481" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H481" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I481" s="7" t="str">
+        <f t="shared" ref="I481" si="164">G481&amp;""&amp;H481</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J481" s="7">
+        <v>1</v>
+      </c>
+      <c r="K481" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L481" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A482" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B482" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C482" s="12">
+        <v>1</v>
+      </c>
+      <c r="D482" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E482" s="8">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="F482" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G482" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H482" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I482" s="7" t="str">
+        <f t="shared" ref="I482" si="165">G482&amp;""&amp;H482</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J482" s="7">
+        <v>1</v>
+      </c>
+      <c r="K482" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L482" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A483" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B483" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C483" s="12">
+        <v>1</v>
+      </c>
+      <c r="D483" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E483" s="8">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="F483" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G483" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H483" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I483" s="7" t="str">
+        <f t="shared" ref="I483" si="166">G483&amp;""&amp;H483</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J483" s="7">
+        <v>1</v>
+      </c>
+      <c r="K483" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L483" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A484" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B484" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C484" s="12">
+        <v>1</v>
+      </c>
+      <c r="D484" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E484" s="8">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="F484" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G484" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H484" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I484" s="7" t="str">
+        <f t="shared" ref="I484" si="167">G484&amp;""&amp;H484</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J484" s="7">
+        <v>1</v>
+      </c>
+      <c r="K484" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L484" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A485" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B485" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C485" s="12">
+        <v>1</v>
+      </c>
+      <c r="D485" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E485" s="8">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="F485" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G485" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H485" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I485" s="7" t="str">
+        <f t="shared" ref="I485" si="168">G485&amp;""&amp;H485</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J485" s="7">
+        <v>1</v>
+      </c>
+      <c r="K485" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L485" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A486" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B486" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C486" s="12">
+        <v>1</v>
+      </c>
+      <c r="D486" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E486" s="8">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="F486" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G486" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H486" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I486" s="7" t="str">
+        <f t="shared" ref="I486" si="169">G486&amp;""&amp;H486</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J486" s="7">
+        <v>1</v>
+      </c>
+      <c r="K486" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L486" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A487" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B487" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C487" s="12">
+        <v>1</v>
+      </c>
+      <c r="D487" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E487" s="8">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F487" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G487" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H487" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I487" s="7" t="str">
+        <f t="shared" ref="I487" si="170">G487&amp;""&amp;H487</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J487" s="7">
+        <v>1</v>
+      </c>
+      <c r="K487" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L487" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A488" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B488" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C488" s="12">
+        <v>1</v>
+      </c>
+      <c r="D488" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E488" s="8">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F488" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G488" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H488" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I488" s="7" t="str">
+        <f t="shared" ref="I488" si="171">G488&amp;""&amp;H488</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J488" s="7">
+        <v>1</v>
+      </c>
+      <c r="K488" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L488" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A489" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B489" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C489" s="12">
+        <v>1</v>
+      </c>
+      <c r="D489" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E489" s="8">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F489" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H489" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I489" s="7" t="str">
+        <f t="shared" ref="I489" si="172">G489&amp;""&amp;H489</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J489" s="7">
+        <v>1</v>
+      </c>
+      <c r="K489" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L489" s="7">
+        <v>2</v>
+      </c>
+      <c r="M489" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A490" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B490" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C490" s="12">
+        <v>1</v>
+      </c>
+      <c r="D490" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E490" s="8">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="F490" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G490" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H490" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I490" s="7" t="str">
+        <f t="shared" ref="I490" si="173">G490&amp;""&amp;H490</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J490" s="7">
+        <v>1</v>
+      </c>
+      <c r="K490" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L490" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A491" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B491" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C491" s="12">
+        <v>1</v>
+      </c>
+      <c r="D491" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E491" s="8">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="F491" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G491" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H491" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I491" s="7" t="str">
+        <f t="shared" ref="I491" si="174">G491&amp;""&amp;H491</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J491" s="7">
+        <v>1</v>
+      </c>
+      <c r="K491" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L491" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A492" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B492" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C492" s="12">
+        <v>1</v>
+      </c>
+      <c r="D492" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E492" s="8">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="F492" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G492" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H492" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I492" s="7" t="str">
+        <f t="shared" ref="I492" si="175">G492&amp;""&amp;H492</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J492" s="7">
+        <v>1</v>
+      </c>
+      <c r="K492" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L492" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A493" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B493" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C493" s="12">
+        <v>1</v>
+      </c>
+      <c r="D493" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E493" s="8">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="F493" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G493" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H493" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I493" s="7" t="str">
+        <f t="shared" ref="I493" si="176">G493&amp;""&amp;H493</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J493" s="7">
+        <v>1</v>
+      </c>
+      <c r="K493" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L493" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A494" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B494" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C494" s="12">
+        <v>2</v>
+      </c>
+      <c r="D494" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="972" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4804DB10-BC72-4B33-B3C5-7CD3FB4FBF26}"/>
+  <xr:revisionPtr revIDLastSave="1142" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8742AF8-65B2-4C8F-B98D-061913B77212}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="283">
   <si>
     <t>date</t>
   </si>
@@ -850,6 +850,39 @@
   </si>
   <si>
     <t>GH023573</t>
+  </si>
+  <si>
+    <t>GH033573</t>
+  </si>
+  <si>
+    <t>GH053573</t>
+  </si>
+  <si>
+    <t>GH043573</t>
+  </si>
+  <si>
+    <t>GH020309</t>
+  </si>
+  <si>
+    <t>GH030309</t>
+  </si>
+  <si>
+    <t>GH040309</t>
+  </si>
+  <si>
+    <t>GH050309</t>
+  </si>
+  <si>
+    <t>GH080309</t>
+  </si>
+  <si>
+    <t>GOPR0285</t>
+  </si>
+  <si>
+    <t>*the way the gopro is set up makes it very difficult to see past blades 1&amp;2</t>
+  </si>
+  <si>
+    <t>3 or 4?</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y494"/>
+  <dimension ref="A1:Y539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E493" sqref="E493"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="F541" sqref="F541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19147,7 +19180,7 @@
         <v>184</v>
       </c>
       <c r="I454" s="7" t="str">
-        <f>G454&amp;""&amp;H454</f>
+        <f t="shared" ref="I454:I474" si="161">G454&amp;""&amp;H454</f>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J454" s="7">
@@ -19186,7 +19219,7 @@
         <v>184</v>
       </c>
       <c r="I455" s="7" t="str">
-        <f>G455&amp;""&amp;H455</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J455" s="7">
@@ -19225,7 +19258,7 @@
         <v>184</v>
       </c>
       <c r="I456" s="7" t="str">
-        <f>G456&amp;""&amp;H456</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J456" s="7">
@@ -19264,7 +19297,7 @@
         <v>184</v>
       </c>
       <c r="I457" s="7" t="str">
-        <f>G457&amp;""&amp;H457</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J457" s="7">
@@ -19303,7 +19336,7 @@
         <v>184</v>
       </c>
       <c r="I458" s="7" t="str">
-        <f>G458&amp;""&amp;H458</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J458" s="7">
@@ -19342,7 +19375,7 @@
         <v>184</v>
       </c>
       <c r="I459" s="7" t="str">
-        <f>G459&amp;""&amp;H459</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J459" s="7">
@@ -19381,7 +19414,7 @@
         <v>184</v>
       </c>
       <c r="I460" s="7" t="str">
-        <f>G460&amp;""&amp;H460</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J460" s="7">
@@ -19420,7 +19453,7 @@
         <v>184</v>
       </c>
       <c r="I461" s="7" t="str">
-        <f>G461&amp;""&amp;H461</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J461" s="7">
@@ -19459,7 +19492,7 @@
         <v>184</v>
       </c>
       <c r="I462" s="7" t="str">
-        <f>G462&amp;""&amp;H462</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J462" s="7">
@@ -19498,7 +19531,7 @@
         <v>184</v>
       </c>
       <c r="I463" s="7" t="str">
-        <f>G463&amp;""&amp;H463</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J463" s="7">
@@ -19537,7 +19570,7 @@
         <v>184</v>
       </c>
       <c r="I464" s="7" t="str">
-        <f>G464&amp;""&amp;H464</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J464" s="7">
@@ -19576,7 +19609,7 @@
         <v>184</v>
       </c>
       <c r="I465" s="7" t="str">
-        <f>G465&amp;""&amp;H465</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J465" s="7">
@@ -19615,7 +19648,7 @@
         <v>184</v>
       </c>
       <c r="I466" s="7" t="str">
-        <f>G466&amp;""&amp;H466</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J466" s="7">
@@ -19654,7 +19687,7 @@
         <v>184</v>
       </c>
       <c r="I467" s="7" t="str">
-        <f>G467&amp;""&amp;H467</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J467" s="7">
@@ -19696,7 +19729,7 @@
         <v>184</v>
       </c>
       <c r="I468" s="7" t="str">
-        <f>G468&amp;""&amp;H468</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J468" s="7">
@@ -19738,7 +19771,7 @@
         <v>184</v>
       </c>
       <c r="I469" s="7" t="str">
-        <f>G469&amp;""&amp;H469</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J469" s="7">
@@ -19780,7 +19813,7 @@
         <v>184</v>
       </c>
       <c r="I470" s="7" t="str">
-        <f>G470&amp;""&amp;H470</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J470" s="7">
@@ -19822,7 +19855,7 @@
         <v>184</v>
       </c>
       <c r="I471" s="7" t="str">
-        <f>G471&amp;""&amp;H471</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J471" s="7">
@@ -19864,7 +19897,7 @@
         <v>184</v>
       </c>
       <c r="I472" s="7" t="str">
-        <f>G472&amp;""&amp;H472</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J472" s="7">
@@ -19906,7 +19939,7 @@
         <v>184</v>
       </c>
       <c r="I473" s="7" t="str">
-        <f>G473&amp;""&amp;H473</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J473" s="7">
@@ -19948,7 +19981,7 @@
         <v>184</v>
       </c>
       <c r="I474" s="7" t="str">
-        <f>G474&amp;""&amp;H474</f>
+        <f t="shared" si="161"/>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J474" s="7">
@@ -19990,7 +20023,7 @@
         <v>187</v>
       </c>
       <c r="I475" s="7" t="str">
-        <f t="shared" ref="I475:I476" si="161">G475&amp;""&amp;H475</f>
+        <f t="shared" ref="I475:I476" si="162">G475&amp;""&amp;H475</f>
         <v>Stegastes partitus</v>
       </c>
       <c r="J475" s="7">
@@ -20029,7 +20062,7 @@
         <v>189</v>
       </c>
       <c r="I476" s="7" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J476" s="7">
@@ -20068,7 +20101,7 @@
         <v>189</v>
       </c>
       <c r="I477" s="7" t="str">
-        <f t="shared" ref="I477:I479" si="162">G477&amp;""&amp;H477</f>
+        <f t="shared" ref="I477:I479" si="163">G477&amp;""&amp;H477</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J477" s="7">
@@ -20107,7 +20140,7 @@
         <v>185</v>
       </c>
       <c r="I478" s="7" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Sparisoma viride</v>
       </c>
       <c r="J478" s="7">
@@ -20146,7 +20179,7 @@
         <v>189</v>
       </c>
       <c r="I479" s="7" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J479" s="7">
@@ -20185,7 +20218,7 @@
         <v>189</v>
       </c>
       <c r="I480" s="7" t="str">
-        <f t="shared" ref="I480" si="163">G480&amp;""&amp;H480</f>
+        <f t="shared" ref="I480" si="164">G480&amp;""&amp;H480</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J480" s="7">
@@ -20224,7 +20257,7 @@
         <v>189</v>
       </c>
       <c r="I481" s="7" t="str">
-        <f t="shared" ref="I481" si="164">G481&amp;""&amp;H481</f>
+        <f t="shared" ref="I481" si="165">G481&amp;""&amp;H481</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J481" s="7">
@@ -20263,7 +20296,7 @@
         <v>189</v>
       </c>
       <c r="I482" s="7" t="str">
-        <f t="shared" ref="I482" si="165">G482&amp;""&amp;H482</f>
+        <f t="shared" ref="I482" si="166">G482&amp;""&amp;H482</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J482" s="7">
@@ -20302,7 +20335,7 @@
         <v>189</v>
       </c>
       <c r="I483" s="7" t="str">
-        <f t="shared" ref="I483" si="166">G483&amp;""&amp;H483</f>
+        <f t="shared" ref="I483" si="167">G483&amp;""&amp;H483</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J483" s="7">
@@ -20341,7 +20374,7 @@
         <v>189</v>
       </c>
       <c r="I484" s="7" t="str">
-        <f t="shared" ref="I484" si="167">G484&amp;""&amp;H484</f>
+        <f t="shared" ref="I484" si="168">G484&amp;""&amp;H484</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J484" s="7">
@@ -20380,7 +20413,7 @@
         <v>189</v>
       </c>
       <c r="I485" s="7" t="str">
-        <f t="shared" ref="I485" si="168">G485&amp;""&amp;H485</f>
+        <f t="shared" ref="I485" si="169">G485&amp;""&amp;H485</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J485" s="7">
@@ -20419,7 +20452,7 @@
         <v>189</v>
       </c>
       <c r="I486" s="7" t="str">
-        <f t="shared" ref="I486" si="169">G486&amp;""&amp;H486</f>
+        <f t="shared" ref="I486" si="170">G486&amp;""&amp;H486</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J486" s="7">
@@ -20458,7 +20491,7 @@
         <v>189</v>
       </c>
       <c r="I487" s="7" t="str">
-        <f t="shared" ref="I487" si="170">G487&amp;""&amp;H487</f>
+        <f t="shared" ref="I487" si="171">G487&amp;""&amp;H487</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J487" s="7">
@@ -20497,7 +20530,7 @@
         <v>189</v>
       </c>
       <c r="I488" s="7" t="str">
-        <f t="shared" ref="I488" si="171">G488&amp;""&amp;H488</f>
+        <f t="shared" ref="I488" si="172">G488&amp;""&amp;H488</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J488" s="7">
@@ -20536,7 +20569,7 @@
         <v>189</v>
       </c>
       <c r="I489" s="7" t="str">
-        <f t="shared" ref="I489" si="172">G489&amp;""&amp;H489</f>
+        <f t="shared" ref="I489" si="173">G489&amp;""&amp;H489</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J489" s="7">
@@ -20578,7 +20611,7 @@
         <v>189</v>
       </c>
       <c r="I490" s="7" t="str">
-        <f t="shared" ref="I490" si="173">G490&amp;""&amp;H490</f>
+        <f t="shared" ref="I490" si="174">G490&amp;""&amp;H490</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J490" s="7">
@@ -20617,7 +20650,7 @@
         <v>189</v>
       </c>
       <c r="I491" s="7" t="str">
-        <f t="shared" ref="I491" si="174">G491&amp;""&amp;H491</f>
+        <f t="shared" ref="I491" si="175">G491&amp;""&amp;H491</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J491" s="7">
@@ -20656,7 +20689,7 @@
         <v>189</v>
       </c>
       <c r="I492" s="7" t="str">
-        <f t="shared" ref="I492" si="175">G492&amp;""&amp;H492</f>
+        <f t="shared" ref="I492" si="176">G492&amp;""&amp;H492</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J492" s="7">
@@ -20695,7 +20728,7 @@
         <v>189</v>
       </c>
       <c r="I493" s="7" t="str">
-        <f t="shared" ref="I493" si="176">G493&amp;""&amp;H493</f>
+        <f t="shared" ref="I493" si="177">G493&amp;""&amp;H493</f>
         <v>Sparisoma rubripinne</v>
       </c>
       <c r="J493" s="7">
@@ -20720,6 +20753,1758 @@
       </c>
       <c r="D494" s="12" t="s">
         <v>271</v>
+      </c>
+      <c r="E494" s="8">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="F494" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G494" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H494" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I494" s="7" t="str">
+        <f t="shared" ref="I494" si="178">G494&amp;""&amp;H494</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J494" s="7">
+        <v>1</v>
+      </c>
+      <c r="K494" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L494" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A495" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B495" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C495" s="12">
+        <v>2</v>
+      </c>
+      <c r="D495" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E495" s="8">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G495" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H495" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I495" s="7" t="str">
+        <f t="shared" ref="I495" si="179">G495&amp;""&amp;H495</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J495" s="7">
+        <v>1</v>
+      </c>
+      <c r="K495" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L495" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A496" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B496" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C496" s="12">
+        <v>2</v>
+      </c>
+      <c r="D496" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E496" s="8">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="F496" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H496" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I496" s="7" t="str">
+        <f t="shared" ref="I496" si="180">G496&amp;""&amp;H496</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J496" s="7">
+        <v>1</v>
+      </c>
+      <c r="K496" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L496" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A497" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B497" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C497" s="12">
+        <v>2</v>
+      </c>
+      <c r="D497" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E497" s="8">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F497" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H497" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I497" s="7" t="str">
+        <f t="shared" ref="I497" si="181">G497&amp;""&amp;H497</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J497" s="7">
+        <v>1</v>
+      </c>
+      <c r="K497" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L497" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A498" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B498" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C498" s="12">
+        <v>2</v>
+      </c>
+      <c r="D498" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E498" s="8">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F498" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H498" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I498" s="7" t="str">
+        <f t="shared" ref="I498" si="182">G498&amp;""&amp;H498</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J498" s="7">
+        <v>1</v>
+      </c>
+      <c r="K498" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L498" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A499" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B499" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C499" s="12">
+        <v>2</v>
+      </c>
+      <c r="D499" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E499" s="8">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F499" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H499" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I499" s="7" t="str">
+        <f t="shared" ref="I499" si="183">G499&amp;""&amp;H499</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J499" s="7">
+        <v>1</v>
+      </c>
+      <c r="K499" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L499" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A500" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B500" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C500" s="12">
+        <v>2</v>
+      </c>
+      <c r="D500" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E500" s="8">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="F500" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G500" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H500" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I500" s="7" t="str">
+        <f t="shared" ref="I500" si="184">G500&amp;""&amp;H500</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J500" s="7">
+        <v>1</v>
+      </c>
+      <c r="K500" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L500" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A501" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B501" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C501" s="12">
+        <v>2</v>
+      </c>
+      <c r="D501" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E501" s="8">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="F501" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G501" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H501" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I501" s="7" t="str">
+        <f t="shared" ref="I501" si="185">G501&amp;""&amp;H501</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J501" s="7">
+        <v>1</v>
+      </c>
+      <c r="K501" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L501" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A502" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B502" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C502" s="12">
+        <v>2</v>
+      </c>
+      <c r="D502" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E502" s="8">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="F502" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G502" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H502" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I502" s="7" t="str">
+        <f t="shared" ref="I502" si="186">G502&amp;""&amp;H502</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J502" s="7">
+        <v>1</v>
+      </c>
+      <c r="K502" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L502" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A503" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B503" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C503" s="12">
+        <v>2</v>
+      </c>
+      <c r="D503" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E503" s="8">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F503" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G503" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H503" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I503" s="7" t="str">
+        <f t="shared" ref="I503" si="187">G503&amp;""&amp;H503</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J503" s="7">
+        <v>1</v>
+      </c>
+      <c r="K503" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L503" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A504" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B504" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C504" s="12">
+        <v>2</v>
+      </c>
+      <c r="D504" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E504" s="8">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F504" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G504" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H504" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I504" s="7" t="str">
+        <f t="shared" ref="I504" si="188">G504&amp;""&amp;H504</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J504" s="7">
+        <v>1</v>
+      </c>
+      <c r="K504" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L504" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A505" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B505" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C505" s="12">
+        <v>2</v>
+      </c>
+      <c r="D505" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E505" s="8">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="F505" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G505" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H505" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I505" s="7" t="str">
+        <f t="shared" ref="I505" si="189">G505&amp;""&amp;H505</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J505" s="7">
+        <v>1</v>
+      </c>
+      <c r="K505" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L505" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A506" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B506" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C506" s="12">
+        <v>2</v>
+      </c>
+      <c r="D506" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E506" s="8">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F506" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G506" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H506" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I506" s="7" t="str">
+        <f t="shared" ref="I506" si="190">G506&amp;""&amp;H506</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J506" s="7">
+        <v>1</v>
+      </c>
+      <c r="K506" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L506" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A507" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B507" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C507" s="12">
+        <v>2</v>
+      </c>
+      <c r="D507" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E507" s="8">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="F507" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G507" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H507" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I507" s="7" t="str">
+        <f t="shared" ref="I507" si="191">G507&amp;""&amp;H507</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J507" s="7">
+        <v>1</v>
+      </c>
+      <c r="K507" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L507" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A508" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B508" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C508" s="12">
+        <v>2</v>
+      </c>
+      <c r="D508" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E508" s="8">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="F508" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G508" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H508" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I508" s="7" t="str">
+        <f t="shared" ref="I508" si="192">G508&amp;""&amp;H508</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J508" s="7">
+        <v>1</v>
+      </c>
+      <c r="K508" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L508" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A509" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B509" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C509" s="12">
+        <v>2</v>
+      </c>
+      <c r="D509" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E509" s="8">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="F509" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G509" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H509" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I509" s="7" t="str">
+        <f t="shared" ref="I509" si="193">G509&amp;""&amp;H509</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J509" s="7">
+        <v>1</v>
+      </c>
+      <c r="K509" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L509" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A510" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B510" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C510" s="12">
+        <v>2</v>
+      </c>
+      <c r="D510" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E510" s="8">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="F510" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H510" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I510" s="7" t="str">
+        <f t="shared" ref="I510" si="194">G510&amp;""&amp;H510</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J510" s="7">
+        <v>1</v>
+      </c>
+      <c r="K510" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L510" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A511" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B511" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C511" s="12">
+        <v>2</v>
+      </c>
+      <c r="D511" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E511" s="8">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="F511" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G511" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H511" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I511" s="7" t="str">
+        <f t="shared" ref="I511" si="195">G511&amp;""&amp;H511</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J511" s="7">
+        <v>1</v>
+      </c>
+      <c r="K511" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L511" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A512" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B512" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C512" s="12">
+        <v>2</v>
+      </c>
+      <c r="D512" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E512" s="8">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="F512" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G512" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H512" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I512" s="7" t="str">
+        <f t="shared" ref="I512:I513" si="196">G512&amp;""&amp;H512</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J512" s="7">
+        <v>1</v>
+      </c>
+      <c r="K512" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L512" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A513" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B513" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C513" s="12">
+        <v>1</v>
+      </c>
+      <c r="D513" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E513" s="8">
+        <v>0.15625</v>
+      </c>
+      <c r="F513" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G513" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H513" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I513" s="7" t="str">
+        <f t="shared" si="196"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J513" s="7">
+        <v>1</v>
+      </c>
+      <c r="K513" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L513" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A514" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B514" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C514" s="12">
+        <v>1</v>
+      </c>
+      <c r="D514" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E514" s="8">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="F514" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G514" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H514" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I514" s="7" t="str">
+        <f t="shared" ref="I514" si="197">G514&amp;""&amp;H514</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J514" s="7">
+        <v>1</v>
+      </c>
+      <c r="K514" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L514" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A515" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B515" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C515" s="12">
+        <v>1</v>
+      </c>
+      <c r="D515" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E515" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F515" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G515" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H515" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I515" s="7" t="str">
+        <f t="shared" ref="I515" si="198">G515&amp;""&amp;H515</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J515" s="7">
+        <v>1</v>
+      </c>
+      <c r="K515" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L515" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A516" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B516" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C516" s="12">
+        <v>1</v>
+      </c>
+      <c r="D516" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E516" s="8">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="F516" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G516" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H516" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I516" s="7" t="str">
+        <f t="shared" ref="I516" si="199">G516&amp;""&amp;H516</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J516" s="7">
+        <v>1</v>
+      </c>
+      <c r="K516" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L516" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A517" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B517" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C517" s="12">
+        <v>1</v>
+      </c>
+      <c r="D517" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E517" s="8">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="F517" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G517" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H517" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I517" s="7" t="str">
+        <f t="shared" ref="I517:I518" si="200">G517&amp;""&amp;H517</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J517" s="7">
+        <v>1</v>
+      </c>
+      <c r="K517" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L517" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A518" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B518" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C518" s="12">
+        <v>1</v>
+      </c>
+      <c r="D518" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E518" s="8">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="F518" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G518" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H518" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I518" s="7" t="str">
+        <f t="shared" si="200"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J518" s="7">
+        <v>1</v>
+      </c>
+      <c r="K518" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L518" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A519" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B519" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C519" s="12">
+        <v>1</v>
+      </c>
+      <c r="D519" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E519" s="8">
+        <v>0.41111111111111115</v>
+      </c>
+      <c r="F519" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G519" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H519" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I519" s="7" t="str">
+        <f t="shared" ref="I519:I520" si="201">G519&amp;""&amp;H519</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J519" s="7">
+        <v>1</v>
+      </c>
+      <c r="K519" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L519" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A520" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B520" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C520" s="12">
+        <v>1</v>
+      </c>
+      <c r="D520" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E520" s="8">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="F520" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G520" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H520" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I520" s="7" t="str">
+        <f t="shared" si="201"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J520" s="7">
+        <v>1</v>
+      </c>
+      <c r="K520" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L520" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A521" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B521" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C521" s="12">
+        <v>1</v>
+      </c>
+      <c r="D521" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E521" s="8">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="F521" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G521" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H521" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I521" s="7" t="str">
+        <f t="shared" ref="I521" si="202">G521&amp;""&amp;H521</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J521" s="7">
+        <v>1</v>
+      </c>
+      <c r="K521" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L521" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A522" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B522" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C522" s="12">
+        <v>1</v>
+      </c>
+      <c r="D522" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E522" s="8">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="F522" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G522" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H522" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I522" s="7" t="str">
+        <f t="shared" ref="I522" si="203">G522&amp;""&amp;H522</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J522" s="7">
+        <v>1</v>
+      </c>
+      <c r="K522" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L522" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A523" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B523" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C523" s="12">
+        <v>1</v>
+      </c>
+      <c r="D523" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E523" s="8">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="F523" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G523" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H523" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I523" s="7" t="str">
+        <f t="shared" ref="I523" si="204">G523&amp;""&amp;H523</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J523" s="7">
+        <v>1</v>
+      </c>
+      <c r="K523" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L523" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A524" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B524" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C524" s="12">
+        <v>1</v>
+      </c>
+      <c r="D524" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E524" s="8">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F524" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G524" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H524" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I524" s="7" t="str">
+        <f t="shared" ref="I524" si="205">G524&amp;""&amp;H524</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J524" s="7">
+        <v>1</v>
+      </c>
+      <c r="K524" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L524" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A525" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B525" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C525" s="12">
+        <v>1</v>
+      </c>
+      <c r="D525" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E525" s="8">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="F525" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G525" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H525" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I525" s="7" t="str">
+        <f t="shared" ref="I525" si="206">G525&amp;""&amp;H525</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J525" s="7">
+        <v>1</v>
+      </c>
+      <c r="K525" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L525" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A526" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B526" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C526" s="12">
+        <v>1</v>
+      </c>
+      <c r="D526" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E526" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F526" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G526" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H526" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I526" s="7" t="str">
+        <f t="shared" ref="I526" si="207">G526&amp;""&amp;H526</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J526" s="7">
+        <v>1</v>
+      </c>
+      <c r="K526" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L526" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A527" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B527" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C527" s="12">
+        <v>1</v>
+      </c>
+      <c r="D527" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E527" s="8">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="F527" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G527" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H527" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I527" s="7" t="str">
+        <f t="shared" ref="I527" si="208">G527&amp;""&amp;H527</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J527" s="7">
+        <v>1</v>
+      </c>
+      <c r="K527" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L527" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A528" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B528" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C528" s="12">
+        <v>1</v>
+      </c>
+      <c r="D528" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E528" s="8">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="F528" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G528" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H528" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I528" s="7" t="str">
+        <f t="shared" ref="I528" si="209">G528&amp;""&amp;H528</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J528" s="7">
+        <v>1</v>
+      </c>
+      <c r="K528" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L528" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A529" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B529" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C529" s="12">
+        <v>1</v>
+      </c>
+      <c r="D529" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E529" s="8">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="F529" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H529" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I529" s="7" t="str">
+        <f t="shared" ref="I529" si="210">G529&amp;""&amp;H529</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J529" s="7">
+        <v>1</v>
+      </c>
+      <c r="K529" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L529" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A530" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B530" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C530" s="12">
+        <v>1</v>
+      </c>
+      <c r="D530" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E530" s="8">
+        <v>0.4368055555555555</v>
+      </c>
+      <c r="F530" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H530" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I530" s="7" t="str">
+        <f t="shared" ref="I530" si="211">G530&amp;""&amp;H530</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J530" s="7">
+        <v>1</v>
+      </c>
+      <c r="K530" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L530" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A531" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B531" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C531" s="12">
+        <v>1</v>
+      </c>
+      <c r="D531" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E531" s="8">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="F531" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H531" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I531" s="7" t="str">
+        <f t="shared" ref="I531" si="212">G531&amp;""&amp;H531</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J531" s="7">
+        <v>1</v>
+      </c>
+      <c r="K531" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L531" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A532" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B532" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C532" s="12">
+        <v>1</v>
+      </c>
+      <c r="D532" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E532" s="8">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F532" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H532" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I532" s="7" t="str">
+        <f t="shared" ref="I532" si="213">G532&amp;""&amp;H532</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J532" s="7">
+        <v>1</v>
+      </c>
+      <c r="K532" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L532" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A533" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B533" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C533" s="12">
+        <v>1</v>
+      </c>
+      <c r="D533" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E533" s="8">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="F533" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G533" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H533" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I533" s="7" t="str">
+        <f t="shared" ref="I533:I535" si="214">G533&amp;""&amp;H533</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J533" s="7">
+        <v>1</v>
+      </c>
+      <c r="K533" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L533" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A534" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B534" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C534" s="12">
+        <v>2</v>
+      </c>
+      <c r="D534" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E534" s="8">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="F534" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G534" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H534" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I534" s="7" t="str">
+        <f t="shared" si="214"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J534" s="7">
+        <v>1</v>
+      </c>
+      <c r="K534" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L534" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A535" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B535" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C535" s="12">
+        <v>2</v>
+      </c>
+      <c r="D535" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E535" s="8">
+        <v>0.16111111111111112</v>
+      </c>
+      <c r="F535" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G535" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H535" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I535" s="7" t="str">
+        <f t="shared" si="214"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J535" s="7">
+        <v>1</v>
+      </c>
+      <c r="K535" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L535" s="12">
+        <v>3</v>
+      </c>
+      <c r="M535" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A536" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B536" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C536" s="12">
+        <v>2</v>
+      </c>
+      <c r="D536" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E536" s="8">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="F536" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G536" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H536" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I536" s="7" t="str">
+        <f t="shared" ref="I536" si="215">G536&amp;""&amp;H536</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J536" s="7">
+        <v>1</v>
+      </c>
+      <c r="K536" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L536" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A537" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B537" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C537" s="12">
+        <v>2</v>
+      </c>
+      <c r="D537" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E537" s="8">
+        <v>0.19236111111111112</v>
+      </c>
+      <c r="F537" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G537" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H537" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I537" s="7" t="str">
+        <f t="shared" ref="I537" si="216">G537&amp;""&amp;H537</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J537" s="7">
+        <v>1</v>
+      </c>
+      <c r="K537" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L537" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A538" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B538" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C538" s="12">
+        <v>2</v>
+      </c>
+      <c r="D538" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E538" s="8">
+        <v>0.38680555555555557</v>
+      </c>
+      <c r="F538" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G538" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H538" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I538" s="7" t="str">
+        <f t="shared" ref="I538" si="217">G538&amp;""&amp;H538</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J538" s="7">
+        <v>1</v>
+      </c>
+      <c r="K538" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L538" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D539" s="7">
+        <v>1</v>
+      </c>
+      <c r="E539" s="8">
+        <v>0.19583333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1142" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8742AF8-65B2-4C8F-B98D-061913B77212}"/>
+  <xr:revisionPtr revIDLastSave="1254" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C82933-B0D3-490B-ADDD-473E3413354F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="297">
   <si>
     <t>date</t>
   </si>
@@ -883,6 +883,48 @@
   </si>
   <si>
     <t>3 or 4?</t>
+  </si>
+  <si>
+    <t>GP010285</t>
+  </si>
+  <si>
+    <t>4 or 5</t>
+  </si>
+  <si>
+    <t>*not sure if this fish actually ate seagrass, view is obscured</t>
+  </si>
+  <si>
+    <t>GP020285</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>2, 4</t>
+  </si>
+  <si>
+    <t>GP030285</t>
+  </si>
+  <si>
+    <t>fish is mostly obscured, however black marking on caudal fin gives it away as a redband</t>
+  </si>
+  <si>
+    <t>GP040285</t>
+  </si>
+  <si>
+    <t>GP050285</t>
+  </si>
+  <si>
+    <t>GP060285</t>
+  </si>
+  <si>
+    <t>GP070285</t>
+  </si>
+  <si>
+    <t>GOPR0211</t>
+  </si>
+  <si>
+    <t>GP010211</t>
   </si>
 </sst>
 </file>
@@ -918,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -943,6 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y539"/>
+  <dimension ref="A1:Y561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="F541" sqref="F541"/>
+    <sheetView tabSelected="1" topLeftCell="G547" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D561" sqref="D561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22375,8 +22418,8 @@
       <c r="K535" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L535" s="12">
-        <v>3</v>
+      <c r="L535" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="M535" s="9" t="s">
         <v>281</v>
@@ -22486,7 +22529,7 @@
         <v>184</v>
       </c>
       <c r="I538" s="7" t="str">
-        <f t="shared" ref="I538" si="217">G538&amp;""&amp;H538</f>
+        <f t="shared" ref="I538:I539" si="217">G538&amp;""&amp;H538</f>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J538" s="7">
@@ -22500,11 +22543,906 @@
       </c>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D539" s="7">
-        <v>1</v>
+      <c r="A539" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B539" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C539" s="12">
+        <v>2</v>
+      </c>
+      <c r="D539" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="E539" s="8">
-        <v>0.19583333333333333</v>
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="F539" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G539" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H539" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I539" s="7" t="str">
+        <f t="shared" si="217"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J539" s="7">
+        <v>1</v>
+      </c>
+      <c r="K539" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L539" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A540" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B540" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C540" s="12">
+        <v>2</v>
+      </c>
+      <c r="D540" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E540" s="8">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="F540" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G540" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H540" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I540" s="7" t="str">
+        <f t="shared" ref="I540" si="218">G540&amp;""&amp;H540</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J540" s="7">
+        <v>1</v>
+      </c>
+      <c r="K540" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L540" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A541" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B541" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C541" s="12">
+        <v>2</v>
+      </c>
+      <c r="D541" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E541" s="8">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="F541" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G541" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H541" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I541" s="7" t="str">
+        <f t="shared" ref="I541:I542" si="219">G541&amp;""&amp;H541</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J541" s="7">
+        <v>1</v>
+      </c>
+      <c r="K541" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L541" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A542" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B542" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C542" s="12">
+        <v>2</v>
+      </c>
+      <c r="D542" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E542" s="8">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="F542" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G542" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H542" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I542" s="7" t="str">
+        <f t="shared" si="219"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J542" s="7">
+        <v>1</v>
+      </c>
+      <c r="K542" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L542" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A543" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B543" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C543" s="12">
+        <v>2</v>
+      </c>
+      <c r="D543" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E543" s="8">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="F543" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G543" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H543" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I543" s="7" t="str">
+        <f t="shared" ref="I543:I544" si="220">G543&amp;""&amp;H543</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J543" s="7">
+        <v>1</v>
+      </c>
+      <c r="K543" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L543" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="M543" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A544" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B544" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C544" s="12">
+        <v>2</v>
+      </c>
+      <c r="D544" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E544" s="8">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F544" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G544" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H544" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I544" s="7" t="str">
+        <f t="shared" si="220"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J544" s="7">
+        <v>1</v>
+      </c>
+      <c r="K544" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L544" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A545" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B545" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C545" s="12">
+        <v>2</v>
+      </c>
+      <c r="D545" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E545" s="8">
+        <v>0.24583333333333335</v>
+      </c>
+      <c r="F545" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G545" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H545" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I545" s="7" t="str">
+        <f t="shared" ref="I545:I546" si="221">G545&amp;""&amp;H545</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J545" s="7">
+        <v>1</v>
+      </c>
+      <c r="K545" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L545" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A546" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B546" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C546" s="12">
+        <v>2</v>
+      </c>
+      <c r="D546" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E546" s="8">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="F546" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G546" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H546" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I546" s="7" t="str">
+        <f t="shared" si="221"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J546" s="7">
+        <v>1</v>
+      </c>
+      <c r="K546" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L546" s="12">
+        <v>4</v>
+      </c>
+      <c r="M546" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A547" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B547" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C547" s="12">
+        <v>2</v>
+      </c>
+      <c r="D547" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E547" s="8">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="F547" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G547" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H547" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I547" s="7" t="str">
+        <f t="shared" ref="I547" si="222">G547&amp;""&amp;H547</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J547" s="7">
+        <v>1</v>
+      </c>
+      <c r="K547" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L547" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A548" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B548" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C548" s="12">
+        <v>2</v>
+      </c>
+      <c r="D548" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E548" s="8">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="F548" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G548" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H548" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I548" s="7" t="str">
+        <f t="shared" ref="I548" si="223">G548&amp;""&amp;H548</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J548" s="7">
+        <v>1</v>
+      </c>
+      <c r="K548" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L548" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A549" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B549" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C549" s="12">
+        <v>2</v>
+      </c>
+      <c r="D549" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E549" s="8">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="F549" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G549" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H549" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I549" s="7" t="str">
+        <f t="shared" ref="I549:I550" si="224">G549&amp;""&amp;H549</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J549" s="7">
+        <v>1</v>
+      </c>
+      <c r="K549" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L549" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A550" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B550" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C550" s="12">
+        <v>2</v>
+      </c>
+      <c r="D550" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E550" s="8">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="F550" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G550" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H550" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I550" s="7" t="str">
+        <f t="shared" si="224"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J550" s="7">
+        <v>1</v>
+      </c>
+      <c r="K550" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L550" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A551" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B551" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C551" s="12">
+        <v>2</v>
+      </c>
+      <c r="D551" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E551" s="8">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="F551" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G551" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H551" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I551" s="7" t="str">
+        <f t="shared" ref="I551" si="225">G551&amp;""&amp;H551</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J551" s="7">
+        <v>1</v>
+      </c>
+      <c r="K551" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L551" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A552" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B552" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C552" s="12">
+        <v>2</v>
+      </c>
+      <c r="D552" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E552" s="8">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="F552" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G552" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H552" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I552" s="7" t="str">
+        <f t="shared" ref="I552" si="226">G552&amp;""&amp;H552</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J552" s="7">
+        <v>1</v>
+      </c>
+      <c r="K552" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L552" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A553" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B553" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C553" s="12">
+        <v>2</v>
+      </c>
+      <c r="D553" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E553" s="8">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="F553" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G553" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H553" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I553" s="7" t="str">
+        <f t="shared" ref="I553" si="227">G553&amp;""&amp;H553</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J553" s="7">
+        <v>1</v>
+      </c>
+      <c r="K553" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L553" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A554" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B554" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C554" s="12">
+        <v>2</v>
+      </c>
+      <c r="D554" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E554" s="8">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F554" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G554" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H554" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I554" s="7" t="str">
+        <f t="shared" ref="I554" si="228">G554&amp;""&amp;H554</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J554" s="7">
+        <v>1</v>
+      </c>
+      <c r="K554" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L554" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A555" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B555" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C555" s="12">
+        <v>2</v>
+      </c>
+      <c r="D555" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E555" s="8">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="F555" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G555" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H555" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I555" s="7" t="str">
+        <f t="shared" ref="I555" si="229">G555&amp;""&amp;H555</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J555" s="7">
+        <v>1</v>
+      </c>
+      <c r="K555" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L555" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A556" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B556" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C556" s="12">
+        <v>2</v>
+      </c>
+      <c r="D556" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E556" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="F556" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G556" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H556" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I556" s="7" t="str">
+        <f t="shared" ref="I556:I557" si="230">G556&amp;""&amp;H556</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J556" s="7">
+        <v>1</v>
+      </c>
+      <c r="K556" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L556" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A557" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B557" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C557" s="12">
+        <v>2</v>
+      </c>
+      <c r="D557" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E557" s="8">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="F557" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G557" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H557" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I557" s="7" t="str">
+        <f t="shared" si="230"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J557" s="7">
+        <v>1</v>
+      </c>
+      <c r="K557" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L557" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A558" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B558" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C558" s="12">
+        <v>2</v>
+      </c>
+      <c r="D558" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E558" s="8">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="F558" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G558" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H558" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I558" s="7" t="str">
+        <f t="shared" ref="I558:I559" si="231">G558&amp;""&amp;H558</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J558" s="7">
+        <v>1</v>
+      </c>
+      <c r="K558" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L558" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A559" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B559" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C559" s="12">
+        <v>2</v>
+      </c>
+      <c r="D559" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E559" s="8">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="F559" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G559" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H559" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I559" s="7" t="str">
+        <f t="shared" si="231"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J559" s="7">
+        <v>1</v>
+      </c>
+      <c r="K559" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L559" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A560" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B560" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C560" s="12">
+        <v>1</v>
+      </c>
+      <c r="D560" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E560" s="8">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F560" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G560" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H560" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I560" s="7" t="str">
+        <f t="shared" ref="I560" si="232">G560&amp;""&amp;H560</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J560" s="7">
+        <v>1</v>
+      </c>
+      <c r="K560" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L560" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A561" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B561" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C561" s="12">
+        <v>1</v>
+      </c>
+      <c r="D561" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E561" s="8">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F561" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G561" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H561" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I561" s="7" t="str">
+        <f t="shared" ref="I561" si="233">G561&amp;""&amp;H561</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J561" s="7">
+        <v>1</v>
+      </c>
+      <c r="K561" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L561" s="12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1254" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C82933-B0D3-490B-ADDD-473E3413354F}"/>
+  <xr:revisionPtr revIDLastSave="1267" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD5DFB3-B0F2-4DC4-85D1-1CF0F0D61165}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3587" uniqueCount="297">
   <si>
     <t>date</t>
   </si>
@@ -1324,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y561"/>
+  <dimension ref="A1:Y565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G547" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D561" sqref="D561"/>
+    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D570" sqref="D570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23420,7 +23420,7 @@
         <v>296</v>
       </c>
       <c r="E561" s="8">
-        <v>0.48541666666666666</v>
+        <v>4.9305555555555554E-2</v>
       </c>
       <c r="F561" s="7" t="s">
         <v>23</v>
@@ -23432,7 +23432,7 @@
         <v>184</v>
       </c>
       <c r="I561" s="7" t="str">
-        <f t="shared" ref="I561" si="233">G561&amp;""&amp;H561</f>
+        <f t="shared" ref="I561:I562" si="233">G561&amp;""&amp;H561</f>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J561" s="7">
@@ -23443,6 +23443,128 @@
       </c>
       <c r="L561" s="12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A562" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B562" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C562" s="12">
+        <v>1</v>
+      </c>
+      <c r="D562" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E562" s="8">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="F562" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G562" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H562" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I562" s="7" t="str">
+        <f t="shared" si="233"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J562" s="7">
+        <v>1</v>
+      </c>
+      <c r="K562" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L562" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A563" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B563" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C563" s="12">
+        <v>1</v>
+      </c>
+      <c r="D563" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E563" s="8">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="F563" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G563" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H563" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I563" s="7" t="str">
+        <f t="shared" ref="I563:I564" si="234">G563&amp;""&amp;H563</f>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J563" s="7">
+        <v>1</v>
+      </c>
+      <c r="K563" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L563" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A564" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B564" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C564" s="12">
+        <v>1</v>
+      </c>
+      <c r="D564" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E564" s="8">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F564" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G564" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H564" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I564" s="7" t="str">
+        <f t="shared" si="234"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J564" s="7">
+        <v>1</v>
+      </c>
+      <c r="K564" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L564" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D565" s="7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1267" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD5DFB3-B0F2-4DC4-85D1-1CF0F0D61165}"/>
+  <xr:revisionPtr revIDLastSave="1304" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DCB0DB6-7724-47EF-B3D9-FC8D079C274D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3587" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="302">
   <si>
     <t>date</t>
   </si>
@@ -925,6 +925,21 @@
   </si>
   <si>
     <t>GP010211</t>
+  </si>
+  <si>
+    <t>GP030211</t>
+  </si>
+  <si>
+    <t>GP040211</t>
+  </si>
+  <si>
+    <t>GP050211</t>
+  </si>
+  <si>
+    <t>GP060211</t>
+  </si>
+  <si>
+    <t>GP070211</t>
   </si>
 </sst>
 </file>
@@ -960,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -986,6 +1001,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y565"/>
+  <dimension ref="A1:Y571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A550" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D570" sqref="D570"/>
+      <selection activeCell="D571" sqref="D571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23563,7 +23579,250 @@
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D565" s="7">
+      <c r="A565" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B565" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C565" s="12">
+        <v>1</v>
+      </c>
+      <c r="D565" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E565" s="8">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="F565" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G565" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H565" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I565" s="7" t="str">
+        <f t="shared" ref="I565" si="235">G565&amp;""&amp;H565</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J565" s="7">
+        <v>1</v>
+      </c>
+      <c r="K565" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L565" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A566" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B566" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C566" s="12">
+        <v>1</v>
+      </c>
+      <c r="D566" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E566" s="8">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="F566" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G566" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H566" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I566" s="7" t="str">
+        <f t="shared" ref="I566" si="236">G566&amp;""&amp;H566</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J566" s="7">
+        <v>1</v>
+      </c>
+      <c r="K566" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L566" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A567" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B567" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C567" s="12">
+        <v>1</v>
+      </c>
+      <c r="D567" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E567" s="8">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="F567" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G567" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H567" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I567" s="7" t="str">
+        <f t="shared" ref="I567" si="237">G567&amp;""&amp;H567</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J567" s="7">
+        <v>1</v>
+      </c>
+      <c r="K567" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L567" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A568" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B568" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C568" s="12">
+        <v>1</v>
+      </c>
+      <c r="D568" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E568" s="15">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="F568" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G568" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H568" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I568" s="7" t="str">
+        <f t="shared" ref="I568" si="238">G568&amp;""&amp;H568</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J568" s="7">
+        <v>1</v>
+      </c>
+      <c r="K568" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L568" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A569" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B569" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C569" s="12">
+        <v>1</v>
+      </c>
+      <c r="D569" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E569" s="8">
+        <v>0.26458333333333334</v>
+      </c>
+      <c r="F569" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G569" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H569" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I569" s="7" t="str">
+        <f t="shared" ref="I569" si="239">G569&amp;""&amp;H569</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J569" s="7">
+        <v>1</v>
+      </c>
+      <c r="K569" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L569" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A570" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B570" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C570" s="12">
+        <v>1</v>
+      </c>
+      <c r="D570" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E570" s="8">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="F570" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G570" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H570" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I570" s="7" t="str">
+        <f t="shared" ref="I570" si="240">G570&amp;""&amp;H570</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J570" s="7">
+        <v>1</v>
+      </c>
+      <c r="K570" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L570" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A571" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B571" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C571" s="12">
+        <v>2</v>
+      </c>
+      <c r="D571" s="7">
         <v>3</v>
       </c>
     </row>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1304" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DCB0DB6-7724-47EF-B3D9-FC8D079C274D}"/>
+  <xr:revisionPtr revIDLastSave="1327" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE750A00-62A6-4F31-AB80-43BD281078B5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4090" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3625" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="304">
   <si>
     <t>date</t>
   </si>
@@ -940,6 +940,12 @@
   </si>
   <si>
     <t>GP070211</t>
+  </si>
+  <si>
+    <t>GH068311</t>
+  </si>
+  <si>
+    <t>GH088311</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y571"/>
+  <dimension ref="A1:Y576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D571" sqref="D571"/>
+    <sheetView tabSelected="1" topLeftCell="A560" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E578" sqref="E578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23822,8 +23828,197 @@
       <c r="C571" s="12">
         <v>2</v>
       </c>
-      <c r="D571" s="7">
+      <c r="D571" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E571" s="8">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="F571" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G571" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H571" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I571" s="7" t="str">
+        <f t="shared" ref="I571" si="241">G571&amp;""&amp;H571</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J571" s="7">
+        <v>1</v>
+      </c>
+      <c r="K571" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L571" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A572" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B572" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C572" s="12">
+        <v>2</v>
+      </c>
+      <c r="D572" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E572" s="8">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="F572" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G572" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H572" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I572" s="7" t="str">
+        <f t="shared" ref="I572" si="242">G572&amp;""&amp;H572</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J572" s="7">
+        <v>1</v>
+      </c>
+      <c r="K572" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L572" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A573" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B573" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C573" s="12">
+        <v>2</v>
+      </c>
+      <c r="D573" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E573" s="8">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="F573" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G573" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H573" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I573" s="7" t="str">
+        <f t="shared" ref="I573" si="243">G573&amp;""&amp;H573</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J573" s="7">
+        <v>1</v>
+      </c>
+      <c r="K573" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L573" s="12">
         <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A574" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B574" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C574" s="12">
+        <v>2</v>
+      </c>
+      <c r="D574" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E574" s="8">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="F574" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G574" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H574" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I574" s="7" t="str">
+        <f t="shared" ref="I574" si="244">G574&amp;""&amp;H574</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J574" s="7">
+        <v>1</v>
+      </c>
+      <c r="K574" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L574" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A575" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B575" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C575" s="12">
+        <v>2</v>
+      </c>
+      <c r="D575" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E575" s="8">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="F575" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G575" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H575" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I575" s="7" t="str">
+        <f t="shared" ref="I575" si="245">G575&amp;""&amp;H575</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J575" s="7">
+        <v>1</v>
+      </c>
+      <c r="K575" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L575" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D576" s="7">
+        <v>9</v>
+      </c>
+      <c r="E576" s="8">
+        <v>7.7777777777777779E-2</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1327" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE750A00-62A6-4F31-AB80-43BD281078B5}"/>
+  <xr:revisionPtr revIDLastSave="1526" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63831916-0143-4E5F-943C-1FCD910E44F6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4090" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="317">
   <si>
     <t>date</t>
   </si>
@@ -946,6 +946,45 @@
   </si>
   <si>
     <t>GH088311</t>
+  </si>
+  <si>
+    <t>GH017309</t>
+  </si>
+  <si>
+    <t>GH027309</t>
+  </si>
+  <si>
+    <t>GH037309</t>
+  </si>
+  <si>
+    <t>GH047309</t>
+  </si>
+  <si>
+    <t>GH067309</t>
+  </si>
+  <si>
+    <t>GH077309</t>
+  </si>
+  <si>
+    <t>GH018709</t>
+  </si>
+  <si>
+    <t>GH028709</t>
+  </si>
+  <si>
+    <t>1, 2, 4</t>
+  </si>
+  <si>
+    <t>GH048709</t>
+  </si>
+  <si>
+    <t>GH038709</t>
+  </si>
+  <si>
+    <t>GH058709</t>
+  </si>
+  <si>
+    <t>GH068709</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y576"/>
+  <dimension ref="A1:Y612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A560" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E578" sqref="E578"/>
+    <sheetView tabSelected="1" topLeftCell="A601" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E612" sqref="E612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24000,7 +24039,7 @@
         <v>184</v>
       </c>
       <c r="I575" s="7" t="str">
-        <f t="shared" ref="I575" si="245">G575&amp;""&amp;H575</f>
+        <f t="shared" ref="I575:I576" si="245">G575&amp;""&amp;H575</f>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J575" s="7">
@@ -24014,11 +24053,1415 @@
       </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D576" s="7">
-        <v>9</v>
+      <c r="A576" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B576" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C576" s="12">
+        <v>1</v>
+      </c>
+      <c r="D576" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="E576" s="8">
-        <v>7.7777777777777779E-2</v>
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="F576" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G576" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H576" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I576" s="7" t="str">
+        <f t="shared" si="245"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J576" s="7">
+        <v>1</v>
+      </c>
+      <c r="K576" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L576" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A577" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B577" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C577" s="12">
+        <v>1</v>
+      </c>
+      <c r="D577" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E577" s="8">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="F577" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G577" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H577" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I577" s="7" t="str">
+        <f t="shared" ref="I577:I578" si="246">G577&amp;""&amp;H577</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J577" s="7">
+        <v>1</v>
+      </c>
+      <c r="K577" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L577" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A578" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B578" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C578" s="12">
+        <v>1</v>
+      </c>
+      <c r="D578" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E578" s="8">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="F578" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G578" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H578" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I578" s="7" t="str">
+        <f t="shared" si="246"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J578" s="7">
+        <v>1</v>
+      </c>
+      <c r="K578" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L578" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A579" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B579" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C579" s="12">
+        <v>1</v>
+      </c>
+      <c r="D579" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E579" s="8">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="F579" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G579" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H579" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I579" s="7" t="str">
+        <f t="shared" ref="I579" si="247">G579&amp;""&amp;H579</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J579" s="7">
+        <v>1</v>
+      </c>
+      <c r="K579" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L579" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A580" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B580" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C580" s="12">
+        <v>1</v>
+      </c>
+      <c r="D580" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E580" s="8">
+        <v>0.16805555555555554</v>
+      </c>
+      <c r="F580" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G580" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H580" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I580" s="7" t="str">
+        <f t="shared" ref="I580" si="248">G580&amp;""&amp;H580</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J580" s="7">
+        <v>1</v>
+      </c>
+      <c r="K580" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L580" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A581" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B581" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C581" s="12">
+        <v>1</v>
+      </c>
+      <c r="D581" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E581" s="8">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="F581" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G581" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H581" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I581" s="7" t="str">
+        <f t="shared" ref="I581:I582" si="249">G581&amp;""&amp;H581</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J581" s="7">
+        <v>1</v>
+      </c>
+      <c r="K581" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L581" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A582" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B582" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C582" s="12">
+        <v>1</v>
+      </c>
+      <c r="D582" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E582" s="8">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="F582" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G582" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H582" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I582" s="7" t="str">
+        <f t="shared" si="249"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J582" s="7">
+        <v>1</v>
+      </c>
+      <c r="K582" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L582" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A583" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B583" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C583" s="12">
+        <v>1</v>
+      </c>
+      <c r="D583" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E583" s="8">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="F583" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G583" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H583" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I583" s="7" t="str">
+        <f t="shared" ref="I583" si="250">G583&amp;""&amp;H583</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J583" s="7">
+        <v>1</v>
+      </c>
+      <c r="K583" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L583" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A584" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B584" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C584" s="12">
+        <v>1</v>
+      </c>
+      <c r="D584" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E584" s="8">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="F584" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G584" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H584" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I584" s="7" t="str">
+        <f t="shared" ref="I584:I585" si="251">G584&amp;""&amp;H584</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J584" s="7">
+        <v>1</v>
+      </c>
+      <c r="K584" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L584" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A585" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B585" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C585" s="12">
+        <v>1</v>
+      </c>
+      <c r="D585" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E585" s="8">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F585" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G585" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H585" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I585" s="7" t="str">
+        <f t="shared" si="251"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J585" s="7">
+        <v>1</v>
+      </c>
+      <c r="K585" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L585" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A586" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B586" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C586" s="12">
+        <v>1</v>
+      </c>
+      <c r="D586" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E586" s="8">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="F586" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G586" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H586" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I586" s="7" t="str">
+        <f t="shared" ref="I586" si="252">G586&amp;""&amp;H586</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J586" s="7">
+        <v>1</v>
+      </c>
+      <c r="K586" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L586" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A587" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B587" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C587" s="12">
+        <v>1</v>
+      </c>
+      <c r="D587" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E587" s="8">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="F587" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G587" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H587" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I587" s="7" t="str">
+        <f t="shared" ref="I587" si="253">G587&amp;""&amp;H587</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J587" s="7">
+        <v>1</v>
+      </c>
+      <c r="K587" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L587" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A588" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B588" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C588" s="12">
+        <v>1</v>
+      </c>
+      <c r="D588" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E588" s="8">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="F588" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G588" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H588" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I588" s="7" t="str">
+        <f t="shared" ref="I588" si="254">G588&amp;""&amp;H588</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J588" s="7">
+        <v>1</v>
+      </c>
+      <c r="K588" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L588" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A589" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B589" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C589" s="12">
+        <v>1</v>
+      </c>
+      <c r="D589" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E589" s="8">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="F589" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G589" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H589" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I589" s="7" t="str">
+        <f t="shared" ref="I589" si="255">G589&amp;""&amp;H589</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J589" s="7">
+        <v>1</v>
+      </c>
+      <c r="K589" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L589" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A590" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B590" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C590" s="12">
+        <v>1</v>
+      </c>
+      <c r="D590" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E590" s="8">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="F590" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G590" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H590" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I590" s="7" t="str">
+        <f t="shared" ref="I590" si="256">G590&amp;""&amp;H590</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J590" s="7">
+        <v>1</v>
+      </c>
+      <c r="K590" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L590" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A591" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B591" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C591" s="12">
+        <v>1</v>
+      </c>
+      <c r="D591" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E591" s="8">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="F591" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G591" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H591" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I591" s="7" t="str">
+        <f t="shared" ref="I591" si="257">G591&amp;""&amp;H591</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J591" s="7">
+        <v>1</v>
+      </c>
+      <c r="K591" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L591" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A592" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B592" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C592" s="12">
+        <v>1</v>
+      </c>
+      <c r="D592" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E592" s="8">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="F592" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G592" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H592" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I592" s="7" t="str">
+        <f t="shared" ref="I592:I593" si="258">G592&amp;""&amp;H592</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J592" s="7">
+        <v>1</v>
+      </c>
+      <c r="K592" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L592" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A593" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B593" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C593" s="12">
+        <v>1</v>
+      </c>
+      <c r="D593" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E593" s="8">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="F593" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G593" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H593" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I593" s="7" t="str">
+        <f t="shared" si="258"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J593" s="7">
+        <v>1</v>
+      </c>
+      <c r="K593" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L593" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A594" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B594" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C594" s="12">
+        <v>1</v>
+      </c>
+      <c r="D594" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E594" s="8">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="F594" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G594" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H594" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I594" s="7" t="str">
+        <f t="shared" ref="I594" si="259">G594&amp;""&amp;H594</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J594" s="7">
+        <v>1</v>
+      </c>
+      <c r="K594" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L594" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A595" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B595" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C595" s="12">
+        <v>1</v>
+      </c>
+      <c r="D595" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E595" s="8">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="F595" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G595" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H595" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I595" s="7" t="str">
+        <f t="shared" ref="I595:I596" si="260">G595&amp;""&amp;H595</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J595" s="7">
+        <v>1</v>
+      </c>
+      <c r="K595" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L595" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A596" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B596" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C596" s="12">
+        <v>2</v>
+      </c>
+      <c r="D596" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E596" s="8">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F596" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G596" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H596" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I596" s="7" t="str">
+        <f t="shared" si="260"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J596" s="7">
+        <v>1</v>
+      </c>
+      <c r="K596" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L596" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A597" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B597" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C597" s="12">
+        <v>2</v>
+      </c>
+      <c r="D597" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E597" s="8">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="F597" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G597" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H597" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I597" s="7" t="str">
+        <f t="shared" ref="I597" si="261">G597&amp;""&amp;H597</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J597" s="7">
+        <v>1</v>
+      </c>
+      <c r="K597" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L597" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A598" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B598" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C598" s="12">
+        <v>2</v>
+      </c>
+      <c r="D598" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E598" s="8">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F598" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G598" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H598" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I598" s="7" t="str">
+        <f t="shared" ref="I598" si="262">G598&amp;""&amp;H598</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J598" s="7">
+        <v>1</v>
+      </c>
+      <c r="K598" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L598" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A599" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B599" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C599" s="12">
+        <v>2</v>
+      </c>
+      <c r="D599" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E599" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F599" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G599" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H599" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I599" s="7" t="str">
+        <f t="shared" ref="I599" si="263">G599&amp;""&amp;H599</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J599" s="7">
+        <v>1</v>
+      </c>
+      <c r="K599" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L599" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A600" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B600" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C600" s="12">
+        <v>2</v>
+      </c>
+      <c r="D600" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E600" s="8">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="F600" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G600" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H600" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I600" s="7" t="str">
+        <f t="shared" ref="I600" si="264">G600&amp;""&amp;H600</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J600" s="7">
+        <v>1</v>
+      </c>
+      <c r="K600" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L600" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A601" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B601" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C601" s="12">
+        <v>2</v>
+      </c>
+      <c r="D601" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E601" s="8">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F601" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G601" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H601" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I601" s="7" t="str">
+        <f t="shared" ref="I601" si="265">G601&amp;""&amp;H601</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J601" s="7">
+        <v>1</v>
+      </c>
+      <c r="K601" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L601" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A602" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B602" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C602" s="12">
+        <v>2</v>
+      </c>
+      <c r="D602" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E602" s="8">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="F602" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G602" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H602" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I602" s="7" t="str">
+        <f t="shared" ref="I602:I604" si="266">G602&amp;""&amp;H602</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J602" s="7">
+        <v>1</v>
+      </c>
+      <c r="K602" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L602" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A603" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B603" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C603" s="12">
+        <v>2</v>
+      </c>
+      <c r="D603" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E603" s="8">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="F603" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G603" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H603" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I603" s="7" t="str">
+        <f t="shared" si="266"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J603" s="7">
+        <v>1</v>
+      </c>
+      <c r="K603" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L603" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A604" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B604" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C604" s="12">
+        <v>2</v>
+      </c>
+      <c r="D604" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E604" s="8">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="F604" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G604" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H604" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I604" s="7" t="str">
+        <f t="shared" si="266"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J604" s="7">
+        <v>1</v>
+      </c>
+      <c r="K604" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L604" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A605" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B605" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C605" s="12">
+        <v>2</v>
+      </c>
+      <c r="D605" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E605" s="8">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F605" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G605" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H605" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I605" s="7" t="str">
+        <f t="shared" ref="I605" si="267">G605&amp;""&amp;H605</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J605" s="7">
+        <v>1</v>
+      </c>
+      <c r="K605" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L605" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A606" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B606" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C606" s="12">
+        <v>2</v>
+      </c>
+      <c r="D606" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E606" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F606" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G606" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H606" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I606" s="7" t="str">
+        <f t="shared" ref="I606" si="268">G606&amp;""&amp;H606</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J606" s="7">
+        <v>1</v>
+      </c>
+      <c r="K606" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L606" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A607" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B607" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C607" s="12">
+        <v>2</v>
+      </c>
+      <c r="D607" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E607" s="8">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="F607" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G607" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H607" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I607" s="7" t="str">
+        <f t="shared" ref="I607" si="269">G607&amp;""&amp;H607</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J607" s="7">
+        <v>1</v>
+      </c>
+      <c r="K607" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L607" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A608" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B608" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C608" s="12">
+        <v>2</v>
+      </c>
+      <c r="D608" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E608" s="8">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="F608" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G608" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H608" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I608" s="7" t="str">
+        <f t="shared" ref="I608" si="270">G608&amp;""&amp;H608</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J608" s="7">
+        <v>1</v>
+      </c>
+      <c r="K608" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L608" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A609" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B609" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C609" s="12">
+        <v>2</v>
+      </c>
+      <c r="D609" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E609" s="8">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="F609" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G609" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H609" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I609" s="7" t="str">
+        <f t="shared" ref="I609" si="271">G609&amp;""&amp;H609</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J609" s="7">
+        <v>1</v>
+      </c>
+      <c r="K609" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L609" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A610" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B610" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C610" s="12">
+        <v>2</v>
+      </c>
+      <c r="D610" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E610" s="8">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="F610" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G610" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H610" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I610" s="7" t="str">
+        <f t="shared" ref="I610" si="272">G610&amp;""&amp;H610</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J610" s="7">
+        <v>1</v>
+      </c>
+      <c r="K610" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L610" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A611" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B611" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C611" s="12">
+        <v>1</v>
+      </c>
+      <c r="D611" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E611" s="8">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="F611" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G611" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H611" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I611" s="7" t="str">
+        <f t="shared" ref="I611" si="273">G611&amp;""&amp;H611</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J611" s="7">
+        <v>1</v>
+      </c>
+      <c r="K611" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L611" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D612" s="7">
+        <v>4</v>
+      </c>
+      <c r="E612" s="8">
+        <v>0.29236111111111113</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1526" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63831916-0143-4E5F-943C-1FCD910E44F6}"/>
+  <xr:revisionPtr revIDLastSave="1558" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8577DDEA-8761-4D1A-A344-4F6BA6E80F41}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3120" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3878" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="318">
   <si>
     <t>date</t>
   </si>
@@ -985,6 +985,9 @@
   </si>
   <si>
     <t>GH068709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP090001-- 0:15- yawning barracuda </t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y612"/>
+  <dimension ref="A1:Y617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E612" sqref="E612"/>
+    <sheetView tabSelected="1" topLeftCell="A615" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="F619" sqref="F619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25339,7 +25342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A609" s="6">
         <v>44586</v>
       </c>
@@ -25378,7 +25381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A610" s="6">
         <v>44586</v>
       </c>
@@ -25417,7 +25420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A611" s="6">
         <v>44362</v>
       </c>
@@ -25456,12 +25459,210 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D612" s="7">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A612" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B612" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C612" s="12">
+        <v>1</v>
+      </c>
+      <c r="D612" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E612" s="8">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="F612" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G612" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H612" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I612" s="7" t="str">
+        <f t="shared" ref="I612" si="274">G612&amp;""&amp;H612</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J612" s="7">
+        <v>1</v>
+      </c>
+      <c r="K612" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L612" s="12">
+        <v>3</v>
+      </c>
+      <c r="M612" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A613" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B613" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C613" s="12">
+        <v>1</v>
+      </c>
+      <c r="D613" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E613" s="8">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F613" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G613" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H613" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I613" s="7" t="str">
+        <f t="shared" ref="I613" si="275">G613&amp;""&amp;H613</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J613" s="7">
+        <v>1</v>
+      </c>
+      <c r="K613" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L613" s="12">
         <v>4</v>
       </c>
-      <c r="E612" s="8">
-        <v>0.29236111111111113</v>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A614" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B614" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C614" s="12">
+        <v>2</v>
+      </c>
+      <c r="D614" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E614" s="8">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F614" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G614" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H614" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I614" s="7" t="str">
+        <f t="shared" ref="I614:I615" si="276">G614&amp;""&amp;H614</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J614" s="7">
+        <v>1</v>
+      </c>
+      <c r="K614" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L614" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A615" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B615" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C615" s="12">
+        <v>2</v>
+      </c>
+      <c r="D615" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E615" s="15">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="F615" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G615" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H615" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I615" s="7" t="str">
+        <f t="shared" si="276"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J615" s="7">
+        <v>1</v>
+      </c>
+      <c r="K615" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L615" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A616" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B616" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C616" s="12">
+        <v>2</v>
+      </c>
+      <c r="D616" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E616" s="8">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F616" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G616" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H616" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I616" s="7" t="str">
+        <f t="shared" ref="I616" si="277">G616&amp;""&amp;H616</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J616" s="7">
+        <v>1</v>
+      </c>
+      <c r="K616" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L616" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D617" s="7">
+        <v>2</v>
+      </c>
+      <c r="E617" s="8">
+        <v>0.25694444444444448</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1558" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8577DDEA-8761-4D1A-A344-4F6BA6E80F41}"/>
+  <xr:revisionPtr revIDLastSave="1580" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{446091B6-5F57-4D87-9AA1-F33669F608FF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="3120" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3910" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="320">
   <si>
     <t>date</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t xml:space="preserve">GP090001-- 0:15- yawning barracuda </t>
+  </si>
+  <si>
+    <t>6:37 *** ray:)</t>
+  </si>
+  <si>
+    <t>GP040225</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y617"/>
+  <dimension ref="A1:Y621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="F619" sqref="F619"/>
+    <sheetView tabSelected="1" topLeftCell="A611" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="M621" sqref="M621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25656,13 +25662,203 @@
       <c r="L616" s="12">
         <v>2</v>
       </c>
+      <c r="M616" s="9" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D617" s="7">
-        <v>2</v>
+      <c r="A617" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B617" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C617" s="12">
+        <v>2</v>
+      </c>
+      <c r="D617" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="E617" s="8">
-        <v>0.25694444444444448</v>
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="F617" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G617" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H617" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I617" s="7" t="str">
+        <f t="shared" ref="I617:I618" si="278">G617&amp;""&amp;H617</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J617" s="7">
+        <v>1</v>
+      </c>
+      <c r="K617" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L617" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A618" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B618" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C618" s="12">
+        <v>2</v>
+      </c>
+      <c r="D618" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E618" s="8">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="F618" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G618" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H618" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I618" s="7" t="str">
+        <f t="shared" si="278"/>
+        <v>Stegastes partitus</v>
+      </c>
+      <c r="J618" s="7">
+        <v>1</v>
+      </c>
+      <c r="K618" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L618" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A619" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B619" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C619" s="12">
+        <v>2</v>
+      </c>
+      <c r="D619" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E619" s="8">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F619" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G619" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H619" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I619" s="7" t="str">
+        <f t="shared" ref="I619" si="279">G619&amp;""&amp;H619</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J619" s="7">
+        <v>1</v>
+      </c>
+      <c r="K619" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L619" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A620" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B620" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C620" s="12">
+        <v>2</v>
+      </c>
+      <c r="D620" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E620" s="8">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="F620" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G620" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H620" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I620" s="7" t="str">
+        <f t="shared" ref="I620" si="280">G620&amp;""&amp;H620</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J620" s="7">
+        <v>1</v>
+      </c>
+      <c r="K620" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L620" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A621" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B621" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C621" s="12">
+        <v>2</v>
+      </c>
+      <c r="D621" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E621" s="8">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F621" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G621" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H621" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I621" s="7" t="str">
+        <f t="shared" ref="I621" si="281">G621&amp;""&amp;H621</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J621" s="7">
+        <v>1</v>
+      </c>
+      <c r="K621" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L621" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1580" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{446091B6-5F57-4D87-9AA1-F33669F608FF}"/>
+  <xr:revisionPtr revIDLastSave="1603" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E1CD18-2725-40BB-95FB-4C0D49708C4C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="3120" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="322">
   <si>
     <t>date</t>
   </si>
@@ -994,6 +994,12 @@
   </si>
   <si>
     <t>GP040225</t>
+  </si>
+  <si>
+    <t>GOPR0233</t>
+  </si>
+  <si>
+    <t>GP010233</t>
   </si>
 </sst>
 </file>
@@ -1394,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y621"/>
+  <dimension ref="A1:Y625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A611" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="M621" sqref="M621"/>
+    <sheetView tabSelected="1" topLeftCell="G616" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="L626" sqref="L626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25859,6 +25865,162 @@
       </c>
       <c r="L621" s="12">
         <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A622" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B622" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C622" s="12">
+        <v>1</v>
+      </c>
+      <c r="D622" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E622" s="8">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F622" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G622" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H622" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I622" s="7" t="str">
+        <f t="shared" ref="I622" si="282">G622&amp;""&amp;H622</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J622" s="7">
+        <v>1</v>
+      </c>
+      <c r="K622" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L622" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A623" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B623" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C623" s="12">
+        <v>1</v>
+      </c>
+      <c r="D623" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E623" s="8">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="F623" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G623" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H623" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I623" s="7" t="str">
+        <f t="shared" ref="I623" si="283">G623&amp;""&amp;H623</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J623" s="7">
+        <v>1</v>
+      </c>
+      <c r="K623" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L623" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A624" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B624" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C624" s="12">
+        <v>1</v>
+      </c>
+      <c r="D624" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E624" s="8">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="F624" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G624" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H624" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I624" s="7" t="str">
+        <f t="shared" ref="I624" si="284">G624&amp;""&amp;H624</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J624" s="7">
+        <v>1</v>
+      </c>
+      <c r="K624" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L624" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A625" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B625" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C625" s="12">
+        <v>1</v>
+      </c>
+      <c r="D625" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E625" s="8">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="F625" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G625" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H625" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I625" s="7" t="str">
+        <f t="shared" ref="I625" si="285">G625&amp;""&amp;H625</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J625" s="7">
+        <v>1</v>
+      </c>
+      <c r="K625" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L625" s="12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1603" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E1CD18-2725-40BB-95FB-4C0D49708C4C}"/>
+  <xr:revisionPtr revIDLastSave="1719" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7315579F-1528-4568-9C97-EA6D246151D0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3120" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="3610" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="327">
   <si>
     <t>date</t>
   </si>
@@ -1000,6 +1000,21 @@
   </si>
   <si>
     <t>GP010233</t>
+  </si>
+  <si>
+    <t>GP020233</t>
+  </si>
+  <si>
+    <t>GP030233</t>
+  </si>
+  <si>
+    <t>GP040233</t>
+  </si>
+  <si>
+    <t>GP060233</t>
+  </si>
+  <si>
+    <t>GP070233</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y625"/>
+  <dimension ref="A1:Y657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G616" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="L626" sqref="L626"/>
+    <sheetView tabSelected="1" topLeftCell="A648" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E657" sqref="E657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26021,6 +26036,1220 @@
       </c>
       <c r="L625" s="12">
         <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A626" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B626" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C626" s="12">
+        <v>1</v>
+      </c>
+      <c r="D626" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E626" s="8">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="F626" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G626" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H626" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I626" s="7" t="str">
+        <f t="shared" ref="I626" si="286">G626&amp;""&amp;H626</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J626" s="7">
+        <v>1</v>
+      </c>
+      <c r="K626" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L626" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A627" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B627" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C627" s="12">
+        <v>1</v>
+      </c>
+      <c r="D627" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E627" s="8">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="F627" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G627" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H627" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I627" s="7" t="str">
+        <f t="shared" ref="I627" si="287">G627&amp;""&amp;H627</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J627" s="7">
+        <v>1</v>
+      </c>
+      <c r="K627" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L627" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A628" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B628" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C628" s="12">
+        <v>1</v>
+      </c>
+      <c r="D628" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E628" s="8">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F628" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G628" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H628" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I628" s="7" t="str">
+        <f t="shared" ref="I628" si="288">G628&amp;""&amp;H628</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J628" s="7">
+        <v>1</v>
+      </c>
+      <c r="K628" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L628" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A629" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B629" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C629" s="12">
+        <v>1</v>
+      </c>
+      <c r="D629" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E629" s="8">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="F629" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G629" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H629" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I629" s="7" t="str">
+        <f t="shared" ref="I629" si="289">G629&amp;""&amp;H629</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J629" s="7">
+        <v>1</v>
+      </c>
+      <c r="K629" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L629" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A630" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B630" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C630" s="12">
+        <v>1</v>
+      </c>
+      <c r="D630" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E630" s="8">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="F630" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G630" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H630" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I630" s="7" t="str">
+        <f t="shared" ref="I630" si="290">G630&amp;""&amp;H630</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J630" s="7">
+        <v>1</v>
+      </c>
+      <c r="K630" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L630" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A631" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B631" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C631" s="12">
+        <v>1</v>
+      </c>
+      <c r="D631" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E631" s="8">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="F631" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G631" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H631" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I631" s="7" t="str">
+        <f t="shared" ref="I631" si="291">G631&amp;""&amp;H631</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J631" s="7">
+        <v>1</v>
+      </c>
+      <c r="K631" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L631" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A632" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B632" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C632" s="12">
+        <v>1</v>
+      </c>
+      <c r="D632" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E632" s="8">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="F632" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G632" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H632" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I632" s="7" t="str">
+        <f t="shared" ref="I632" si="292">G632&amp;""&amp;H632</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J632" s="7">
+        <v>1</v>
+      </c>
+      <c r="K632" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L632" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A633" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B633" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C633" s="12">
+        <v>1</v>
+      </c>
+      <c r="D633" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E633" s="8">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F633" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G633" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H633" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I633" s="7" t="str">
+        <f t="shared" ref="I633" si="293">G633&amp;""&amp;H633</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J633" s="7">
+        <v>1</v>
+      </c>
+      <c r="K633" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L633" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A634" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B634" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C634" s="12">
+        <v>1</v>
+      </c>
+      <c r="D634" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E634" s="8">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="F634" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G634" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H634" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I634" s="7" t="str">
+        <f t="shared" ref="I634" si="294">G634&amp;""&amp;H634</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J634" s="7">
+        <v>1</v>
+      </c>
+      <c r="K634" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L634" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A635" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B635" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C635" s="12">
+        <v>1</v>
+      </c>
+      <c r="D635" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E635" s="8">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="F635" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G635" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H635" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I635" s="7" t="str">
+        <f t="shared" ref="I635" si="295">G635&amp;""&amp;H635</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J635" s="7">
+        <v>1</v>
+      </c>
+      <c r="K635" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L635" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A636" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B636" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C636" s="12">
+        <v>1</v>
+      </c>
+      <c r="D636" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E636" s="8">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="F636" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G636" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H636" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I636" s="7" t="str">
+        <f t="shared" ref="I636" si="296">G636&amp;""&amp;H636</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J636" s="7">
+        <v>1</v>
+      </c>
+      <c r="K636" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L636" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A637" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B637" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C637" s="12">
+        <v>1</v>
+      </c>
+      <c r="D637" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E637" s="8">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="F637" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G637" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H637" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I637" s="7" t="str">
+        <f t="shared" ref="I637" si="297">G637&amp;""&amp;H637</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J637" s="7">
+        <v>1</v>
+      </c>
+      <c r="K637" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L637" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A638" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B638" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C638" s="12">
+        <v>1</v>
+      </c>
+      <c r="D638" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E638" s="8">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="F638" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G638" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H638" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I638" s="7" t="str">
+        <f t="shared" ref="I638" si="298">G638&amp;""&amp;H638</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J638" s="7">
+        <v>1</v>
+      </c>
+      <c r="K638" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L638" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A639" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B639" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C639" s="12">
+        <v>1</v>
+      </c>
+      <c r="D639" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E639" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F639" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G639" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H639" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I639" s="7" t="str">
+        <f t="shared" ref="I639" si="299">G639&amp;""&amp;H639</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J639" s="7">
+        <v>1</v>
+      </c>
+      <c r="K639" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L639" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A640" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B640" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C640" s="12">
+        <v>1</v>
+      </c>
+      <c r="D640" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E640" s="8">
+        <v>9.7916666666666666E-2</v>
+      </c>
+      <c r="F640" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G640" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H640" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I640" s="7" t="str">
+        <f t="shared" ref="I640" si="300">G640&amp;""&amp;H640</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J640" s="7">
+        <v>1</v>
+      </c>
+      <c r="K640" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L640" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A641" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B641" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C641" s="12">
+        <v>1</v>
+      </c>
+      <c r="D641" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E641" s="8">
+        <v>0.10625</v>
+      </c>
+      <c r="F641" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G641" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H641" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I641" s="7" t="str">
+        <f t="shared" ref="I641" si="301">G641&amp;""&amp;H641</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J641" s="7">
+        <v>1</v>
+      </c>
+      <c r="K641" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L641" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A642" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B642" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C642" s="12">
+        <v>1</v>
+      </c>
+      <c r="D642" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E642" s="8">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F642" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G642" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H642" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I642" s="7" t="str">
+        <f t="shared" ref="I642" si="302">G642&amp;""&amp;H642</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J642" s="7">
+        <v>1</v>
+      </c>
+      <c r="K642" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L642" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A643" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B643" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C643" s="12">
+        <v>1</v>
+      </c>
+      <c r="D643" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E643" s="8">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="F643" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G643" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H643" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I643" s="7" t="str">
+        <f t="shared" ref="I643" si="303">G643&amp;""&amp;H643</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J643" s="7">
+        <v>1</v>
+      </c>
+      <c r="K643" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L643" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A644" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B644" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C644" s="12">
+        <v>1</v>
+      </c>
+      <c r="D644" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E644" s="8">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F644" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G644" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H644" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I644" s="7" t="str">
+        <f t="shared" ref="I644" si="304">G644&amp;""&amp;H644</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J644" s="7">
+        <v>1</v>
+      </c>
+      <c r="K644" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L644" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A645" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B645" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C645" s="12">
+        <v>1</v>
+      </c>
+      <c r="D645" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E645" s="8">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="F645" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G645" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H645" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I645" s="7" t="str">
+        <f t="shared" ref="I645" si="305">G645&amp;""&amp;H645</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J645" s="7">
+        <v>1</v>
+      </c>
+      <c r="K645" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L645" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A646" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B646" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C646" s="12">
+        <v>1</v>
+      </c>
+      <c r="D646" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E646" s="8">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="F646" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G646" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H646" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I646" s="7" t="str">
+        <f t="shared" ref="I646" si="306">G646&amp;""&amp;H646</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J646" s="7">
+        <v>1</v>
+      </c>
+      <c r="K646" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L646" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A647" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B647" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C647" s="12">
+        <v>1</v>
+      </c>
+      <c r="D647" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E647" s="8">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="F647" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G647" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H647" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I647" s="7" t="str">
+        <f t="shared" ref="I647" si="307">G647&amp;""&amp;H647</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J647" s="7">
+        <v>1</v>
+      </c>
+      <c r="K647" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L647" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A648" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B648" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C648" s="12">
+        <v>1</v>
+      </c>
+      <c r="D648" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E648" s="8">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="F648" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G648" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H648" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I648" s="7" t="str">
+        <f t="shared" ref="I648" si="308">G648&amp;""&amp;H648</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J648" s="7">
+        <v>1</v>
+      </c>
+      <c r="K648" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L648" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A649" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B649" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C649" s="12">
+        <v>1</v>
+      </c>
+      <c r="D649" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E649" s="8">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="F649" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G649" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H649" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I649" s="7" t="str">
+        <f t="shared" ref="I649" si="309">G649&amp;""&amp;H649</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J649" s="7">
+        <v>1</v>
+      </c>
+      <c r="K649" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L649" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A650" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B650" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C650" s="12">
+        <v>1</v>
+      </c>
+      <c r="D650" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E650" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="F650" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G650" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H650" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I650" s="7" t="str">
+        <f t="shared" ref="I650" si="310">G650&amp;""&amp;H650</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J650" s="7">
+        <v>1</v>
+      </c>
+      <c r="K650" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L650" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A651" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B651" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C651" s="12">
+        <v>1</v>
+      </c>
+      <c r="D651" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E651" s="8">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="F651" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G651" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H651" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I651" s="7" t="str">
+        <f t="shared" ref="I651" si="311">G651&amp;""&amp;H651</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J651" s="7">
+        <v>1</v>
+      </c>
+      <c r="K651" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L651" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A652" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B652" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C652" s="12">
+        <v>1</v>
+      </c>
+      <c r="D652" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E652" s="8">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="F652" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G652" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H652" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I652" s="7" t="str">
+        <f t="shared" ref="I652" si="312">G652&amp;""&amp;H652</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J652" s="7">
+        <v>1</v>
+      </c>
+      <c r="K652" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L652" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A653" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B653" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C653" s="12">
+        <v>1</v>
+      </c>
+      <c r="D653" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E653" s="8">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="F653" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G653" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H653" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I653" s="7" t="str">
+        <f t="shared" ref="I653" si="313">G653&amp;""&amp;H653</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J653" s="7">
+        <v>1</v>
+      </c>
+      <c r="K653" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L653" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A654" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B654" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C654" s="12">
+        <v>1</v>
+      </c>
+      <c r="D654" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E654" s="8">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="F654" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G654" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H654" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I654" s="7" t="str">
+        <f t="shared" ref="I654" si="314">G654&amp;""&amp;H654</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J654" s="7">
+        <v>1</v>
+      </c>
+      <c r="K654" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L654" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A655" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B655" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C655" s="12">
+        <v>1</v>
+      </c>
+      <c r="D655" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E655" s="8">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="F655" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G655" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H655" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I655" s="7" t="str">
+        <f t="shared" ref="I655" si="315">G655&amp;""&amp;H655</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J655" s="7">
+        <v>1</v>
+      </c>
+      <c r="K655" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L655" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A656" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B656" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C656" s="12">
+        <v>1</v>
+      </c>
+      <c r="D656" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E656" s="8">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="F656" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G656" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H656" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I656" s="7" t="str">
+        <f t="shared" ref="I656" si="316">G656&amp;""&amp;H656</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J656" s="7">
+        <v>1</v>
+      </c>
+      <c r="K656" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L656" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E657" s="8">
+        <v>0.35625000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1719" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7315579F-1528-4568-9C97-EA6D246151D0}"/>
+  <xr:revisionPtr revIDLastSave="1846" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8328B855-FBCA-479E-82C7-3E766C912791}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="3610" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="337">
   <si>
     <t>date</t>
   </si>
@@ -1015,6 +1015,36 @@
   </si>
   <si>
     <t>GP070233</t>
+  </si>
+  <si>
+    <t>GH013227</t>
+  </si>
+  <si>
+    <t>GH043227</t>
+  </si>
+  <si>
+    <t>GH053227</t>
+  </si>
+  <si>
+    <t>GP010002</t>
+  </si>
+  <si>
+    <t>GP020002</t>
+  </si>
+  <si>
+    <t>GP030002</t>
+  </si>
+  <si>
+    <t>GP040002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 1 </t>
+  </si>
+  <si>
+    <t>GP050002</t>
+  </si>
+  <si>
+    <t>GP010229</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y657"/>
+  <dimension ref="A1:Y688"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A648" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E657" sqref="E657"/>
+    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D689" sqref="D689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27247,9 +27277,1221 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A657" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B657" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C657" s="12">
+        <v>2</v>
+      </c>
+      <c r="D657" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="E657" s="8">
-        <v>0.35625000000000001</v>
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F657" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G657" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H657" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I657" s="7" t="str">
+        <f t="shared" ref="I657" si="317">G657&amp;""&amp;H657</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J657" s="7">
+        <v>1</v>
+      </c>
+      <c r="K657" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L657" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A658" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B658" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C658" s="12">
+        <v>2</v>
+      </c>
+      <c r="D658" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="E658" s="8">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="F658" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G658" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H658" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I658" s="7" t="str">
+        <f t="shared" ref="I658" si="318">G658&amp;""&amp;H658</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J658" s="7">
+        <v>1</v>
+      </c>
+      <c r="K658" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L658" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A659" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B659" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C659" s="12">
+        <v>2</v>
+      </c>
+      <c r="D659" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E659" s="8">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="F659" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G659" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H659" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I659" s="7" t="str">
+        <f t="shared" ref="I659" si="319">G659&amp;""&amp;H659</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J659" s="7">
+        <v>1</v>
+      </c>
+      <c r="K659" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L659" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A660" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B660" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C660" s="12">
+        <v>2</v>
+      </c>
+      <c r="D660" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E660" s="8">
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="F660" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G660" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H660" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I660" s="7" t="str">
+        <f t="shared" ref="I660" si="320">G660&amp;""&amp;H660</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J660" s="7">
+        <v>1</v>
+      </c>
+      <c r="K660" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L660" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A661" s="6">
+        <v>44586</v>
+      </c>
+      <c r="B661" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C661" s="12">
+        <v>2</v>
+      </c>
+      <c r="D661" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E661" s="8">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="F661" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G661" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H661" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I661" s="7" t="str">
+        <f t="shared" ref="I661:I662" si="321">G661&amp;""&amp;H661</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J661" s="7">
+        <v>1</v>
+      </c>
+      <c r="K661" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L661" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A662" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B662" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C662" s="12">
+        <v>1</v>
+      </c>
+      <c r="D662" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E662" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F662" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G662" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H662" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I662" s="7" t="str">
+        <f t="shared" si="321"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J662" s="7">
+        <v>1</v>
+      </c>
+      <c r="K662" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L662" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A663" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B663" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C663" s="12">
+        <v>1</v>
+      </c>
+      <c r="D663" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E663" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="F663" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G663" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H663" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I663" s="7" t="str">
+        <f t="shared" ref="I663" si="322">G663&amp;""&amp;H663</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J663" s="7">
+        <v>1</v>
+      </c>
+      <c r="K663" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L663" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A664" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B664" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C664" s="12">
+        <v>1</v>
+      </c>
+      <c r="D664" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E664" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F664" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G664" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H664" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I664" s="7" t="str">
+        <f t="shared" ref="I664" si="323">G664&amp;""&amp;H664</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J664" s="7">
+        <v>1</v>
+      </c>
+      <c r="K664" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L664" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A665" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B665" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C665" s="12">
+        <v>1</v>
+      </c>
+      <c r="D665" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E665" s="8">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="F665" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G665" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H665" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I665" s="7" t="str">
+        <f t="shared" ref="I665:I666" si="324">G665&amp;""&amp;H665</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J665" s="7">
+        <v>1</v>
+      </c>
+      <c r="K665" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L665" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A666" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B666" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C666" s="12">
+        <v>1</v>
+      </c>
+      <c r="D666" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E666" s="8">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="F666" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G666" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H666" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I666" s="7" t="str">
+        <f t="shared" si="324"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J666" s="7">
+        <v>1</v>
+      </c>
+      <c r="K666" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L666" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A667" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B667" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C667" s="12">
+        <v>1</v>
+      </c>
+      <c r="D667" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E667" s="8">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="F667" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G667" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H667" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I667" s="7" t="str">
+        <f t="shared" ref="I667" si="325">G667&amp;""&amp;H667</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J667" s="7">
+        <v>1</v>
+      </c>
+      <c r="K667" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L667" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A668" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B668" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C668" s="12">
+        <v>1</v>
+      </c>
+      <c r="D668" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E668" s="8">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="F668" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G668" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H668" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I668" s="7" t="str">
+        <f t="shared" ref="I668:I670" si="326">G668&amp;""&amp;H668</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J668" s="7">
+        <v>1</v>
+      </c>
+      <c r="K668" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L668" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A669" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B669" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C669" s="12">
+        <v>1</v>
+      </c>
+      <c r="D669" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E669" s="8">
+        <v>0.15625</v>
+      </c>
+      <c r="F669" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G669" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H669" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I669" s="7" t="str">
+        <f t="shared" si="326"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J669" s="7">
+        <v>1</v>
+      </c>
+      <c r="K669" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L669" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A670" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B670" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C670" s="12">
+        <v>1</v>
+      </c>
+      <c r="D670" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E670" s="8">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F670" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G670" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H670" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I670" s="7" t="str">
+        <f t="shared" si="326"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J670" s="7">
+        <v>1</v>
+      </c>
+      <c r="K670" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L670" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A671" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B671" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C671" s="12">
+        <v>1</v>
+      </c>
+      <c r="D671" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E671" s="8">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="F671" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G671" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H671" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I671" s="7" t="str">
+        <f t="shared" ref="I671" si="327">G671&amp;""&amp;H671</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J671" s="7">
+        <v>1</v>
+      </c>
+      <c r="K671" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L671" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A672" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B672" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C672" s="12">
+        <v>1</v>
+      </c>
+      <c r="D672" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E672" s="8">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="F672" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G672" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H672" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I672" s="7" t="str">
+        <f t="shared" ref="I672" si="328">G672&amp;""&amp;H672</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J672" s="7">
+        <v>1</v>
+      </c>
+      <c r="K672" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L672" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A673" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B673" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C673" s="12">
+        <v>1</v>
+      </c>
+      <c r="D673" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E673" s="8">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="F673" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G673" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H673" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I673" s="7" t="str">
+        <f t="shared" ref="I673:I675" si="329">G673&amp;""&amp;H673</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J673" s="7">
+        <v>1</v>
+      </c>
+      <c r="K673" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L673" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A674" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B674" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C674" s="12">
+        <v>1</v>
+      </c>
+      <c r="D674" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E674" s="8">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F674" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G674" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H674" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I674" s="7" t="str">
+        <f t="shared" si="329"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J674" s="7">
+        <v>1</v>
+      </c>
+      <c r="K674" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L674" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A675" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B675" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C675" s="12">
+        <v>1</v>
+      </c>
+      <c r="D675" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E675" s="8">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="F675" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G675" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H675" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I675" s="7" t="str">
+        <f t="shared" si="329"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J675" s="7">
+        <v>1</v>
+      </c>
+      <c r="K675" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L675" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A676" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B676" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C676" s="12">
+        <v>1</v>
+      </c>
+      <c r="D676" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E676" s="8">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="F676" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G676" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H676" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I676" s="7" t="str">
+        <f t="shared" ref="I676" si="330">G676&amp;""&amp;H676</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J676" s="7">
+        <v>1</v>
+      </c>
+      <c r="K676" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L676" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A677" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B677" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C677" s="12">
+        <v>1</v>
+      </c>
+      <c r="D677" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E677" s="15">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="F677" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G677" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H677" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I677" s="7" t="str">
+        <f t="shared" ref="I677" si="331">G677&amp;""&amp;H677</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J677" s="7">
+        <v>1</v>
+      </c>
+      <c r="K677" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L677" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A678" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B678" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C678" s="12">
+        <v>1</v>
+      </c>
+      <c r="D678" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E678" s="15">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="F678" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G678" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H678" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I678" s="7" t="str">
+        <f t="shared" ref="I678" si="332">G678&amp;""&amp;H678</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J678" s="7">
+        <v>1</v>
+      </c>
+      <c r="K678" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L678" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A679" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B679" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C679" s="12">
+        <v>1</v>
+      </c>
+      <c r="D679" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E679" s="8">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="F679" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G679" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H679" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I679" s="7" t="str">
+        <f t="shared" ref="I679" si="333">G679&amp;""&amp;H679</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J679" s="7">
+        <v>1</v>
+      </c>
+      <c r="K679" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L679" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A680" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B680" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C680" s="12">
+        <v>1</v>
+      </c>
+      <c r="D680" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E680" s="15">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="F680" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G680" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H680" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I680" s="7" t="str">
+        <f t="shared" ref="I680" si="334">G680&amp;""&amp;H680</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J680" s="7">
+        <v>1</v>
+      </c>
+      <c r="K680" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L680" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A681" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B681" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C681" s="12">
+        <v>1</v>
+      </c>
+      <c r="D681" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E681" s="15">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="F681" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G681" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H681" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I681" s="7" t="str">
+        <f t="shared" ref="I681" si="335">G681&amp;""&amp;H681</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J681" s="7">
+        <v>1</v>
+      </c>
+      <c r="K681" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L681" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A682" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B682" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C682" s="12">
+        <v>1</v>
+      </c>
+      <c r="D682" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E682" s="8">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="F682" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G682" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H682" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I682" s="7" t="str">
+        <f t="shared" ref="I682" si="336">G682&amp;""&amp;H682</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J682" s="7">
+        <v>1</v>
+      </c>
+      <c r="K682" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L682" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A683" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B683" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C683" s="12">
+        <v>1</v>
+      </c>
+      <c r="D683" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E683" s="8">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="F683" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G683" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H683" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I683" s="7" t="str">
+        <f t="shared" ref="I683" si="337">G683&amp;""&amp;H683</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J683" s="7">
+        <v>1</v>
+      </c>
+      <c r="K683" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L683" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A684" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B684" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C684" s="12">
+        <v>1</v>
+      </c>
+      <c r="D684" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E684" s="8">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="F684" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G684" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H684" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I684" s="7" t="str">
+        <f t="shared" ref="I684:I686" si="338">G684&amp;""&amp;H684</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J684" s="7">
+        <v>1</v>
+      </c>
+      <c r="K684" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L684" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A685" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B685" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C685" s="12">
+        <v>1</v>
+      </c>
+      <c r="D685" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E685" s="8">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="F685" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G685" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H685" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I685" s="7" t="str">
+        <f t="shared" si="338"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J685" s="7">
+        <v>1</v>
+      </c>
+      <c r="K685" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L685" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A686" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B686" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C686" s="12">
+        <v>2</v>
+      </c>
+      <c r="D686" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E686" s="8">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="F686" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G686" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H686" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I686" s="7" t="str">
+        <f t="shared" si="338"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J686" s="7">
+        <v>1</v>
+      </c>
+      <c r="K686" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L686" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A687" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B687" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C687" s="12">
+        <v>2</v>
+      </c>
+      <c r="D687" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E687" s="8">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F687" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G687" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H687" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I687" s="7" t="str">
+        <f t="shared" ref="I687" si="339">G687&amp;""&amp;H687</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J687" s="7">
+        <v>1</v>
+      </c>
+      <c r="K687" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L687" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D688" s="7">
+        <v>2</v>
+      </c>
+      <c r="E688" s="8">
+        <v>0.13402777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1846" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8328B855-FBCA-479E-82C7-3E766C912791}"/>
+  <xr:revisionPtr revIDLastSave="2019" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30DB6966-F3CE-4D2D-BCB0-8964482C0123}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4410" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4345" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="351">
   <si>
     <t>date</t>
   </si>
@@ -1045,6 +1045,48 @@
   </si>
   <si>
     <t>GP010229</t>
+  </si>
+  <si>
+    <t>GP020229</t>
+  </si>
+  <si>
+    <t>Rock Beauty</t>
+  </si>
+  <si>
+    <t>tricolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holacanthus </t>
+  </si>
+  <si>
+    <t>GP030229</t>
+  </si>
+  <si>
+    <t>GP040229</t>
+  </si>
+  <si>
+    <t>GP050229</t>
+  </si>
+  <si>
+    <t>GP070229</t>
+  </si>
+  <si>
+    <t>GP037314</t>
+  </si>
+  <si>
+    <t>GP047314</t>
+  </si>
+  <si>
+    <t>GP057314</t>
+  </si>
+  <si>
+    <t>GP050241</t>
+  </si>
+  <si>
+    <t>GP032200</t>
+  </si>
+  <si>
+    <t>GP042200</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y688"/>
+  <dimension ref="A1:Y713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D689" sqref="D689"/>
+    <sheetView tabSelected="1" topLeftCell="A697" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="E713" sqref="E713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28487,11 +28529,986 @@
       </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D688" s="7">
-        <v>2</v>
+      <c r="A688" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B688" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C688" s="12">
+        <v>2</v>
+      </c>
+      <c r="D688" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="E688" s="8">
-        <v>0.13402777777777777</v>
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="F688" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G688" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H688" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I688" s="7" t="str">
+        <f t="shared" ref="I688" si="340">G688&amp;""&amp;H688</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J688" s="7">
+        <v>1</v>
+      </c>
+      <c r="K688" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L688" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A689" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B689" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C689" s="12">
+        <v>2</v>
+      </c>
+      <c r="D689" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E689" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F689" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G689" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H689" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I689" s="7" t="str">
+        <f t="shared" ref="I689:I690" si="341">G689&amp;""&amp;H689</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J689" s="7">
+        <v>1</v>
+      </c>
+      <c r="K689" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L689" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A690" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B690" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C690" s="12">
+        <v>2</v>
+      </c>
+      <c r="D690" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E690" s="8">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="F690" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G690" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H690" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I690" s="7" t="str">
+        <f t="shared" si="341"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J690" s="7">
+        <v>1</v>
+      </c>
+      <c r="K690" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L690" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A691" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B691" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C691" s="12">
+        <v>2</v>
+      </c>
+      <c r="D691" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E691" s="8">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="F691" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G691" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H691" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I691" s="7" t="str">
+        <f t="shared" ref="I691:I692" si="342">G691&amp;""&amp;H691</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J691" s="7">
+        <v>1</v>
+      </c>
+      <c r="K691" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L691" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A692" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B692" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C692" s="12">
+        <v>2</v>
+      </c>
+      <c r="D692" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E692" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F692" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="G692" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="H692" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="I692" s="12" t="str">
+        <f>G692&amp;""&amp;H692</f>
+        <v>Holacanthus tricolor</v>
+      </c>
+      <c r="J692" s="7">
+        <v>1</v>
+      </c>
+      <c r="K692" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L692" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A693" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B693" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C693" s="12">
+        <v>2</v>
+      </c>
+      <c r="D693" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E693" s="8">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F693" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G693" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H693" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I693" s="7" t="str">
+        <f t="shared" ref="I693" si="343">G693&amp;""&amp;H693</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J693" s="7">
+        <v>1</v>
+      </c>
+      <c r="K693" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L693" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A694" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B694" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C694" s="12">
+        <v>2</v>
+      </c>
+      <c r="D694" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E694" s="8">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F694" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G694" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H694" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I694" s="7" t="str">
+        <f t="shared" ref="I694" si="344">G694&amp;""&amp;H694</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J694" s="7">
+        <v>1</v>
+      </c>
+      <c r="K694" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L694" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A695" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B695" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C695" s="12">
+        <v>2</v>
+      </c>
+      <c r="D695" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E695" s="8">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="F695" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G695" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H695" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I695" s="7" t="str">
+        <f t="shared" ref="I695:I696" si="345">G695&amp;""&amp;H695</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J695" s="7">
+        <v>1</v>
+      </c>
+      <c r="K695" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L695" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A696" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B696" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C696" s="12">
+        <v>2</v>
+      </c>
+      <c r="D696" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E696" s="8">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="F696" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G696" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H696" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I696" s="7" t="str">
+        <f t="shared" si="345"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J696" s="7">
+        <v>1</v>
+      </c>
+      <c r="K696" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L696" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A697" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B697" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C697" s="12">
+        <v>2</v>
+      </c>
+      <c r="D697" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E697" s="8">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="F697" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G697" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H697" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I697" s="7" t="str">
+        <f t="shared" ref="I697:I698" si="346">G697&amp;""&amp;H697</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J697" s="7">
+        <v>1</v>
+      </c>
+      <c r="K697" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L697" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A698" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B698" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C698" s="12">
+        <v>2</v>
+      </c>
+      <c r="D698" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E698" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F698" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G698" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H698" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I698" s="7" t="str">
+        <f t="shared" si="346"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J698" s="7">
+        <v>1</v>
+      </c>
+      <c r="K698" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L698" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A699" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B699" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C699" s="12">
+        <v>2</v>
+      </c>
+      <c r="D699" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E699" s="8">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="F699" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G699" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H699" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I699" s="7" t="str">
+        <f t="shared" ref="I699:I700" si="347">G699&amp;""&amp;H699</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J699" s="7">
+        <v>1</v>
+      </c>
+      <c r="K699" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L699" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A700" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B700" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C700" s="12">
+        <v>2</v>
+      </c>
+      <c r="D700" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E700" s="8">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="F700" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G700" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H700" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I700" s="7" t="str">
+        <f t="shared" si="347"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J700" s="7">
+        <v>1</v>
+      </c>
+      <c r="K700" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L700" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A701" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B701" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C701" s="12">
+        <v>2</v>
+      </c>
+      <c r="D701" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E701" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="F701" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G701" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H701" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I701" s="7" t="str">
+        <f t="shared" ref="I701" si="348">G701&amp;""&amp;H701</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J701" s="7">
+        <v>1</v>
+      </c>
+      <c r="K701" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L701" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A702" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B702" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C702" s="12">
+        <v>2</v>
+      </c>
+      <c r="D702" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E702" s="8">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F702" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G702" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H702" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I702" s="7" t="str">
+        <f t="shared" ref="I702:I703" si="349">G702&amp;""&amp;H702</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J702" s="7">
+        <v>1</v>
+      </c>
+      <c r="K702" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L702" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A703" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B703" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C703" s="12">
+        <v>1</v>
+      </c>
+      <c r="D703" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E703" s="8">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="F703" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G703" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H703" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I703" s="7" t="str">
+        <f t="shared" si="349"/>
+        <v xml:space="preserve">Sparisoma chrysopertum </v>
+      </c>
+      <c r="J703" s="7">
+        <v>1</v>
+      </c>
+      <c r="K703" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L703" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A704" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B704" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C704" s="12">
+        <v>1</v>
+      </c>
+      <c r="D704" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E704" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F704" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G704" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H704" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I704" s="7" t="str">
+        <f t="shared" ref="I704:I705" si="350">G704&amp;""&amp;H704</f>
+        <v xml:space="preserve">Sparisoma chrysopertum </v>
+      </c>
+      <c r="J704" s="7">
+        <v>1</v>
+      </c>
+      <c r="K704" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L704" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A705" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B705" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C705" s="12">
+        <v>1</v>
+      </c>
+      <c r="D705" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E705" s="8">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="F705" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G705" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H705" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I705" s="7" t="str">
+        <f t="shared" si="350"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J705" s="7">
+        <v>1</v>
+      </c>
+      <c r="K705" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L705" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A706" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B706" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C706" s="12">
+        <v>1</v>
+      </c>
+      <c r="D706" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E706" s="8">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="F706" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G706" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H706" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I706" s="7" t="str">
+        <f t="shared" ref="I706" si="351">G706&amp;""&amp;H706</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J706" s="7">
+        <v>1</v>
+      </c>
+      <c r="K706" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L706" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A707" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B707" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C707" s="12">
+        <v>1</v>
+      </c>
+      <c r="D707" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E707" s="8">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F707" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G707" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H707" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I707" s="7" t="str">
+        <f t="shared" ref="I707" si="352">G707&amp;""&amp;H707</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J707" s="7">
+        <v>1</v>
+      </c>
+      <c r="K707" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L707" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A708" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B708" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C708" s="12">
+        <v>1</v>
+      </c>
+      <c r="D708" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E708" s="8">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="F708" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G708" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H708" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I708" s="7" t="str">
+        <f t="shared" ref="I708" si="353">G708&amp;""&amp;H708</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J708" s="7">
+        <v>1</v>
+      </c>
+      <c r="K708" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L708" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A709" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B709" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C709" s="12">
+        <v>1</v>
+      </c>
+      <c r="D709" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E709" s="8">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="F709" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G709" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H709" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I709" s="7" t="str">
+        <f t="shared" ref="I709:I710" si="354">G709&amp;""&amp;H709</f>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J709" s="7">
+        <v>1</v>
+      </c>
+      <c r="K709" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L709" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A710" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B710" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C710" s="12">
+        <v>2</v>
+      </c>
+      <c r="D710" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E710" s="8">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="F710" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G710" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H710" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I710" s="7" t="str">
+        <f t="shared" si="354"/>
+        <v xml:space="preserve">Sparisoma chrysopertum </v>
+      </c>
+      <c r="J710" s="7">
+        <v>1</v>
+      </c>
+      <c r="K710" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L710" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A711" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B711" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C711" s="12">
+        <v>1</v>
+      </c>
+      <c r="D711" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E711" s="8">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="F711" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G711" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H711" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I711" s="7" t="str">
+        <f t="shared" ref="I711:I712" si="355">G711&amp;""&amp;H711</f>
+        <v xml:space="preserve">Sparisoma chrysopertum </v>
+      </c>
+      <c r="J711" s="7">
+        <v>1</v>
+      </c>
+      <c r="K711" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L711" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A712" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B712" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C712" s="12">
+        <v>1</v>
+      </c>
+      <c r="D712" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E712" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F712" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G712" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H712" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I712" s="7" t="str">
+        <f t="shared" si="355"/>
+        <v xml:space="preserve">Sparisoma chrysopertum </v>
+      </c>
+      <c r="J712" s="7">
+        <v>1</v>
+      </c>
+      <c r="K712" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L712" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D713" s="7">
+        <v>6</v>
+      </c>
+      <c r="E713" s="8">
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2019" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30DB6966-F3CE-4D2D-BCB0-8964482C0123}"/>
+  <xr:revisionPtr revIDLastSave="2054" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7317AF-294E-45A5-A9F6-9E5129FEBE5B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4410" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="354">
   <si>
     <t>date</t>
   </si>
@@ -1087,6 +1087,15 @@
   </si>
   <si>
     <t>GP042200</t>
+  </si>
+  <si>
+    <t>GP062200</t>
+  </si>
+  <si>
+    <t>GP072200</t>
+  </si>
+  <si>
+    <t>GP082200</t>
   </si>
 </sst>
 </file>
@@ -1487,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y713"/>
+  <dimension ref="A1:Y719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E713" sqref="E713"/>
+    <sheetView tabSelected="1" topLeftCell="A702" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="D723" sqref="D723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28671,7 +28680,7 @@
         <v>184</v>
       </c>
       <c r="I691" s="7" t="str">
-        <f t="shared" ref="I691:I692" si="342">G691&amp;""&amp;H691</f>
+        <f t="shared" ref="I691" si="342">G691&amp;""&amp;H691</f>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J691" s="7">
@@ -29451,7 +29460,7 @@
         <v>186</v>
       </c>
       <c r="I711" s="7" t="str">
-        <f t="shared" ref="I711:I712" si="355">G711&amp;""&amp;H711</f>
+        <f t="shared" ref="I711:I715" si="355">G711&amp;""&amp;H711</f>
         <v xml:space="preserve">Sparisoma chrysopertum </v>
       </c>
       <c r="J711" s="7">
@@ -29504,11 +29513,276 @@
       </c>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D713" s="7">
-        <v>6</v>
+      <c r="A713" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B713" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C713" s="12">
+        <v>1</v>
+      </c>
+      <c r="D713" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="E713" s="8">
-        <v>0.1875</v>
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="F713" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G713" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H713" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I713" s="7" t="str">
+        <f t="shared" si="355"/>
+        <v xml:space="preserve">Acanthurus bahianus </v>
+      </c>
+      <c r="J713" s="7">
+        <v>1</v>
+      </c>
+      <c r="K713" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L713" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A714" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B714" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C714" s="12">
+        <v>1</v>
+      </c>
+      <c r="D714" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E714" s="8">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="F714" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G714" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H714" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I714" s="7" t="str">
+        <f t="shared" si="355"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J714" s="7">
+        <v>1</v>
+      </c>
+      <c r="K714" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L714" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A715" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B715" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C715" s="12">
+        <v>1</v>
+      </c>
+      <c r="D715" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E715" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="F715" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G715" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H715" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I715" s="7" t="str">
+        <f t="shared" si="355"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J715" s="7">
+        <v>1</v>
+      </c>
+      <c r="K715" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L715" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A716" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B716" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C716" s="12">
+        <v>1</v>
+      </c>
+      <c r="D716" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E716" s="8">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="F716" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G716" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H716" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I716" s="7" t="str">
+        <f t="shared" ref="I716" si="356">G716&amp;""&amp;H716</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J716" s="7">
+        <v>1</v>
+      </c>
+      <c r="K716" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L716" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A717" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B717" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C717" s="12">
+        <v>1</v>
+      </c>
+      <c r="D717" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E717" s="8">
+        <v>0.13402777777777777</v>
+      </c>
+      <c r="F717" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G717" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H717" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I717" s="7" t="str">
+        <f t="shared" ref="I717" si="357">G717&amp;""&amp;H717</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J717" s="7">
+        <v>1</v>
+      </c>
+      <c r="K717" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L717" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A718" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B718" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C718" s="12">
+        <v>1</v>
+      </c>
+      <c r="D718" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E718" s="8">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="F718" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G718" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H718" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I718" s="7" t="str">
+        <f t="shared" ref="I718:I719" si="358">G718&amp;""&amp;H718</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J718" s="7">
+        <v>1</v>
+      </c>
+      <c r="K718" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L718" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A719" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B719" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C719" s="12">
+        <v>1</v>
+      </c>
+      <c r="D719" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E719" s="8">
+        <v>0.15625</v>
+      </c>
+      <c r="F719" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G719" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H719" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I719" s="7" t="str">
+        <f t="shared" si="358"/>
+        <v>Sparisoma rubripinne</v>
+      </c>
+      <c r="J719" s="7">
+        <v>1</v>
+      </c>
+      <c r="K719" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L719" s="12">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c031d4298907fefe/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2054" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE7317AF-294E-45A5-A9F6-9E5129FEBE5B}"/>
+  <xr:revisionPtr revIDLastSave="2350" documentId="11_52F35D0298F9F425E34468792A3F855957B37C5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CD01B62-F825-4C9D-B1E0-DD3162B7CA3B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3400" windowWidth="12660" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5133" uniqueCount="379">
   <si>
     <t>date</t>
   </si>
@@ -1096,6 +1096,81 @@
   </si>
   <si>
     <t>GP082200</t>
+  </si>
+  <si>
+    <t>GP010212</t>
+  </si>
+  <si>
+    <t>GP020212</t>
+  </si>
+  <si>
+    <t>GP030212</t>
+  </si>
+  <si>
+    <t>GP040212</t>
+  </si>
+  <si>
+    <t>GP050212</t>
+  </si>
+  <si>
+    <t>GP060212</t>
+  </si>
+  <si>
+    <t>GP070212</t>
+  </si>
+  <si>
+    <t>GP020313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparisoma aurofrenatum </t>
+  </si>
+  <si>
+    <t>GP030313</t>
+  </si>
+  <si>
+    <t>GP050313</t>
+  </si>
+  <si>
+    <t>GP060313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparisoma chrysopertum </t>
+  </si>
+  <si>
+    <t>Sparisoma rubripinne</t>
+  </si>
+  <si>
+    <t>GP070313</t>
+  </si>
+  <si>
+    <t>GP058723</t>
+  </si>
+  <si>
+    <t>GP068723</t>
+  </si>
+  <si>
+    <t>GH108312 4:07 NURSE SHARK!!!!</t>
+  </si>
+  <si>
+    <t>GP010050</t>
+  </si>
+  <si>
+    <t>GP030050</t>
+  </si>
+  <si>
+    <t>GP040050</t>
+  </si>
+  <si>
+    <t>GP060050</t>
+  </si>
+  <si>
+    <t>GP090050</t>
+  </si>
+  <si>
+    <t>GH043233</t>
+  </si>
+  <si>
+    <t>GH053233</t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y719"/>
+  <dimension ref="A1:Y804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="D723" sqref="D723"/>
+    <sheetView tabSelected="1" topLeftCell="A790" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="G805" sqref="G805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29733,7 +29808,7 @@
         <v>184</v>
       </c>
       <c r="I718" s="7" t="str">
-        <f t="shared" ref="I718:I719" si="358">G718&amp;""&amp;H718</f>
+        <f t="shared" ref="I718:I720" si="358">G718&amp;""&amp;H718</f>
         <v xml:space="preserve">Sparisoma aurofrenatum </v>
       </c>
       <c r="J718" s="7">
@@ -29782,6 +29857,3251 @@
         <v>29</v>
       </c>
       <c r="L719" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A720" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B720" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C720" s="12">
+        <v>2</v>
+      </c>
+      <c r="D720" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E720" s="8">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F720" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G720" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H720" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I720" s="7" t="str">
+        <f t="shared" si="358"/>
+        <v xml:space="preserve">Acanthurus bahianus </v>
+      </c>
+      <c r="J720" s="7">
+        <v>1</v>
+      </c>
+      <c r="K720" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L720" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A721" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B721" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C721" s="12">
+        <v>2</v>
+      </c>
+      <c r="D721" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E721" s="8">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="F721" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G721" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H721" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I721" s="7" t="str">
+        <f t="shared" ref="I721:I722" si="359">G721&amp;""&amp;H721</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J721" s="7">
+        <v>1</v>
+      </c>
+      <c r="K721" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L721" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A722" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B722" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C722" s="12">
+        <v>2</v>
+      </c>
+      <c r="D722" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E722" s="8">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="F722" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G722" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H722" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I722" s="7" t="str">
+        <f t="shared" si="359"/>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J722" s="7">
+        <v>1</v>
+      </c>
+      <c r="K722" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L722" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A723" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B723" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C723" s="12">
+        <v>2</v>
+      </c>
+      <c r="D723" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E723" s="8">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="F723" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G723" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H723" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I723" s="7" t="str">
+        <f t="shared" ref="I723" si="360">G723&amp;""&amp;H723</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J723" s="7">
+        <v>1</v>
+      </c>
+      <c r="K723" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L723" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A724" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B724" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C724" s="12">
+        <v>2</v>
+      </c>
+      <c r="D724" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E724" s="8">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="F724" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G724" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H724" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I724" s="7" t="str">
+        <f t="shared" ref="I724" si="361">G724&amp;""&amp;H724</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J724" s="7">
+        <v>1</v>
+      </c>
+      <c r="K724" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L724" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A725" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B725" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C725" s="12">
+        <v>2</v>
+      </c>
+      <c r="D725" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E725" s="8">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="F725" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G725" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H725" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I725" s="7" t="str">
+        <f t="shared" ref="I725" si="362">G725&amp;""&amp;H725</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J725" s="7">
+        <v>1</v>
+      </c>
+      <c r="K725" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L725" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A726" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B726" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C726" s="12">
+        <v>2</v>
+      </c>
+      <c r="D726" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E726" s="8">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="F726" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G726" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H726" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I726" s="7" t="str">
+        <f t="shared" ref="I726" si="363">G726&amp;""&amp;H726</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J726" s="7">
+        <v>1</v>
+      </c>
+      <c r="K726" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L726" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A727" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B727" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C727" s="12">
+        <v>2</v>
+      </c>
+      <c r="D727" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E727" s="8">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="F727" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G727" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H727" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I727" s="7" t="str">
+        <f t="shared" ref="I727" si="364">G727&amp;""&amp;H727</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J727" s="7">
+        <v>1</v>
+      </c>
+      <c r="K727" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L727" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A728" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B728" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C728" s="12">
+        <v>2</v>
+      </c>
+      <c r="D728" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E728" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="F728" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G728" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H728" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I728" s="7" t="str">
+        <f t="shared" ref="I728" si="365">G728&amp;""&amp;H728</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J728" s="7">
+        <v>1</v>
+      </c>
+      <c r="K728" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L728" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A729" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B729" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C729" s="12">
+        <v>2</v>
+      </c>
+      <c r="D729" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E729" s="8">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="F729" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G729" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H729" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I729" s="7" t="str">
+        <f t="shared" ref="I729" si="366">G729&amp;""&amp;H729</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J729" s="7">
+        <v>1</v>
+      </c>
+      <c r="K729" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L729" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A730" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B730" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C730" s="12">
+        <v>2</v>
+      </c>
+      <c r="D730" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E730" s="8">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="F730" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G730" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H730" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I730" s="7" t="str">
+        <f t="shared" ref="I730" si="367">G730&amp;""&amp;H730</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J730" s="7">
+        <v>1</v>
+      </c>
+      <c r="K730" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L730" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A731" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B731" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C731" s="12">
+        <v>2</v>
+      </c>
+      <c r="D731" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E731" s="8">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="F731" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G731" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H731" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I731" s="7" t="str">
+        <f t="shared" ref="I731" si="368">G731&amp;""&amp;H731</f>
+        <v xml:space="preserve">Sparisoma aurofrenatum </v>
+      </c>
+      <c r="J731" s="7">
+        <v>1</v>
+      </c>
+      <c r="K731" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L731" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A732" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B732" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C732" s="7">
+        <v>1</v>
+      </c>
+      <c r="D732" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E732" s="8">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="F732" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G732" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H732" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I732" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J732" s="7">
+        <v>1</v>
+      </c>
+      <c r="K732" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L732" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A733" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B733" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C733" s="7">
+        <v>1</v>
+      </c>
+      <c r="D733" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E733" s="8">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F733" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G733" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H733" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I733" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J733" s="7">
+        <v>1</v>
+      </c>
+      <c r="K733" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L733" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A734" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B734" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C734" s="7">
+        <v>1</v>
+      </c>
+      <c r="D734" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E734" s="8">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="F734" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G734" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H734" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I734" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J734" s="7">
+        <v>1</v>
+      </c>
+      <c r="K734" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L734" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A735" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B735" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C735" s="7">
+        <v>1</v>
+      </c>
+      <c r="D735" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E735" s="8">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="F735" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G735" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H735" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I735" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J735" s="7">
+        <v>1</v>
+      </c>
+      <c r="K735" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L735" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A736" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B736" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C736" s="7">
+        <v>1</v>
+      </c>
+      <c r="D736" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E736" s="8">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="F736" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G736" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H736" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I736" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J736" s="7">
+        <v>1</v>
+      </c>
+      <c r="K736" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L736" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A737" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B737" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C737" s="7">
+        <v>1</v>
+      </c>
+      <c r="D737" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E737" s="8">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="F737" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G737" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H737" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I737" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J737" s="7">
+        <v>1</v>
+      </c>
+      <c r="K737" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L737" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A738" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B738" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C738" s="7">
+        <v>1</v>
+      </c>
+      <c r="D738" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E738" s="8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F738" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G738" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H738" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I738" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J738" s="7">
+        <v>1</v>
+      </c>
+      <c r="K738" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L738" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A739" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B739" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C739" s="7">
+        <v>1</v>
+      </c>
+      <c r="D739" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E739" s="8">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="F739" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G739" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H739" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I739" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J739" s="7">
+        <v>1</v>
+      </c>
+      <c r="K739" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L739" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A740" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B740" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C740" s="7">
+        <v>1</v>
+      </c>
+      <c r="D740" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E740" s="8">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="F740" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G740" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H740" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I740" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J740" s="7">
+        <v>1</v>
+      </c>
+      <c r="K740" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L740" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A741" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B741" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C741" s="7">
+        <v>1</v>
+      </c>
+      <c r="D741" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E741" s="8">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="F741" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G741" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H741" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I741" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J741" s="7">
+        <v>1</v>
+      </c>
+      <c r="K741" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L741" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A742" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B742" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C742" s="7">
+        <v>1</v>
+      </c>
+      <c r="D742" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E742" s="8">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="F742" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G742" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H742" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I742" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J742" s="7">
+        <v>1</v>
+      </c>
+      <c r="K742" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L742" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A743" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B743" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C743" s="7">
+        <v>1</v>
+      </c>
+      <c r="D743" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E743" s="8">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="F743" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G743" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H743" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I743" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J743" s="7">
+        <v>1</v>
+      </c>
+      <c r="K743" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L743" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A744" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C744" s="7">
+        <v>1</v>
+      </c>
+      <c r="D744" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E744" s="8">
+        <v>0.36041666666666666</v>
+      </c>
+      <c r="F744" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G744" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H744" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I744" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J744" s="7">
+        <v>1</v>
+      </c>
+      <c r="K744" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L744" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A745" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B745" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C745" s="7">
+        <v>1</v>
+      </c>
+      <c r="D745" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E745" s="8">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="F745" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G745" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H745" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I745" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J745" s="7">
+        <v>1</v>
+      </c>
+      <c r="K745" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L745" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A746" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B746" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C746" s="7">
+        <v>1</v>
+      </c>
+      <c r="D746" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E746" s="8">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="F746" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G746" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H746" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I746" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J746" s="7">
+        <v>1</v>
+      </c>
+      <c r="K746" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L746" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A747" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B747" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C747" s="7">
+        <v>1</v>
+      </c>
+      <c r="D747" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E747" s="8">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="F747" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G747" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H747" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I747" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J747" s="7">
+        <v>1</v>
+      </c>
+      <c r="K747" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L747" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A748" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B748" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C748" s="7">
+        <v>1</v>
+      </c>
+      <c r="D748" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E748" s="8">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="F748" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G748" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H748" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I748" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J748" s="7">
+        <v>1</v>
+      </c>
+      <c r="K748" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L748" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A749" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B749" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C749" s="7">
+        <v>1</v>
+      </c>
+      <c r="D749" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E749" s="8">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="F749" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G749" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H749" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I749" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J749" s="7">
+        <v>1</v>
+      </c>
+      <c r="K749" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L749" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A750" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B750" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C750" s="7">
+        <v>2</v>
+      </c>
+      <c r="D750" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E750" s="8">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="F750" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G750" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H750" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I750" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J750" s="7">
+        <v>1</v>
+      </c>
+      <c r="K750" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L750" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A751" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B751" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C751" s="7">
+        <v>2</v>
+      </c>
+      <c r="D751" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E751" s="8">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="F751" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G751" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H751" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I751" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J751" s="7">
+        <v>1</v>
+      </c>
+      <c r="K751" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L751" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A752" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B752" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C752" s="7">
+        <v>2</v>
+      </c>
+      <c r="D752" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E752" s="8">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="F752" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G752" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H752" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I752" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J752" s="7">
+        <v>1</v>
+      </c>
+      <c r="K752" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L752" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A753" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B753" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C753" s="7">
+        <v>2</v>
+      </c>
+      <c r="D753" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E753" s="8">
+        <v>0.27569444444444446</v>
+      </c>
+      <c r="F753" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G753" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H753" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I753" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J753" s="7">
+        <v>1</v>
+      </c>
+      <c r="K753" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L753" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A754" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B754" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C754" s="7">
+        <v>2</v>
+      </c>
+      <c r="D754" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E754" s="8">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="F754" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G754" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H754" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I754" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J754" s="7">
+        <v>1</v>
+      </c>
+      <c r="K754" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L754" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A755" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B755" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C755" s="12">
+        <v>1</v>
+      </c>
+      <c r="D755" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E755" s="8">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F755" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G755" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H755" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I755" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J755" s="7">
+        <v>1</v>
+      </c>
+      <c r="K755" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L755" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A756" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B756" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C756" s="12">
+        <v>1</v>
+      </c>
+      <c r="D756" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E756" s="8">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="F756" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G756" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H756" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I756" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J756" s="7">
+        <v>1</v>
+      </c>
+      <c r="K756" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L756" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A757" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B757" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C757" s="12">
+        <v>1</v>
+      </c>
+      <c r="D757" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E757" s="8">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="F757" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G757" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H757" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I757" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J757" s="7">
+        <v>1</v>
+      </c>
+      <c r="K757" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L757" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A758" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B758" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C758" s="12">
+        <v>1</v>
+      </c>
+      <c r="D758" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E758" s="8">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="F758" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G758" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H758" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I758" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J758" s="7">
+        <v>1</v>
+      </c>
+      <c r="K758" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L758" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A759" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B759" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C759" s="12">
+        <v>1</v>
+      </c>
+      <c r="D759" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E759" s="8">
+        <v>0.33888888888888885</v>
+      </c>
+      <c r="F759" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G759" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H759" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I759" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J759" s="7">
+        <v>1</v>
+      </c>
+      <c r="K759" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L759" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A760" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B760" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C760" s="12">
+        <v>1</v>
+      </c>
+      <c r="D760" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E760" s="8">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="F760" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G760" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H760" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I760" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J760" s="7">
+        <v>1</v>
+      </c>
+      <c r="K760" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L760" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A761" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B761" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C761" s="12">
+        <v>1</v>
+      </c>
+      <c r="D761" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E761" s="8">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="F761" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G761" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H761" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I761" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J761" s="7">
+        <v>1</v>
+      </c>
+      <c r="K761" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L761" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A762" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B762" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C762" s="12">
+        <v>1</v>
+      </c>
+      <c r="D762" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E762" s="8">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="F762" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G762" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H762" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I762" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J762" s="7">
+        <v>1</v>
+      </c>
+      <c r="K762" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L762" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A763" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B763" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C763" s="12">
+        <v>1</v>
+      </c>
+      <c r="D763" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E763" s="8">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="F763" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G763" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H763" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I763" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J763" s="7">
+        <v>1</v>
+      </c>
+      <c r="K763" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L763" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A764" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B764" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C764" s="12">
+        <v>1</v>
+      </c>
+      <c r="D764" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E764" s="8">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="F764" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G764" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H764" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I764" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J764" s="7">
+        <v>1</v>
+      </c>
+      <c r="K764" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L764" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A765" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B765" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C765" s="12">
+        <v>1</v>
+      </c>
+      <c r="D765" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E765" s="8">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="F765" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G765" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H765" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I765" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J765" s="7">
+        <v>1</v>
+      </c>
+      <c r="K765" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L765" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A766" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B766" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C766" s="12">
+        <v>1</v>
+      </c>
+      <c r="D766" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E766" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F766" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G766" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H766" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I766" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J766" s="7">
+        <v>1</v>
+      </c>
+      <c r="K766" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L766" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A767" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B767" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C767" s="12">
+        <v>1</v>
+      </c>
+      <c r="D767" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E767" s="8">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="F767" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G767" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H767" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I767" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J767" s="7">
+        <v>1</v>
+      </c>
+      <c r="K767" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L767" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A768" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B768" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C768" s="12">
+        <v>1</v>
+      </c>
+      <c r="D768" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E768" s="8">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="F768" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G768" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H768" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I768" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J768" s="7">
+        <v>1</v>
+      </c>
+      <c r="K768" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L768" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A769" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B769" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C769" s="12">
+        <v>1</v>
+      </c>
+      <c r="D769" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E769" s="8">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F769" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G769" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H769" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I769" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J769" s="7">
+        <v>1</v>
+      </c>
+      <c r="K769" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L769" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A770" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B770" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C770" s="12">
+        <v>2</v>
+      </c>
+      <c r="D770" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E770" s="8">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="F770" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G770" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H770" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I770" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J770" s="7">
+        <v>1</v>
+      </c>
+      <c r="K770" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L770" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A771" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B771" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C771" s="12">
+        <v>2</v>
+      </c>
+      <c r="D771" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E771" s="8">
+        <v>0.15208333333333332</v>
+      </c>
+      <c r="F771" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G771" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H771" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I771" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J771" s="7">
+        <v>1</v>
+      </c>
+      <c r="K771" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L771" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A772" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B772" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C772" s="12">
+        <v>2</v>
+      </c>
+      <c r="D772" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E772" s="8">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="F772" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G772" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H772" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I772" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J772" s="7">
+        <v>1</v>
+      </c>
+      <c r="K772" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L772" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A773" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B773" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C773" s="12">
+        <v>2</v>
+      </c>
+      <c r="D773" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E773" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F773" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G773" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H773" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I773" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J773" s="7">
+        <v>1</v>
+      </c>
+      <c r="K773" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L773" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A774" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B774" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C774" s="12">
+        <v>2</v>
+      </c>
+      <c r="D774" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E774" s="8">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="F774" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G774" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H774" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I774" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J774" s="7">
+        <v>1</v>
+      </c>
+      <c r="K774" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L774" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A775" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B775" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C775" s="12">
+        <v>2</v>
+      </c>
+      <c r="D775" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E775" s="8">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="F775" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G775" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H775" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I775" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J775" s="7">
+        <v>1</v>
+      </c>
+      <c r="K775" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L775" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A776" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B776" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C776" s="12">
+        <v>2</v>
+      </c>
+      <c r="D776" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E776" s="8">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="F776" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G776" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H776" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I776" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J776" s="7">
+        <v>1</v>
+      </c>
+      <c r="K776" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L776" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A777" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B777" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C777" s="12">
+        <v>2</v>
+      </c>
+      <c r="D777" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E777" s="8">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="F777" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G777" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H777" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I777" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J777" s="7">
+        <v>1</v>
+      </c>
+      <c r="K777" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L777" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A778" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B778" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C778" s="12">
+        <v>2</v>
+      </c>
+      <c r="D778" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E778" s="8">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="F778" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G778" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H778" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I778" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J778" s="7">
+        <v>1</v>
+      </c>
+      <c r="K778" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L778" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A779" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B779" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C779" s="12">
+        <v>2</v>
+      </c>
+      <c r="D779" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E779" s="8">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="F779" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G779" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H779" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I779" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J779" s="7">
+        <v>1</v>
+      </c>
+      <c r="K779" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L779" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A780" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B780" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C780" s="12">
+        <v>2</v>
+      </c>
+      <c r="D780" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E780" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="F780" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G780" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H780" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I780" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J780" s="7">
+        <v>1</v>
+      </c>
+      <c r="K780" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L780" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A781" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B781" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C781" s="12">
+        <v>2</v>
+      </c>
+      <c r="D781" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E781" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F781" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G781" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H781" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I781" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J781" s="7">
+        <v>1</v>
+      </c>
+      <c r="K781" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L781" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A782" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B782" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C782" s="12">
+        <v>2</v>
+      </c>
+      <c r="D782" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E782" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F782" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G782" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H782" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I782" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J782" s="7">
+        <v>1</v>
+      </c>
+      <c r="K782" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L782" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A783" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B783" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C783" s="12">
+        <v>2</v>
+      </c>
+      <c r="D783" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E783" s="8">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F783" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G783" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H783" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I783" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J783" s="7">
+        <v>1</v>
+      </c>
+      <c r="K783" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L783" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A784" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B784" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C784" s="12">
+        <v>2</v>
+      </c>
+      <c r="D784" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E784" s="8">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="F784" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G784" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H784" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I784" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J784" s="7">
+        <v>1</v>
+      </c>
+      <c r="K784" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L784" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A785" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B785" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C785" s="12">
+        <v>2</v>
+      </c>
+      <c r="D785" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E785" s="8">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="F785" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G785" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H785" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I785" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J785" s="7">
+        <v>1</v>
+      </c>
+      <c r="K785" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L785" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A786" s="6">
+        <v>44362</v>
+      </c>
+      <c r="B786" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C786" s="12">
+        <v>2</v>
+      </c>
+      <c r="D786" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E786" s="8">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="F786" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G786" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H786" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I786" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J786" s="7">
+        <v>1</v>
+      </c>
+      <c r="K786" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L786" s="12">
+        <v>3</v>
+      </c>
+      <c r="M786" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="787" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A787" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B787" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C787" s="12">
+        <v>1</v>
+      </c>
+      <c r="D787" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E787" s="8">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="F787" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G787" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H787" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I787" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J787" s="7">
+        <v>1</v>
+      </c>
+      <c r="K787" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L787" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A788" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B788" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C788" s="12">
+        <v>1</v>
+      </c>
+      <c r="D788" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="E788" s="8">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="F788" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G788" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H788" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I788" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J788" s="7">
+        <v>1</v>
+      </c>
+      <c r="K788" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L788" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A789" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B789" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C789" s="12">
+        <v>1</v>
+      </c>
+      <c r="D789" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E789" s="8">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="F789" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G789" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H789" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I789" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J789" s="7">
+        <v>1</v>
+      </c>
+      <c r="K789" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L789" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="790" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A790" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B790" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C790" s="12">
+        <v>1</v>
+      </c>
+      <c r="D790" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E790" s="8">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="F790" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G790" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H790" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I790" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J790" s="7">
+        <v>1</v>
+      </c>
+      <c r="K790" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L790" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A791" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B791" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C791" s="12">
+        <v>1</v>
+      </c>
+      <c r="D791" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E791" s="8">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="F791" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G791" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H791" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I791" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J791" s="7">
+        <v>1</v>
+      </c>
+      <c r="K791" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L791" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A792" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B792" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C792" s="12">
+        <v>1</v>
+      </c>
+      <c r="D792" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E792" s="8">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="F792" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G792" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H792" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I792" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J792" s="7">
+        <v>1</v>
+      </c>
+      <c r="K792" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L792" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A793" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B793" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C793" s="12">
+        <v>1</v>
+      </c>
+      <c r="D793" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E793" s="8">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="F793" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G793" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H793" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I793" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J793" s="7">
+        <v>1</v>
+      </c>
+      <c r="K793" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L793" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A794" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B794" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C794" s="12">
+        <v>1</v>
+      </c>
+      <c r="D794" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E794" s="8">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="F794" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G794" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H794" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I794" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J794" s="7">
+        <v>1</v>
+      </c>
+      <c r="K794" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L794" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A795" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B795" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C795" s="12">
+        <v>1</v>
+      </c>
+      <c r="D795" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E795" s="8">
+        <v>0.16527777777777777</v>
+      </c>
+      <c r="F795" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G795" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H795" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I795" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J795" s="7">
+        <v>1</v>
+      </c>
+      <c r="K795" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L795" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A796" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B796" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C796" s="12">
+        <v>1</v>
+      </c>
+      <c r="D796" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E796" s="8">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="F796" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G796" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H796" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I796" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J796" s="7">
+        <v>1</v>
+      </c>
+      <c r="K796" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L796" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A797" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B797" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C797" s="12">
+        <v>1</v>
+      </c>
+      <c r="D797" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E797" s="8">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="F797" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G797" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H797" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I797" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J797" s="7">
+        <v>1</v>
+      </c>
+      <c r="K797" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L797" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A798" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B798" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C798" s="12">
+        <v>1</v>
+      </c>
+      <c r="D798" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E798" s="8">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="F798" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G798" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H798" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I798" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J798" s="7">
+        <v>1</v>
+      </c>
+      <c r="K798" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L798" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A799" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B799" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C799" s="12">
+        <v>1</v>
+      </c>
+      <c r="D799" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E799" s="8">
+        <v>0.10277777777777779</v>
+      </c>
+      <c r="F799" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G799" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H799" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I799" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J799" s="7">
+        <v>1</v>
+      </c>
+      <c r="K799" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L799" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A800" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B800" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C800" s="12">
+        <v>1</v>
+      </c>
+      <c r="D800" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E800" s="8">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="F800" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G800" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H800" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I800" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J800" s="7">
+        <v>1</v>
+      </c>
+      <c r="K800" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L800" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A801" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B801" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C801" s="12">
+        <v>2</v>
+      </c>
+      <c r="D801" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E801" s="8">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="F801" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G801" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H801" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I801" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J801" s="7">
+        <v>1</v>
+      </c>
+      <c r="K801" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L801" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A802" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B802" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C802" s="12">
+        <v>2</v>
+      </c>
+      <c r="D802" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E802" s="8">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="F802" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G802" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H802" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I802" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J802" s="7">
+        <v>1</v>
+      </c>
+      <c r="K802" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L802" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A803" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B803" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C803" s="12">
+        <v>2</v>
+      </c>
+      <c r="D803" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E803" s="8">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="F803" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G803" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H803" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I803" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J803" s="7">
+        <v>1</v>
+      </c>
+      <c r="K803" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L803" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A804" s="6">
+        <v>44589</v>
+      </c>
+      <c r="B804" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C804" s="12">
+        <v>2</v>
+      </c>
+      <c r="D804" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E804" s="8">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="F804" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G804" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H804" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I804" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="J804" s="7">
+        <v>1</v>
+      </c>
+      <c r="K804" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L804" s="12">
         <v>3</v>
       </c>
     </row>

--- a/herbivory/data/herbivoryVideoDataSheet.xlsx
+++ b/herbivory/data/herbivoryVideoDataSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookepohlman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookepohlman/Documents/GitHub/photogrammetryNOAA/herbivory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E4732D-39EF-6643-9037-3E268CF32D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51104E86-36E3-0349-BD91-F341340A1FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7789" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8257" uniqueCount="507">
   <si>
     <t>date</t>
   </si>
@@ -1471,6 +1471,91 @@
   </si>
   <si>
     <t>GP090253</t>
+  </si>
+  <si>
+    <t>viride</t>
+  </si>
+  <si>
+    <t>Sparisoma viride</t>
+  </si>
+  <si>
+    <t>GP010252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He yanked the whole blade out!
+**Also the camera died and we only got 25 minutes of footage for this assay. This was the only encounter in that time. </t>
+  </si>
+  <si>
+    <t>GH029112</t>
+  </si>
+  <si>
+    <t>GH059112</t>
+  </si>
+  <si>
+    <t>GH069112</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>GH079112</t>
+  </si>
+  <si>
+    <t>GH089112</t>
+  </si>
+  <si>
+    <t>GH023953</t>
+  </si>
+  <si>
+    <t>GH033953</t>
+  </si>
+  <si>
+    <t>GH043953</t>
+  </si>
+  <si>
+    <t>GH063953</t>
+  </si>
+  <si>
+    <t>GH073953</t>
+  </si>
+  <si>
+    <t>GH024332</t>
+  </si>
+  <si>
+    <t>GH034332</t>
+  </si>
+  <si>
+    <t>GH044332</t>
+  </si>
+  <si>
+    <t>GP020069</t>
+  </si>
+  <si>
+    <t>GP030069</t>
+  </si>
+  <si>
+    <t>4,1,2</t>
+  </si>
+  <si>
+    <t>GP040069</t>
+  </si>
+  <si>
+    <t>chrysopterum</t>
+  </si>
+  <si>
+    <t>GH018273</t>
+  </si>
+  <si>
+    <t>GH038273</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>GH048273</t>
+  </si>
+  <si>
+    <t>GH058273</t>
   </si>
 </sst>
 </file>
@@ -1887,11 +1972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1027"/>
+  <dimension ref="A1:Z1082"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A996" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1031" sqref="I1031"/>
+      <pane ySplit="1" topLeftCell="A1047" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1084" sqref="B1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44978,6 +45063,2264 @@
         <v>2</v>
       </c>
       <c r="N1027" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A1028" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1028" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1028" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1028" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1028" s="8">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="F1028" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1028" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1028" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1028" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1028" s="18">
+        <v>1</v>
+      </c>
+      <c r="K1028" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1028" s="18">
+        <v>5</v>
+      </c>
+      <c r="M1028" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="N1028" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1029" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1029" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1029" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1029" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1029" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="F1029" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1029" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1029" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1029" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1029" s="18">
+        <v>1</v>
+      </c>
+      <c r="K1029" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1029" s="18">
+        <v>2</v>
+      </c>
+      <c r="N1029" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1030" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1030" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1030" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1030" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1030" s="8">
+        <v>0.26597222222222222</v>
+      </c>
+      <c r="F1030" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1030" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1030" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1030" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1030" s="18">
+        <v>1</v>
+      </c>
+      <c r="K1030" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1030" s="18">
+        <v>2</v>
+      </c>
+      <c r="N1030" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1031" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1031" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1031" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1031" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1031" s="8">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="F1031" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1031" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1031" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1031" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1031" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1031" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1031" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1031" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1032" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1032" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1032" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1032" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1032" s="8">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="F1032" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1032" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1032" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1032" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1032" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1032" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1032" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="N1032" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1033" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1033" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1033" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1033" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1033" s="8">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="F1033" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1033" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1033" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1033" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1033" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1033" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1033" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="N1033" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1034" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1034" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1034" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1034" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1034" s="8">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="F1034" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1034" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1034" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1034" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1034" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1034" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1034" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1034" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1035" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1035" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1035" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1035" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1035" s="8">
+        <v>0.2076388888888889</v>
+      </c>
+      <c r="F1035" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1035" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1035" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1035" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1035" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1035" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1035" s="7">
+        <v>3</v>
+      </c>
+      <c r="N1035" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1036" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1036" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1036" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1036" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1036" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F1036" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1036" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1036" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1036" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1036" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1036" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1036" s="7">
+        <v>5</v>
+      </c>
+      <c r="N1036" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1037" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1037" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1037" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1037" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1037" s="8">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="F1037" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1037" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1037" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1037" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1037" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1037" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1037" s="7">
+        <v>3</v>
+      </c>
+      <c r="N1037" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1038" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1038" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1038" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1038" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1038" s="8">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="F1038" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1038" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1038" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1038" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1038" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1038" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1038" s="12">
+        <v>4</v>
+      </c>
+      <c r="N1038" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1039" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1039" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1039" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1039" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1039" s="8">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="F1039" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1039" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1039" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1039" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1039" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1039" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1039" s="12">
+        <v>5</v>
+      </c>
+      <c r="N1039" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1040" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1040" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1040" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1040" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1040" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="F1040" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1040" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1040" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1040" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1040" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1040" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1040" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="N1040" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1041" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1041" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1041" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1041" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1041" s="8">
+        <v>0.48749999999999999</v>
+      </c>
+      <c r="F1041" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1041" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1041" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1041" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1041" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1041" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1041" s="12">
+        <v>1</v>
+      </c>
+      <c r="N1041" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1042" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1042" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1042" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1042" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E1042" s="8">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="F1042" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1042" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1042" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1042" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1042" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1042" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1042" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1042" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1043" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1043" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1043" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1043" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E1043" s="8">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="F1043" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1043" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1043" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1043" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1043" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1043" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1043" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="N1043" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1044" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1044" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1044" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1044" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1044" s="8">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="F1044" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1044" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1044" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1044" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1044" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1044" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1044" s="7">
+        <v>2</v>
+      </c>
+      <c r="N1044" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1045" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1045" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1045" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1045" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1045" s="8">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="F1045" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1045" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1045" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1045" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1045" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1045" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1045" s="7">
+        <v>2</v>
+      </c>
+      <c r="N1045" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1046" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1046" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1046" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1046" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1046" s="8">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F1046" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1046" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1046" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1046" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1046" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1046" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1046" s="12">
+        <v>1</v>
+      </c>
+      <c r="N1046" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1047" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1047" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1047" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1047" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1047" s="8">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="F1047" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1047" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1047" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1047" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1047" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1047" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1047" s="12">
+        <v>4</v>
+      </c>
+      <c r="N1047" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1048" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1048" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1048" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1048" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1048" s="8">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="F1048" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1048" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1048" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1048" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1048" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1048" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1048" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1048" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1049" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1049" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1049" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1049" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1049" s="8">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="F1049" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1049" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1049" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1049" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1049" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1049" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1049" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1049" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1050" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1050" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1050" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1050" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1050" s="8">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="F1050" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1050" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1050" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1050" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1050" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1050" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1050" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1050" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1051" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1051" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1051" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1051" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1051" s="8">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="F1051" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1051" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1051" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1051" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1051" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1051" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1051" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="N1051" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1052" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1052" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1052" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1052" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1052" s="8">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="F1052" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1052" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1052" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1052" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1052" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1052" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1052" s="7">
+        <v>2</v>
+      </c>
+      <c r="N1052" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1053" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1053" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1053" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1053" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1053" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="F1053" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1053" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1053" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1053" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1053" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1053" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1053" s="7">
+        <v>5</v>
+      </c>
+      <c r="N1053" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1054" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1054" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1054" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1054" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1054" s="8">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="F1054" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1054" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1054" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1054" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1054" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1054" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1054" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="N1054" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1055" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1055" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1055" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1055" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1055" s="8">
+        <v>0.43194444444444446</v>
+      </c>
+      <c r="F1055" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1055" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1055" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1055" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1055" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1055" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1055" s="7">
+        <v>3</v>
+      </c>
+      <c r="N1055" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1056" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1056" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1056" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1056" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1056" s="8">
+        <v>0.19166666666666665</v>
+      </c>
+      <c r="F1056" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1056" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1056" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1056" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1056" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1056" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1056" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1056" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1057" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1057" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1057" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1057" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1057" s="8">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="F1057" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1057" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1057" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1057" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1057" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1057" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1057" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1057" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1058" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1058" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1058" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1058" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1058" s="8">
+        <v>0.23055555555555554</v>
+      </c>
+      <c r="F1058" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1058" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1058" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1058" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1058" s="17">
+        <v>1</v>
+      </c>
+      <c r="K1058" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1058" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="N1058" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1059" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1059" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1059" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1059" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1059" s="8">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="F1059" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1059" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1059" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1059" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1059" s="17">
+        <v>1</v>
+      </c>
+      <c r="K1059" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1059" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1059" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1060" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1060" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1060" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1060" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1060" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F1060" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1060" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1060" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1060" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1060" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1060" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1060" s="7">
+        <v>3</v>
+      </c>
+      <c r="N1060" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1061" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1061" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1061" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1061" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1061" s="8">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F1061" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1061" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1061" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1061" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1061" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1061" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1061" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1061" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1062" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1062" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1062" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1062" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1062" s="8">
+        <v>0.32569444444444445</v>
+      </c>
+      <c r="F1062" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1062" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1062" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1062" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1062" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1062" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1062" s="7">
+        <v>3</v>
+      </c>
+      <c r="N1062" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1063" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1063" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1063" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1063" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1063" s="8">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="F1063" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1063" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1063" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1063" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1063" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1063" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1063" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1063" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1064" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1064" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1064" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1064" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1064" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F1064" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1064" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1064" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1064" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1064" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1064" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1064" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1064" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1065" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1065" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1065" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1065" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1065" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F1065" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1065" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1065" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1065" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1065" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1065" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1065" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="N1065" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1066" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1066" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1066" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1066" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1066" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F1066" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1066" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1066" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1066" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1066" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1066" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1066" s="7">
+        <v>4</v>
+      </c>
+      <c r="N1066" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1067" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1067" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1067" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1067" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1067" s="8">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="F1067" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1067" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1067" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1067" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1067" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1067" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1067" s="7">
+        <v>4</v>
+      </c>
+      <c r="N1067" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1068" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1068" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1068" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1068" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1068" s="8">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="F1068" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1068" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1068" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1068" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1068" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1068" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1068" s="7">
+        <v>5</v>
+      </c>
+      <c r="N1068" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1069" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1069" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1069" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1069" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1069" s="8">
+        <v>0.16944444444444443</v>
+      </c>
+      <c r="F1069" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1069" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1069" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1069" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1069" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1069" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1069" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1069" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1070" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1070" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1070" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1070" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1070" s="8">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="F1070" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1070" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1070" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1070" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1070" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1070" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1070" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1070" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1071" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1071" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1071" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1071" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1071" s="8">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="F1071" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1071" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1071" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1071" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1071" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1071" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1071" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="N1071" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1072" s="6">
+        <v>44761</v>
+      </c>
+      <c r="B1072" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1072" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1072" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="E1072" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="F1072" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1072" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1072" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1072" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1072" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1072" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1072" s="7">
+        <v>3</v>
+      </c>
+      <c r="N1072" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1073" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1073" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1073" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1073" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1073" s="8">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="F1073" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1073" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1073" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1073" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1073" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1073" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1073" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N1073" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1074" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1074" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1074" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1074" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1074" s="8">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="F1074" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1074" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1074" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1074" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1074" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1074" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1074" s="7">
+        <v>3</v>
+      </c>
+      <c r="N1074" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1075" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1075" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1075" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1075" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1075" s="8">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="F1075" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1075" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1075" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1075" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1075" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1075" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1075" s="7">
+        <v>2</v>
+      </c>
+      <c r="N1075" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1076" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1076" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1076" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1076" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1076" s="8">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="F1076" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1076" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1076" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1076" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1076" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1076" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1076" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1076" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1077" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1077" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1077" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1077" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1077" s="8">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="F1077" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1077" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1077" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1077" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1077" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1077" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1077" s="12">
+        <v>5</v>
+      </c>
+      <c r="N1077" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1078" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1078" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1078" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1078" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1078" s="8">
+        <v>0.36874999999999997</v>
+      </c>
+      <c r="F1078" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1078" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1078" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1078" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1078" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1078" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1078" s="12">
+        <v>5</v>
+      </c>
+      <c r="N1078" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1079" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1079" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1079" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1079" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1079" s="8">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="F1079" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1079" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1079" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1079" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1079" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1079" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1079" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1079" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1080" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1080" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1080" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1080" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1080" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F1080" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1080" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1080" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1080" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1080" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1080" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1080" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="N1080" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1081" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1081" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1081" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1081" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1081" s="8">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F1081" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1081" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1081" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1081" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1081" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1081" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1081" s="7">
+        <v>4</v>
+      </c>
+      <c r="N1081" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1082" s="6">
+        <v>44752</v>
+      </c>
+      <c r="B1082" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1082" s="12">
+        <v>2</v>
+      </c>
+      <c r="D1082" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1082" s="8">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="F1082" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1082" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1082" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1082" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1082" s="16">
+        <v>1</v>
+      </c>
+      <c r="K1082" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1082" s="12">
+        <v>3</v>
+      </c>
+      <c r="N1082" s="9" t="s">
         <v>384</v>
       </c>
     </row>
